--- a/SimulationStudyData/Model5/SimCase29_Yobs_SimRun2.xlsx
+++ b/SimulationStudyData/Model5/SimCase29_Yobs_SimRun2.xlsx
@@ -407,6402 +407,6402 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10.2018867894345</v>
+        <v>10.3519642381472</v>
       </c>
       <c r="B2" t="n">
-        <v>11.99665915821</v>
+        <v>11.1339151295273</v>
       </c>
       <c r="C2" t="n">
-        <v>12.2562122191015</v>
+        <v>13.0188932229216</v>
       </c>
       <c r="D2" t="n">
-        <v>12.9531457032746</v>
+        <v>-6.28263389575593</v>
       </c>
       <c r="E2" t="n">
-        <v>13.0972407989287</v>
+        <v>-7.10683658068078</v>
       </c>
       <c r="F2" t="n">
-        <v>14.2506439753808</v>
+        <v>-7.09997158173434</v>
       </c>
       <c r="G2" t="n">
-        <v>14.5491315015127</v>
+        <v>-7.96125765659542</v>
       </c>
       <c r="H2" t="n">
-        <v>18.4156318115267</v>
+        <v>-8.51472444789612</v>
       </c>
       <c r="I2" t="n">
-        <v>17.5721316020925</v>
+        <v>-8.81840785327313</v>
       </c>
       <c r="J2" t="n">
-        <v>18.4065615225203</v>
+        <v>-9.31493181925518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-4.9565371072223</v>
+        <v>-4.91510369525078</v>
       </c>
       <c r="B3" t="n">
-        <v>-5.13014503051501</v>
+        <v>-5.31970613972817</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.2019639874721</v>
+        <v>-5.46651993552087</v>
       </c>
       <c r="D3" t="n">
-        <v>-6.56074300591612</v>
+        <v>-6.68804876150229</v>
       </c>
       <c r="E3" t="n">
-        <v>-6.84933657256765</v>
+        <v>-6.68670751869884</v>
       </c>
       <c r="F3" t="n">
-        <v>-7.78076059033762</v>
+        <v>-7.63847789552798</v>
       </c>
       <c r="G3" t="n">
-        <v>-8.12187786497575</v>
+        <v>-8.08413471764475</v>
       </c>
       <c r="H3" t="n">
-        <v>-8.35235192122629</v>
+        <v>-8.38649668210087</v>
       </c>
       <c r="I3" t="n">
-        <v>-8.92791959627337</v>
+        <v>-9.16514064370868</v>
       </c>
       <c r="J3" t="n">
-        <v>-9.23764666440628</v>
+        <v>-9.25125913726542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>10.7632464407441</v>
+        <v>-5.2883698199588</v>
       </c>
       <c r="B4" t="n">
-        <v>11.2697952965226</v>
+        <v>-5.48023133494118</v>
       </c>
       <c r="C4" t="n">
-        <v>12.0625539077078</v>
+        <v>-5.86523357956471</v>
       </c>
       <c r="D4" t="n">
-        <v>11.6125706567738</v>
+        <v>-6.63140472333709</v>
       </c>
       <c r="E4" t="n">
-        <v>14.6153840250252</v>
+        <v>-6.95224150703172</v>
       </c>
       <c r="F4" t="n">
-        <v>14.7976906631893</v>
+        <v>-7.37062024024148</v>
       </c>
       <c r="G4" t="n">
-        <v>16.2924762091617</v>
+        <v>-7.90652338244285</v>
       </c>
       <c r="H4" t="n">
-        <v>16.9814027408958</v>
+        <v>-8.37924558389971</v>
       </c>
       <c r="I4" t="n">
-        <v>18.0052441633919</v>
+        <v>-8.90368142832218</v>
       </c>
       <c r="J4" t="n">
-        <v>18.4316548880555</v>
+        <v>-9.29997082289513</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>-4.99815123763905</v>
+        <v>-5.21121814423725</v>
       </c>
       <c r="B5" t="n">
-        <v>-5.4419353298687</v>
+        <v>-5.60490935019866</v>
       </c>
       <c r="C5" t="n">
-        <v>-5.1403389941321</v>
+        <v>-6.08420103380771</v>
       </c>
       <c r="D5" t="n">
-        <v>-6.05727957434769</v>
+        <v>-6.3654921891428</v>
       </c>
       <c r="E5" t="n">
-        <v>-6.65909970157488</v>
+        <v>-7.10219515277179</v>
       </c>
       <c r="F5" t="n">
-        <v>-7.50629808628314</v>
+        <v>-7.87951641094481</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.57755391353432</v>
+        <v>-8.30127486144773</v>
       </c>
       <c r="H5" t="n">
-        <v>-8.82802410942568</v>
+        <v>-8.18692706957149</v>
       </c>
       <c r="I5" t="n">
-        <v>-8.8003172360902</v>
+        <v>-9.36622093965116</v>
       </c>
       <c r="J5" t="n">
-        <v>-9.0970648151025</v>
+        <v>-9.27850906023096</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-5.00454657126226</v>
+        <v>10.0356979845449</v>
       </c>
       <c r="B6" t="n">
-        <v>-5.52535932361264</v>
+        <v>9.02420441037615</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.75779126766081</v>
+        <v>12.5141704705416</v>
       </c>
       <c r="D6" t="n">
-        <v>-6.8622480622598</v>
+        <v>12.8147179776336</v>
       </c>
       <c r="E6" t="n">
-        <v>-6.65633012503801</v>
+        <v>14.2288434457076</v>
       </c>
       <c r="F6" t="n">
-        <v>-7.60484718262441</v>
+        <v>14.7618496656122</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.68735067325512</v>
+        <v>16.8210349539955</v>
       </c>
       <c r="H6" t="n">
-        <v>-8.65042735748004</v>
+        <v>17.3437742382352</v>
       </c>
       <c r="I6" t="n">
-        <v>-9.00614289336537</v>
+        <v>18.1354288185044</v>
       </c>
       <c r="J6" t="n">
-        <v>-9.37159307430733</v>
+        <v>18.1169114161885</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8.30714740363058</v>
+        <v>-5.03442025948491</v>
       </c>
       <c r="B7" t="n">
-        <v>10.3104492809586</v>
+        <v>-5.94571998689522</v>
       </c>
       <c r="C7" t="n">
-        <v>11.3524554663063</v>
+        <v>-5.96092519432879</v>
       </c>
       <c r="D7" t="n">
-        <v>12.4852502419309</v>
+        <v>-5.87915391735693</v>
       </c>
       <c r="E7" t="n">
-        <v>14.8014205819682</v>
+        <v>-6.95475209351219</v>
       </c>
       <c r="F7" t="n">
-        <v>14.7129482271837</v>
+        <v>-7.31965650220047</v>
       </c>
       <c r="G7" t="n">
-        <v>15.0316905844256</v>
+        <v>-8.37372979753618</v>
       </c>
       <c r="H7" t="n">
-        <v>16.4184654784051</v>
+        <v>-8.54844254199597</v>
       </c>
       <c r="I7" t="n">
-        <v>18.2942649494702</v>
+        <v>-9.05956136051981</v>
       </c>
       <c r="J7" t="n">
-        <v>19.5340384043805</v>
+        <v>-9.30225518736415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>-5.15464103559829</v>
+        <v>9.85708513973537</v>
       </c>
       <c r="B8" t="n">
-        <v>-5.82211492732743</v>
+        <v>10.3629463547025</v>
       </c>
       <c r="C8" t="n">
-        <v>-5.96952536474179</v>
+        <v>11.3568652744694</v>
       </c>
       <c r="D8" t="n">
-        <v>-6.96257498438459</v>
+        <v>13.018426067017</v>
       </c>
       <c r="E8" t="n">
-        <v>-6.79015859050947</v>
+        <v>14.9277304964725</v>
       </c>
       <c r="F8" t="n">
-        <v>-7.77554289187295</v>
+        <v>15.0125404726056</v>
       </c>
       <c r="G8" t="n">
-        <v>-8.00408957508086</v>
+        <v>-8.03156391168224</v>
       </c>
       <c r="H8" t="n">
-        <v>-8.13418738723983</v>
+        <v>-8.52232988212879</v>
       </c>
       <c r="I8" t="n">
-        <v>-9.09085363830519</v>
+        <v>-9.03496261698377</v>
       </c>
       <c r="J8" t="n">
-        <v>-9.36497984784499</v>
+        <v>-9.70203792179376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-4.6111458727225</v>
+        <v>10.9035817034619</v>
       </c>
       <c r="B9" t="n">
-        <v>-5.54123661790473</v>
+        <v>-5.39802767833483</v>
       </c>
       <c r="C9" t="n">
-        <v>-5.7396175625849</v>
+        <v>-6.15804736608124</v>
       </c>
       <c r="D9" t="n">
-        <v>-6.19857755220871</v>
+        <v>-6.87344435421833</v>
       </c>
       <c r="E9" t="n">
-        <v>-7.03742292823964</v>
+        <v>-6.78317372527521</v>
       </c>
       <c r="F9" t="n">
-        <v>-8.13351627687246</v>
+        <v>-7.2742323772366</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.95647413892665</v>
+        <v>-7.49113318071892</v>
       </c>
       <c r="H9" t="n">
-        <v>-8.72640603479196</v>
+        <v>-8.23891071848976</v>
       </c>
       <c r="I9" t="n">
-        <v>-8.99508387184724</v>
+        <v>-8.96934307496141</v>
       </c>
       <c r="J9" t="n">
-        <v>-9.77718281218634</v>
+        <v>-9.68098263763581</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>9.65287166700027</v>
+        <v>10.8070234799161</v>
       </c>
       <c r="B10" t="n">
-        <v>11.2503012747657</v>
+        <v>12.7659185843965</v>
       </c>
       <c r="C10" t="n">
-        <v>10.9249296527946</v>
+        <v>12.693875316877</v>
       </c>
       <c r="D10" t="n">
-        <v>13.0924608685222</v>
+        <v>12.9440752581929</v>
       </c>
       <c r="E10" t="n">
-        <v>15.4270858983305</v>
+        <v>14.4516049020077</v>
       </c>
       <c r="F10" t="n">
-        <v>15.5489723894503</v>
+        <v>-7.58752432555134</v>
       </c>
       <c r="G10" t="n">
-        <v>17.1888956759165</v>
+        <v>-7.94909546864025</v>
       </c>
       <c r="H10" t="n">
-        <v>16.783090245708</v>
+        <v>-8.52263281299531</v>
       </c>
       <c r="I10" t="n">
-        <v>17.3842478195373</v>
+        <v>-8.97555714565748</v>
       </c>
       <c r="J10" t="n">
-        <v>20.3911071344078</v>
+        <v>-9.7924702626685</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-5.19859953779905</v>
+        <v>9.5309651413766</v>
       </c>
       <c r="B11" t="n">
-        <v>-5.17741277777411</v>
+        <v>11.366825135618</v>
       </c>
       <c r="C11" t="n">
-        <v>-5.68771563526818</v>
+        <v>11.4775509291363</v>
       </c>
       <c r="D11" t="n">
-        <v>-6.77584092579879</v>
+        <v>13.2279845453918</v>
       </c>
       <c r="E11" t="n">
-        <v>-6.82401527367075</v>
+        <v>12.9371544521074</v>
       </c>
       <c r="F11" t="n">
-        <v>-7.30685074968935</v>
+        <v>13.7490231532461</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.64108406162556</v>
+        <v>16.8186193047797</v>
       </c>
       <c r="H11" t="n">
-        <v>-8.29447869430611</v>
+        <v>-8.24702323215978</v>
       </c>
       <c r="I11" t="n">
-        <v>-8.82755364863683</v>
+        <v>-8.86040022621164</v>
       </c>
       <c r="J11" t="n">
-        <v>-9.21301282201258</v>
+        <v>-9.1700692534709</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-4.82974598624862</v>
+        <v>9.58433501698848</v>
       </c>
       <c r="B12" t="n">
-        <v>-5.23703495778997</v>
+        <v>10.9029406384962</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.01823518353558</v>
+        <v>11.5997940261175</v>
       </c>
       <c r="D12" t="n">
-        <v>-6.43193217920211</v>
+        <v>13.2537189973267</v>
       </c>
       <c r="E12" t="n">
-        <v>-7.1789838977519</v>
+        <v>15.9517960672262</v>
       </c>
       <c r="F12" t="n">
-        <v>-8.34239895368935</v>
+        <v>15.2230531932875</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.81868470265033</v>
+        <v>15.7640042996784</v>
       </c>
       <c r="H12" t="n">
-        <v>-8.26511988557939</v>
+        <v>16.8058552527835</v>
       </c>
       <c r="I12" t="n">
-        <v>-8.40489752448461</v>
+        <v>-8.94023725362986</v>
       </c>
       <c r="J12" t="n">
-        <v>-9.90908671632384</v>
+        <v>-9.52166035920089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>8.99971539861732</v>
+        <v>11.0216831570488</v>
       </c>
       <c r="B13" t="n">
-        <v>-5.47018922071559</v>
+        <v>10.8476259560707</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.23281041664182</v>
+        <v>11.9778274148402</v>
       </c>
       <c r="D13" t="n">
-        <v>-6.28215589525073</v>
+        <v>14.3596700961405</v>
       </c>
       <c r="E13" t="n">
-        <v>-7.04932127300127</v>
+        <v>13.1429443448806</v>
       </c>
       <c r="F13" t="n">
-        <v>-7.48494658430995</v>
+        <v>15.309525893896</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.70414316122601</v>
+        <v>14.9890930022358</v>
       </c>
       <c r="H13" t="n">
-        <v>-8.47626165291575</v>
+        <v>17.4474982645619</v>
       </c>
       <c r="I13" t="n">
-        <v>-9.18076347600333</v>
+        <v>18.2686920420042</v>
       </c>
       <c r="J13" t="n">
-        <v>-9.45860662060904</v>
+        <v>18.619055899425</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>10.8035296953041</v>
+        <v>-4.81210450716162</v>
       </c>
       <c r="B14" t="n">
-        <v>9.34860914038007</v>
+        <v>-5.53301188785826</v>
       </c>
       <c r="C14" t="n">
-        <v>13.332046051749</v>
+        <v>-6.08201529298781</v>
       </c>
       <c r="D14" t="n">
-        <v>13.2018646791247</v>
+        <v>-6.68123762818866</v>
       </c>
       <c r="E14" t="n">
-        <v>12.534660557948</v>
+        <v>-6.82329872847142</v>
       </c>
       <c r="F14" t="n">
-        <v>14.3641115562132</v>
+        <v>-7.64038425765321</v>
       </c>
       <c r="G14" t="n">
-        <v>14.4299968533595</v>
+        <v>-8.34004120189578</v>
       </c>
       <c r="H14" t="n">
-        <v>16.5724590859788</v>
+        <v>-8.70419917058814</v>
       </c>
       <c r="I14" t="n">
-        <v>18.1203084700634</v>
+        <v>-8.66662381949433</v>
       </c>
       <c r="J14" t="n">
-        <v>18.9097988151555</v>
+        <v>-9.22214678089912</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>9.94619394146771</v>
+        <v>10.0567467577011</v>
       </c>
       <c r="B15" t="n">
-        <v>10.5065299827974</v>
+        <v>10.7770292562387</v>
       </c>
       <c r="C15" t="n">
-        <v>12.8763630832805</v>
+        <v>11.2740053131424</v>
       </c>
       <c r="D15" t="n">
-        <v>13.3113183069926</v>
+        <v>11.5859610312441</v>
       </c>
       <c r="E15" t="n">
-        <v>15.0678636863244</v>
+        <v>14.2572885841977</v>
       </c>
       <c r="F15" t="n">
-        <v>15.5205648058228</v>
+        <v>13.7705772202092</v>
       </c>
       <c r="G15" t="n">
-        <v>-8.02666601648153</v>
+        <v>17.1296361147549</v>
       </c>
       <c r="H15" t="n">
-        <v>-8.31467288129302</v>
+        <v>18.3917737845338</v>
       </c>
       <c r="I15" t="n">
-        <v>-8.96261962552892</v>
+        <v>-9.14207624371716</v>
       </c>
       <c r="J15" t="n">
-        <v>-9.6992190027645</v>
+        <v>-9.54648070373085</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>10.7124237988423</v>
+        <v>9.21472194939866</v>
       </c>
       <c r="B16" t="n">
-        <v>11.5416377921003</v>
+        <v>10.876995217033</v>
       </c>
       <c r="C16" t="n">
-        <v>12.6602408984043</v>
+        <v>11.3916786584696</v>
       </c>
       <c r="D16" t="n">
-        <v>-6.59830902099132</v>
+        <v>12.619017335206</v>
       </c>
       <c r="E16" t="n">
-        <v>-7.25981967749077</v>
+        <v>13.9870959202278</v>
       </c>
       <c r="F16" t="n">
-        <v>-7.61289726034865</v>
+        <v>15.9426821308861</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.74148882696868</v>
+        <v>15.1525179627094</v>
       </c>
       <c r="H16" t="n">
-        <v>-8.30500162455739</v>
+        <v>17.8088415370755</v>
       </c>
       <c r="I16" t="n">
-        <v>-9.06482570860992</v>
+        <v>17.5937335667846</v>
       </c>
       <c r="J16" t="n">
-        <v>-9.71033719527434</v>
+        <v>19.1392842927851</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>10.9056555161624</v>
+        <v>10.1099695086317</v>
       </c>
       <c r="B17" t="n">
-        <v>10.501021926328</v>
+        <v>12.2082556353786</v>
       </c>
       <c r="C17" t="n">
-        <v>11.337597988635</v>
+        <v>12.8554677013102</v>
       </c>
       <c r="D17" t="n">
-        <v>13.9913363592918</v>
+        <v>13.2596357867218</v>
       </c>
       <c r="E17" t="n">
-        <v>14.6883456139959</v>
+        <v>14.7397268647116</v>
       </c>
       <c r="F17" t="n">
-        <v>14.1538271030629</v>
+        <v>15.31233102205</v>
       </c>
       <c r="G17" t="n">
-        <v>15.4233783115964</v>
+        <v>15.7511704107917</v>
       </c>
       <c r="H17" t="n">
-        <v>15.7317519543249</v>
+        <v>16.9920005163446</v>
       </c>
       <c r="I17" t="n">
-        <v>18.3967371777123</v>
+        <v>17.8683301874724</v>
       </c>
       <c r="J17" t="n">
-        <v>18.350730262456</v>
+        <v>18.6106486718198</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10.0408803022572</v>
+        <v>11.0070229343189</v>
       </c>
       <c r="B18" t="n">
-        <v>11.134587534506</v>
+        <v>10.0742974761856</v>
       </c>
       <c r="C18" t="n">
-        <v>12.2508451221874</v>
+        <v>10.2473557323092</v>
       </c>
       <c r="D18" t="n">
-        <v>12.576520319355</v>
+        <v>13.0574562894232</v>
       </c>
       <c r="E18" t="n">
-        <v>14.4690503292377</v>
+        <v>13.9779716988754</v>
       </c>
       <c r="F18" t="n">
-        <v>13.7854867996511</v>
+        <v>15.1153599370792</v>
       </c>
       <c r="G18" t="n">
-        <v>15.6563478945365</v>
+        <v>15.8646210049771</v>
       </c>
       <c r="H18" t="n">
-        <v>17.5839917652036</v>
+        <v>17.2480203250192</v>
       </c>
       <c r="I18" t="n">
-        <v>18.6020390045709</v>
+        <v>17.3832255334424</v>
       </c>
       <c r="J18" t="n">
-        <v>19.6152773373666</v>
+        <v>18.1718920984239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-4.79897750529337</v>
+        <v>10.2554315418911</v>
       </c>
       <c r="B19" t="n">
-        <v>-5.71608697309796</v>
+        <v>12.1232235160466</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.3010447940872</v>
+        <v>14.253418928178</v>
       </c>
       <c r="D19" t="n">
-        <v>-6.97482846401657</v>
+        <v>12.5995797500282</v>
       </c>
       <c r="E19" t="n">
-        <v>-6.81873124297676</v>
+        <v>12.746447155838</v>
       </c>
       <c r="F19" t="n">
-        <v>-7.73032517843281</v>
+        <v>15.8235991119679</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.55572331096575</v>
+        <v>15.5322535440509</v>
       </c>
       <c r="H19" t="n">
-        <v>-9.09328495636117</v>
+        <v>17.0346845740109</v>
       </c>
       <c r="I19" t="n">
-        <v>-8.86177698444556</v>
+        <v>17.8163479111199</v>
       </c>
       <c r="J19" t="n">
-        <v>-9.31806904657344</v>
+        <v>19.4309669391732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>9.73282234393398</v>
+        <v>-5.3263717360648</v>
       </c>
       <c r="B20" t="n">
-        <v>10.8024967955557</v>
+        <v>-4.98450853744747</v>
       </c>
       <c r="C20" t="n">
-        <v>10.8865088359617</v>
+        <v>-5.8043755447181</v>
       </c>
       <c r="D20" t="n">
-        <v>11.7038696596768</v>
+        <v>-6.28713159917042</v>
       </c>
       <c r="E20" t="n">
-        <v>14.8984779959733</v>
+        <v>-7.20794185016536</v>
       </c>
       <c r="F20" t="n">
-        <v>15.7474594156503</v>
+        <v>-7.19622546825688</v>
       </c>
       <c r="G20" t="n">
-        <v>14.5114288772961</v>
+        <v>-8.21782067788051</v>
       </c>
       <c r="H20" t="n">
-        <v>17.0742777575809</v>
+        <v>-8.55700755917168</v>
       </c>
       <c r="I20" t="n">
-        <v>17.2361174454347</v>
+        <v>-8.84864664751662</v>
       </c>
       <c r="J20" t="n">
-        <v>19.3733542260139</v>
+        <v>-9.5069533231205</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>9.72273274392913</v>
+        <v>11.1460867338805</v>
       </c>
       <c r="B21" t="n">
-        <v>10.4283432921032</v>
+        <v>12.0723051590669</v>
       </c>
       <c r="C21" t="n">
-        <v>12.6253350711877</v>
+        <v>12.4841700163164</v>
       </c>
       <c r="D21" t="n">
-        <v>13.5690644531948</v>
+        <v>13.4195762275771</v>
       </c>
       <c r="E21" t="n">
-        <v>14.6606125041402</v>
+        <v>13.2904191317038</v>
       </c>
       <c r="F21" t="n">
-        <v>13.8795502562073</v>
+        <v>14.032114998133</v>
       </c>
       <c r="G21" t="n">
-        <v>15.6665630878348</v>
+        <v>16.2081442349466</v>
       </c>
       <c r="H21" t="n">
-        <v>16.661711178676</v>
+        <v>16.5487754572444</v>
       </c>
       <c r="I21" t="n">
-        <v>19.1810617059349</v>
+        <v>17.9651976487135</v>
       </c>
       <c r="J21" t="n">
-        <v>18.9407749654676</v>
+        <v>17.8160428026809</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>9.9182919488724</v>
+        <v>9.47894707568582</v>
       </c>
       <c r="B22" t="n">
-        <v>10.3360033150628</v>
+        <v>11.2933108676728</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8181122845251</v>
+        <v>11.5452680489602</v>
       </c>
       <c r="D22" t="n">
-        <v>-6.36992054870922</v>
+        <v>-6.42151356094705</v>
       </c>
       <c r="E22" t="n">
-        <v>-6.90554519568777</v>
+        <v>-7.58473969692966</v>
       </c>
       <c r="F22" t="n">
-        <v>-7.4702011978092</v>
+        <v>-7.36315706267924</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.99757600326014</v>
+        <v>-7.99865378506695</v>
       </c>
       <c r="H22" t="n">
-        <v>-8.15353660173015</v>
+        <v>-8.09986484254347</v>
       </c>
       <c r="I22" t="n">
-        <v>-8.88789121040698</v>
+        <v>-8.92490950866485</v>
       </c>
       <c r="J22" t="n">
-        <v>-9.58023986547802</v>
+        <v>-9.91063274888064</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>10.5505973426631</v>
+        <v>9.96526035399042</v>
       </c>
       <c r="B23" t="n">
-        <v>11.3424602046411</v>
+        <v>11.398948635999</v>
       </c>
       <c r="C23" t="n">
-        <v>13.5516320498275</v>
+        <v>11.5468743501753</v>
       </c>
       <c r="D23" t="n">
-        <v>13.5783707614807</v>
+        <v>13.0849876997113</v>
       </c>
       <c r="E23" t="n">
-        <v>14.1168458699706</v>
+        <v>13.0111844080015</v>
       </c>
       <c r="F23" t="n">
-        <v>14.4976302217465</v>
+        <v>15.7714405628132</v>
       </c>
       <c r="G23" t="n">
-        <v>15.5486479541409</v>
+        <v>15.5895636960176</v>
       </c>
       <c r="H23" t="n">
-        <v>18.7396258898143</v>
+        <v>16.7377467414719</v>
       </c>
       <c r="I23" t="n">
-        <v>17.3224991746079</v>
+        <v>17.5139267947902</v>
       </c>
       <c r="J23" t="n">
-        <v>19.2213256069488</v>
+        <v>19.8899203209929</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>10.6757794173841</v>
+        <v>9.38045216880797</v>
       </c>
       <c r="B24" t="n">
-        <v>10.3186378920306</v>
+        <v>11.5271672904292</v>
       </c>
       <c r="C24" t="n">
-        <v>10.5854158205415</v>
+        <v>13.4028015273917</v>
       </c>
       <c r="D24" t="n">
-        <v>12.3598024064377</v>
+        <v>12.5744743220777</v>
       </c>
       <c r="E24" t="n">
-        <v>13.5864419796941</v>
+        <v>13.6791800762417</v>
       </c>
       <c r="F24" t="n">
-        <v>14.0951202248524</v>
+        <v>14.8869731304835</v>
       </c>
       <c r="G24" t="n">
-        <v>16.6785354798927</v>
+        <v>15.9148644288401</v>
       </c>
       <c r="H24" t="n">
-        <v>16.7840937733207</v>
+        <v>16.7748614105842</v>
       </c>
       <c r="I24" t="n">
-        <v>18.2182555864591</v>
+        <v>17.6765406052265</v>
       </c>
       <c r="J24" t="n">
-        <v>20.367348138631</v>
+        <v>18.6728947765583</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>10.428836666762</v>
+        <v>10.7920407169887</v>
       </c>
       <c r="B25" t="n">
-        <v>10.549079619911</v>
+        <v>-5.4334357386139</v>
       </c>
       <c r="C25" t="n">
-        <v>11.9338421483766</v>
+        <v>-5.77562049240869</v>
       </c>
       <c r="D25" t="n">
-        <v>13.190361834861</v>
+        <v>-6.4790374958714</v>
       </c>
       <c r="E25" t="n">
-        <v>15.3980476065809</v>
+        <v>-7.04812837692073</v>
       </c>
       <c r="F25" t="n">
-        <v>-7.56611972135021</v>
+        <v>-7.24528842024761</v>
       </c>
       <c r="G25" t="n">
-        <v>-8.08159572660724</v>
+        <v>-8.0043120453982</v>
       </c>
       <c r="H25" t="n">
-        <v>-8.72648529315402</v>
+        <v>-8.34720895026867</v>
       </c>
       <c r="I25" t="n">
-        <v>-9.19759207291564</v>
+        <v>-8.95765842505352</v>
       </c>
       <c r="J25" t="n">
-        <v>-9.12651027580259</v>
+        <v>-9.22130787966376</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>10.7114380607357</v>
+        <v>8.88125697052294</v>
       </c>
       <c r="B26" t="n">
-        <v>10.9651122108668</v>
+        <v>10.475431845585</v>
       </c>
       <c r="C26" t="n">
-        <v>11.4544006652152</v>
+        <v>13.2789824774349</v>
       </c>
       <c r="D26" t="n">
-        <v>13.0197695203153</v>
+        <v>13.8275703125888</v>
       </c>
       <c r="E26" t="n">
-        <v>14.1376014628566</v>
+        <v>13.0325564534431</v>
       </c>
       <c r="F26" t="n">
-        <v>16.2050648206467</v>
+        <v>14.9128208105413</v>
       </c>
       <c r="G26" t="n">
-        <v>14.6817660483596</v>
+        <v>15.6274233504919</v>
       </c>
       <c r="H26" t="n">
-        <v>-8.52747421819611</v>
+        <v>16.8714837130634</v>
       </c>
       <c r="I26" t="n">
-        <v>-8.71933769210342</v>
+        <v>17.2416344111938</v>
       </c>
       <c r="J26" t="n">
-        <v>-9.23181100488353</v>
+        <v>19.6609810164793</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>9.82244586294334</v>
+        <v>10.5410294149279</v>
       </c>
       <c r="B27" t="n">
-        <v>9.98060593361612</v>
+        <v>10.603911348053</v>
       </c>
       <c r="C27" t="n">
-        <v>-6.24777150526566</v>
+        <v>11.3213626617945</v>
       </c>
       <c r="D27" t="n">
-        <v>-6.59062486552916</v>
+        <v>13.9208727183372</v>
       </c>
       <c r="E27" t="n">
-        <v>-7.19062341413148</v>
+        <v>-7.07097798343823</v>
       </c>
       <c r="F27" t="n">
-        <v>-7.08484888511966</v>
+        <v>-6.94949045549401</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.73629550123043</v>
+        <v>-8.20615127264718</v>
       </c>
       <c r="H27" t="n">
-        <v>-8.68862110236778</v>
+        <v>-8.44058357916544</v>
       </c>
       <c r="I27" t="n">
-        <v>-8.93419389167978</v>
+        <v>-8.92554169438571</v>
       </c>
       <c r="J27" t="n">
-        <v>-9.69447698734023</v>
+        <v>-9.4454102772784</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-5.0521566294324</v>
+        <v>10.66314832288</v>
       </c>
       <c r="B28" t="n">
-        <v>-5.55243969240561</v>
+        <v>11.5263029011758</v>
       </c>
       <c r="C28" t="n">
-        <v>-6.28861275894484</v>
+        <v>12.3636189724374</v>
       </c>
       <c r="D28" t="n">
-        <v>-6.54273938598658</v>
+        <v>14.3150385560127</v>
       </c>
       <c r="E28" t="n">
-        <v>-7.20215261903082</v>
+        <v>13.4717596629926</v>
       </c>
       <c r="F28" t="n">
-        <v>-7.83590603514899</v>
+        <v>14.7143109793529</v>
       </c>
       <c r="G28" t="n">
-        <v>-8.42803510897686</v>
+        <v>14.4255102095766</v>
       </c>
       <c r="H28" t="n">
-        <v>16.0887064225116</v>
+        <v>16.3575434031965</v>
       </c>
       <c r="I28" t="n">
-        <v>17.626844520602</v>
+        <v>18.2597063808571</v>
       </c>
       <c r="J28" t="n">
-        <v>19.4756976171447</v>
+        <v>19.76029744358</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-5.25265953427545</v>
+        <v>9.4571708008921</v>
       </c>
       <c r="B29" t="n">
-        <v>-5.76140799979036</v>
+        <v>10.5009491406645</v>
       </c>
       <c r="C29" t="n">
-        <v>-5.61789923356982</v>
+        <v>12.8136945891372</v>
       </c>
       <c r="D29" t="n">
-        <v>-6.65423554106269</v>
+        <v>12.521655299074</v>
       </c>
       <c r="E29" t="n">
-        <v>-7.00330013694702</v>
+        <v>14.7315845574826</v>
       </c>
       <c r="F29" t="n">
-        <v>-7.39666033311733</v>
+        <v>15.5957264997583</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.87867649561915</v>
+        <v>15.8510130797902</v>
       </c>
       <c r="H29" t="n">
-        <v>-8.56984680037826</v>
+        <v>16.4761218554248</v>
       </c>
       <c r="I29" t="n">
-        <v>-9.08699791575325</v>
+        <v>17.8381322349642</v>
       </c>
       <c r="J29" t="n">
-        <v>-9.04489955393682</v>
+        <v>18.8147395324965</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>10.6211703796441</v>
+        <v>-5.11800171024587</v>
       </c>
       <c r="B30" t="n">
-        <v>10.3417536903806</v>
+        <v>-5.50637913799978</v>
       </c>
       <c r="C30" t="n">
-        <v>12.2751872080448</v>
+        <v>-5.98623138631583</v>
       </c>
       <c r="D30" t="n">
-        <v>12.8667624330565</v>
+        <v>-6.76214676958884</v>
       </c>
       <c r="E30" t="n">
-        <v>13.4398869522469</v>
+        <v>-6.95989882285648</v>
       </c>
       <c r="F30" t="n">
-        <v>14.2381262455163</v>
+        <v>-7.41657896437601</v>
       </c>
       <c r="G30" t="n">
-        <v>16.4047550384648</v>
+        <v>-7.97721507250742</v>
       </c>
       <c r="H30" t="n">
-        <v>17.9834189557428</v>
+        <v>-8.55513468200079</v>
       </c>
       <c r="I30" t="n">
-        <v>19.052756869558</v>
+        <v>-9.2180873692797</v>
       </c>
       <c r="J30" t="n">
-        <v>17.9927233917386</v>
+        <v>-9.4758142736179</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-5.16266985248614</v>
+        <v>10.9137450326878</v>
       </c>
       <c r="B31" t="n">
-        <v>-5.81534025736737</v>
+        <v>9.9370042909977</v>
       </c>
       <c r="C31" t="n">
-        <v>-5.89441729033963</v>
+        <v>11.4931319891323</v>
       </c>
       <c r="D31" t="n">
-        <v>-6.90222962571476</v>
+        <v>13.1088906881295</v>
       </c>
       <c r="E31" t="n">
-        <v>-7.41304482824295</v>
+        <v>15.1142079351046</v>
       </c>
       <c r="F31" t="n">
-        <v>-7.29444597800853</v>
+        <v>14.7686554941934</v>
       </c>
       <c r="G31" t="n">
-        <v>-8.02350115248049</v>
+        <v>15.1321709965045</v>
       </c>
       <c r="H31" t="n">
-        <v>-8.6363644933223</v>
+        <v>-8.80045264221878</v>
       </c>
       <c r="I31" t="n">
-        <v>-8.99768198242017</v>
+        <v>-8.82194222467445</v>
       </c>
       <c r="J31" t="n">
-        <v>-9.91686204115679</v>
+        <v>-9.11932223018718</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-4.93080677948356</v>
+        <v>9.81195922012965</v>
       </c>
       <c r="B32" t="n">
-        <v>-5.84758656649059</v>
+        <v>11.4565731475641</v>
       </c>
       <c r="C32" t="n">
-        <v>-5.94127921831208</v>
+        <v>12.529427975489</v>
       </c>
       <c r="D32" t="n">
-        <v>-6.47836057606067</v>
+        <v>12.2406481822556</v>
       </c>
       <c r="E32" t="n">
-        <v>-7.09268224799185</v>
+        <v>13.3834791952811</v>
       </c>
       <c r="F32" t="n">
-        <v>-7.46438386131137</v>
+        <v>14.6298624328331</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.61199851258679</v>
+        <v>16.3916628021687</v>
       </c>
       <c r="H32" t="n">
-        <v>-8.61840859232841</v>
+        <v>16.4032441248599</v>
       </c>
       <c r="I32" t="n">
-        <v>-9.11882572851285</v>
+        <v>19.8436639208531</v>
       </c>
       <c r="J32" t="n">
-        <v>-9.7909516734359</v>
+        <v>19.1740884544381</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>10.9921403335725</v>
+        <v>9.94852080965815</v>
       </c>
       <c r="B33" t="n">
-        <v>10.3943728420019</v>
+        <v>11.7561886490367</v>
       </c>
       <c r="C33" t="n">
-        <v>12.3139608053372</v>
+        <v>12.4863908240129</v>
       </c>
       <c r="D33" t="n">
-        <v>-6.20635115443571</v>
+        <v>12.4270557334708</v>
       </c>
       <c r="E33" t="n">
-        <v>-6.94964520119929</v>
+        <v>14.3037832542563</v>
       </c>
       <c r="F33" t="n">
-        <v>-7.71756506055509</v>
+        <v>15.7975377527362</v>
       </c>
       <c r="G33" t="n">
-        <v>-8.1616210262753</v>
+        <v>15.4234429741329</v>
       </c>
       <c r="H33" t="n">
-        <v>-8.68683238837052</v>
+        <v>17.1241984433244</v>
       </c>
       <c r="I33" t="n">
-        <v>-9.29579902488254</v>
+        <v>17.6489828883449</v>
       </c>
       <c r="J33" t="n">
-        <v>-9.64851548094598</v>
+        <v>20.136625339564</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-4.93925234685445</v>
+        <v>-4.92714382425545</v>
       </c>
       <c r="B34" t="n">
-        <v>-5.70234072203947</v>
+        <v>-5.6665655763878</v>
       </c>
       <c r="C34" t="n">
-        <v>-6.24412115481876</v>
+        <v>-5.91290928301679</v>
       </c>
       <c r="D34" t="n">
-        <v>-6.3688835428931</v>
+        <v>-6.05388434568439</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.03086254292428</v>
+        <v>-7.10899547114905</v>
       </c>
       <c r="F34" t="n">
-        <v>-6.99084547200314</v>
+        <v>-7.76529751103271</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.90340813913067</v>
+        <v>-7.74879846635972</v>
       </c>
       <c r="H34" t="n">
-        <v>-8.38994109752067</v>
+        <v>-8.19494746080302</v>
       </c>
       <c r="I34" t="n">
-        <v>-9.249135110765</v>
+        <v>-9.37275215483736</v>
       </c>
       <c r="J34" t="n">
-        <v>-9.74225952606189</v>
+        <v>-9.59169966316356</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>10.417613380716</v>
+        <v>-5.13117013630719</v>
       </c>
       <c r="B35" t="n">
-        <v>10.6282608842474</v>
+        <v>-5.5626319691495</v>
       </c>
       <c r="C35" t="n">
-        <v>11.1671376745813</v>
+        <v>-6.10584003860743</v>
       </c>
       <c r="D35" t="n">
-        <v>13.2365151446237</v>
+        <v>11.8158181504895</v>
       </c>
       <c r="E35" t="n">
-        <v>14.3437323594101</v>
+        <v>14.4656014459568</v>
       </c>
       <c r="F35" t="n">
-        <v>14.5902510547248</v>
+        <v>14.9627687949571</v>
       </c>
       <c r="G35" t="n">
-        <v>16.5208900072579</v>
+        <v>16.799708959616</v>
       </c>
       <c r="H35" t="n">
-        <v>19.2570334421866</v>
+        <v>-8.42066108820508</v>
       </c>
       <c r="I35" t="n">
-        <v>18.635987138173</v>
+        <v>-9.1197708365256</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.17558119946433</v>
+        <v>-9.10241199516627</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>10.8961075212332</v>
+        <v>-4.81992295978918</v>
       </c>
       <c r="B36" t="n">
-        <v>10.9322907072202</v>
+        <v>-5.71761457227239</v>
       </c>
       <c r="C36" t="n">
-        <v>11.7658819988576</v>
+        <v>-6.29921790985095</v>
       </c>
       <c r="D36" t="n">
-        <v>12.5413197855198</v>
+        <v>-6.36687099874953</v>
       </c>
       <c r="E36" t="n">
-        <v>13.8364878924988</v>
+        <v>-7.09456074994128</v>
       </c>
       <c r="F36" t="n">
-        <v>14.9664548100447</v>
+        <v>-7.2900349151917</v>
       </c>
       <c r="G36" t="n">
-        <v>15.3382831758487</v>
+        <v>-8.35031660048321</v>
       </c>
       <c r="H36" t="n">
-        <v>17.161255546055</v>
+        <v>-8.76696850609072</v>
       </c>
       <c r="I36" t="n">
-        <v>17.464590818001</v>
+        <v>-9.04731554184759</v>
       </c>
       <c r="J36" t="n">
-        <v>19.1700248940922</v>
+        <v>-9.97226169303212</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>9.08409701598859</v>
+        <v>-5.02681719669525</v>
       </c>
       <c r="B37" t="n">
-        <v>11.9188080659324</v>
+        <v>-5.4413537637044</v>
       </c>
       <c r="C37" t="n">
-        <v>11.2558447816961</v>
+        <v>-5.82485255400237</v>
       </c>
       <c r="D37" t="n">
-        <v>14.2259174541863</v>
+        <v>-6.72489603118611</v>
       </c>
       <c r="E37" t="n">
-        <v>13.1866681203199</v>
+        <v>-6.84841633493616</v>
       </c>
       <c r="F37" t="n">
-        <v>13.9741917783725</v>
+        <v>-7.5159520615011</v>
       </c>
       <c r="G37" t="n">
-        <v>15.9746212168799</v>
+        <v>-8.21746802573352</v>
       </c>
       <c r="H37" t="n">
-        <v>17.6238692618117</v>
+        <v>-8.99193412542145</v>
       </c>
       <c r="I37" t="n">
-        <v>17.2411098425229</v>
+        <v>-8.97029677050214</v>
       </c>
       <c r="J37" t="n">
-        <v>20.122268849725</v>
+        <v>-9.62714758120059</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>9.1635194627046</v>
+        <v>9.84483819636324</v>
       </c>
       <c r="B38" t="n">
-        <v>10.6743572707785</v>
+        <v>10.741726800448</v>
       </c>
       <c r="C38" t="n">
-        <v>11.9136699714629</v>
+        <v>12.744073937856</v>
       </c>
       <c r="D38" t="n">
-        <v>12.7591646065084</v>
+        <v>13.0696688892394</v>
       </c>
       <c r="E38" t="n">
-        <v>12.4770809594242</v>
+        <v>15.0665580693758</v>
       </c>
       <c r="F38" t="n">
-        <v>15.1009041379492</v>
+        <v>13.2957683854365</v>
       </c>
       <c r="G38" t="n">
-        <v>17.0123952739096</v>
+        <v>15.9501901102141</v>
       </c>
       <c r="H38" t="n">
-        <v>17.0252449116797</v>
+        <v>15.9495503146979</v>
       </c>
       <c r="I38" t="n">
-        <v>17.5962186782326</v>
+        <v>18.2882132999724</v>
       </c>
       <c r="J38" t="n">
-        <v>18.9990642119328</v>
+        <v>19.6963535790929</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>9.85766982508532</v>
+        <v>9.94315050633771</v>
       </c>
       <c r="B39" t="n">
-        <v>9.97748988236702</v>
+        <v>12.511913166011</v>
       </c>
       <c r="C39" t="n">
-        <v>11.2065146180154</v>
+        <v>11.5942631863274</v>
       </c>
       <c r="D39" t="n">
-        <v>-6.32530522592666</v>
+        <v>12.9087118813792</v>
       </c>
       <c r="E39" t="n">
-        <v>-7.36637731287469</v>
+        <v>14.0828059836021</v>
       </c>
       <c r="F39" t="n">
-        <v>-7.9632480291812</v>
+        <v>15.2629156645426</v>
       </c>
       <c r="G39" t="n">
-        <v>-8.14390989368365</v>
+        <v>16.3512448935849</v>
       </c>
       <c r="H39" t="n">
-        <v>-8.2615860644122</v>
+        <v>16.6223788490269</v>
       </c>
       <c r="I39" t="n">
-        <v>-8.70573980511613</v>
+        <v>17.3578968576875</v>
       </c>
       <c r="J39" t="n">
-        <v>-9.7871344388486</v>
+        <v>18.6845387452628</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>10.5918572511665</v>
+        <v>-4.75571395718427</v>
       </c>
       <c r="B40" t="n">
-        <v>12.1535950658311</v>
+        <v>-5.49167914783467</v>
       </c>
       <c r="C40" t="n">
-        <v>12.7855421342777</v>
+        <v>-6.03093906514466</v>
       </c>
       <c r="D40" t="n">
-        <v>14.1301363128957</v>
+        <v>-6.40501205758267</v>
       </c>
       <c r="E40" t="n">
-        <v>13.1386486072807</v>
+        <v>-6.78042179448911</v>
       </c>
       <c r="F40" t="n">
-        <v>16.34145171788</v>
+        <v>14.373449107205</v>
       </c>
       <c r="G40" t="n">
-        <v>15.3214073545904</v>
+        <v>15.5822369727311</v>
       </c>
       <c r="H40" t="n">
-        <v>17.4339514601581</v>
+        <v>17.1542600600645</v>
       </c>
       <c r="I40" t="n">
-        <v>19.0153588680518</v>
+        <v>17.4209591709371</v>
       </c>
       <c r="J40" t="n">
-        <v>19.4347323587167</v>
+        <v>19.0318759957347</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>10.5912746972506</v>
+        <v>9.28725916617682</v>
       </c>
       <c r="B41" t="n">
-        <v>10.4001981811451</v>
+        <v>10.7567707149258</v>
       </c>
       <c r="C41" t="n">
-        <v>11.2270700928379</v>
+        <v>11.4468717842808</v>
       </c>
       <c r="D41" t="n">
-        <v>12.1656381065347</v>
+        <v>13.1109913822655</v>
       </c>
       <c r="E41" t="n">
-        <v>15.1257129424659</v>
+        <v>15.3931687186687</v>
       </c>
       <c r="F41" t="n">
-        <v>15.4791692284807</v>
+        <v>13.7285824564954</v>
       </c>
       <c r="G41" t="n">
-        <v>16.992433019827</v>
+        <v>16.913771223999</v>
       </c>
       <c r="H41" t="n">
-        <v>17.6138580528846</v>
+        <v>17.2271676623191</v>
       </c>
       <c r="I41" t="n">
-        <v>18.3862821330604</v>
+        <v>17.4204470651053</v>
       </c>
       <c r="J41" t="n">
-        <v>18.493360402222</v>
+        <v>19.5354220740896</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>-4.90226161470133</v>
+        <v>10.4563692159564</v>
       </c>
       <c r="B42" t="n">
-        <v>-5.65435922382942</v>
+        <v>11.7960269712863</v>
       </c>
       <c r="C42" t="n">
-        <v>-5.99005768487928</v>
+        <v>12.453105272604</v>
       </c>
       <c r="D42" t="n">
-        <v>-6.42506401940485</v>
+        <v>13.1301168366342</v>
       </c>
       <c r="E42" t="n">
-        <v>-7.10638148769591</v>
+        <v>16.207616258226</v>
       </c>
       <c r="F42" t="n">
-        <v>-8.04464061846602</v>
+        <v>15.0752147636091</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.81616572765716</v>
+        <v>16.9533825547708</v>
       </c>
       <c r="H42" t="n">
-        <v>-8.03754954968657</v>
+        <v>17.2527440330564</v>
       </c>
       <c r="I42" t="n">
-        <v>-8.65517200678303</v>
+        <v>17.1215069350807</v>
       </c>
       <c r="J42" t="n">
-        <v>-9.05393399076775</v>
+        <v>18.9493980670434</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>10.2722445120631</v>
+        <v>-4.743250782946</v>
       </c>
       <c r="B43" t="n">
-        <v>11.4370314077641</v>
+        <v>11.3248506939087</v>
       </c>
       <c r="C43" t="n">
-        <v>12.3737318355442</v>
+        <v>-5.70310532779137</v>
       </c>
       <c r="D43" t="n">
-        <v>12.749405136103</v>
+        <v>-6.33975701322299</v>
       </c>
       <c r="E43" t="n">
-        <v>14.5658453223511</v>
+        <v>-7.16015143858013</v>
       </c>
       <c r="F43" t="n">
-        <v>14.3944917213186</v>
+        <v>-7.65597884037989</v>
       </c>
       <c r="G43" t="n">
-        <v>16.2674823069419</v>
+        <v>-8.03029828471747</v>
       </c>
       <c r="H43" t="n">
-        <v>17.3521800704888</v>
+        <v>-8.54689405082422</v>
       </c>
       <c r="I43" t="n">
-        <v>17.3015786612135</v>
+        <v>-9.35929621582762</v>
       </c>
       <c r="J43" t="n">
-        <v>17.5720317661143</v>
+        <v>-9.28324992071064</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>-5.50600952422055</v>
+        <v>-4.73712018242493</v>
       </c>
       <c r="B44" t="n">
-        <v>-5.64840529225696</v>
+        <v>-5.61200172593366</v>
       </c>
       <c r="C44" t="n">
-        <v>-6.2193922246189</v>
+        <v>-5.86248285528683</v>
       </c>
       <c r="D44" t="n">
-        <v>-6.40624363402043</v>
+        <v>-6.26903417222272</v>
       </c>
       <c r="E44" t="n">
-        <v>-7.26129807078951</v>
+        <v>-7.23651646454261</v>
       </c>
       <c r="F44" t="n">
-        <v>-7.53507548207452</v>
+        <v>-7.23547719067865</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.9160808392455</v>
+        <v>-7.84706605658901</v>
       </c>
       <c r="H44" t="n">
-        <v>-8.35310108363208</v>
+        <v>-9.20827609586552</v>
       </c>
       <c r="I44" t="n">
-        <v>-8.92563936284426</v>
+        <v>-8.71343351314451</v>
       </c>
       <c r="J44" t="n">
-        <v>-9.28697941448826</v>
+        <v>-9.82440874277932</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>10.0568166919039</v>
+        <v>9.61718148045442</v>
       </c>
       <c r="B45" t="n">
-        <v>11.4040896504913</v>
+        <v>10.0758915321114</v>
       </c>
       <c r="C45" t="n">
-        <v>12.20130053567</v>
+        <v>12.9630961968598</v>
       </c>
       <c r="D45" t="n">
-        <v>13.3912947159472</v>
+        <v>14.4051407770073</v>
       </c>
       <c r="E45" t="n">
-        <v>14.5994237864268</v>
+        <v>14.0103825295712</v>
       </c>
       <c r="F45" t="n">
-        <v>15.4367294375564</v>
+        <v>14.7338430820084</v>
       </c>
       <c r="G45" t="n">
-        <v>15.3675518602095</v>
+        <v>15.0970672930259</v>
       </c>
       <c r="H45" t="n">
-        <v>17.3659656721221</v>
+        <v>16.8739876810151</v>
       </c>
       <c r="I45" t="n">
-        <v>18.3230679684878</v>
+        <v>17.7166308282743</v>
       </c>
       <c r="J45" t="n">
-        <v>18.9120274316925</v>
+        <v>-9.22108173016644</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>9.26929369263277</v>
+        <v>-4.73695957127904</v>
       </c>
       <c r="B46" t="n">
-        <v>12.7742930168083</v>
+        <v>-5.48469810238701</v>
       </c>
       <c r="C46" t="n">
-        <v>11.9406966609667</v>
+        <v>-5.82491153166271</v>
       </c>
       <c r="D46" t="n">
-        <v>13.6747322399637</v>
+        <v>-6.4033456628907</v>
       </c>
       <c r="E46" t="n">
-        <v>13.0910811218238</v>
+        <v>-7.30097338204394</v>
       </c>
       <c r="F46" t="n">
-        <v>14.8439385989322</v>
+        <v>-7.22802224141796</v>
       </c>
       <c r="G46" t="n">
-        <v>15.5050871959304</v>
+        <v>-8.09817230793331</v>
       </c>
       <c r="H46" t="n">
-        <v>16.5043773086211</v>
+        <v>-7.9474619241824</v>
       </c>
       <c r="I46" t="n">
-        <v>17.2721994220945</v>
+        <v>-9.08677430451304</v>
       </c>
       <c r="J46" t="n">
-        <v>20.0250362200793</v>
+        <v>-9.53192797308677</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>10.968957941654</v>
+        <v>9.73266546141888</v>
       </c>
       <c r="B47" t="n">
-        <v>-5.39163469722908</v>
+        <v>10.9281201834978</v>
       </c>
       <c r="C47" t="n">
-        <v>-5.78185083941462</v>
+        <v>13.2979408223314</v>
       </c>
       <c r="D47" t="n">
-        <v>-5.93284548041945</v>
+        <v>11.6574704569825</v>
       </c>
       <c r="E47" t="n">
-        <v>-6.88863617286508</v>
+        <v>13.5443231495208</v>
       </c>
       <c r="F47" t="n">
-        <v>-7.66118657812461</v>
+        <v>14.7251355557573</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.76445117065582</v>
+        <v>15.4166144709355</v>
       </c>
       <c r="H47" t="n">
-        <v>-8.52808749437517</v>
+        <v>17.7298214390605</v>
       </c>
       <c r="I47" t="n">
-        <v>-8.63626376237681</v>
+        <v>19.1069918864798</v>
       </c>
       <c r="J47" t="n">
-        <v>-10.0939131897577</v>
+        <v>-9.01993779812246</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>10.487707449406</v>
+        <v>10.6670516382804</v>
       </c>
       <c r="B48" t="n">
-        <v>10.8520532797011</v>
+        <v>-5.73158546122162</v>
       </c>
       <c r="C48" t="n">
-        <v>10.9790186348937</v>
+        <v>-6.06465320430153</v>
       </c>
       <c r="D48" t="n">
-        <v>15.0016680216367</v>
+        <v>-5.93859532425291</v>
       </c>
       <c r="E48" t="n">
-        <v>13.490207940509</v>
+        <v>-7.1190859316293</v>
       </c>
       <c r="F48" t="n">
-        <v>14.224840539531</v>
+        <v>-7.49918278485473</v>
       </c>
       <c r="G48" t="n">
-        <v>14.986919619905</v>
+        <v>-8.22776427128714</v>
       </c>
       <c r="H48" t="n">
-        <v>17.1560391179942</v>
+        <v>-8.79295719972193</v>
       </c>
       <c r="I48" t="n">
-        <v>18.1784905809072</v>
+        <v>-9.07785550646727</v>
       </c>
       <c r="J48" t="n">
-        <v>19.1465889717892</v>
+        <v>-9.47190495716748</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>11.241770497392</v>
+        <v>9.98978523912915</v>
       </c>
       <c r="B49" t="n">
-        <v>10.563139737452</v>
+        <v>11.96214769934</v>
       </c>
       <c r="C49" t="n">
-        <v>10.8196742383543</v>
+        <v>11.7256180968366</v>
       </c>
       <c r="D49" t="n">
-        <v>13.4062895930934</v>
+        <v>13.0817930115157</v>
       </c>
       <c r="E49" t="n">
-        <v>14.5282815589128</v>
+        <v>13.5171151910147</v>
       </c>
       <c r="F49" t="n">
-        <v>14.2868360789528</v>
+        <v>16.327788061171</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.88484742467829</v>
+        <v>-8.19352825377508</v>
       </c>
       <c r="H49" t="n">
-        <v>-8.4735150908186</v>
+        <v>-8.14075126088857</v>
       </c>
       <c r="I49" t="n">
-        <v>-8.93850836953836</v>
+        <v>-9.53527261685545</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.66794760819281</v>
+        <v>-9.54185979527552</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>-4.863095263746</v>
+        <v>-5.23212704030512</v>
       </c>
       <c r="B50" t="n">
-        <v>-5.34269106162642</v>
+        <v>-5.72808357214504</v>
       </c>
       <c r="C50" t="n">
-        <v>-5.83511924999929</v>
+        <v>-5.94520872300285</v>
       </c>
       <c r="D50" t="n">
-        <v>-6.69113705571416</v>
+        <v>-6.66764917048526</v>
       </c>
       <c r="E50" t="n">
-        <v>-6.81864003783387</v>
+        <v>-7.09085698694483</v>
       </c>
       <c r="F50" t="n">
-        <v>-7.55511095143092</v>
+        <v>-7.47831791366128</v>
       </c>
       <c r="G50" t="n">
-        <v>-8.02226166223362</v>
+        <v>-8.15751177289</v>
       </c>
       <c r="H50" t="n">
-        <v>-8.52391801920319</v>
+        <v>-8.77768857375158</v>
       </c>
       <c r="I50" t="n">
-        <v>-8.72136778939101</v>
+        <v>-8.44519017095959</v>
       </c>
       <c r="J50" t="n">
-        <v>-9.6781823930334</v>
+        <v>-9.46271955988902</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>-5.35678079083506</v>
+        <v>-5.09461659376117</v>
       </c>
       <c r="B51" t="n">
-        <v>-5.46609075204616</v>
+        <v>-5.35356778260131</v>
       </c>
       <c r="C51" t="n">
-        <v>-6.0072891626004</v>
+        <v>-5.8268852289156</v>
       </c>
       <c r="D51" t="n">
-        <v>-6.70192323547207</v>
+        <v>-6.35816540676035</v>
       </c>
       <c r="E51" t="n">
-        <v>-7.22693020719699</v>
+        <v>-7.17317743918556</v>
       </c>
       <c r="F51" t="n">
-        <v>-7.32996792306213</v>
+        <v>-7.63838918053979</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.93890819616549</v>
+        <v>-7.77474102534259</v>
       </c>
       <c r="H51" t="n">
-        <v>-8.25942587477073</v>
+        <v>-8.47113829487572</v>
       </c>
       <c r="I51" t="n">
-        <v>-8.78146232602455</v>
+        <v>-8.9503776405776</v>
       </c>
       <c r="J51" t="n">
-        <v>-9.27383767760913</v>
+        <v>-8.96503398690943</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>-4.96711532409393</v>
+        <v>10.8519981309736</v>
       </c>
       <c r="B52" t="n">
-        <v>-5.45728568973676</v>
+        <v>12.872978444415</v>
       </c>
       <c r="C52" t="n">
-        <v>-6.23831448736283</v>
+        <v>11.3707396972692</v>
       </c>
       <c r="D52" t="n">
-        <v>-6.56567594752851</v>
+        <v>13.7728895419731</v>
       </c>
       <c r="E52" t="n">
-        <v>-7.1864472702565</v>
+        <v>14.3649370976558</v>
       </c>
       <c r="F52" t="n">
-        <v>-7.31871532023883</v>
+        <v>14.2852748505242</v>
       </c>
       <c r="G52" t="n">
-        <v>-8.15411318828191</v>
+        <v>16.3576057424126</v>
       </c>
       <c r="H52" t="n">
-        <v>-8.46865963542881</v>
+        <v>17.0258364504951</v>
       </c>
       <c r="I52" t="n">
-        <v>18.0608542659462</v>
+        <v>17.4552668239525</v>
       </c>
       <c r="J52" t="n">
-        <v>19.0552495141106</v>
+        <v>18.4553812472725</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-4.95820897186043</v>
+        <v>9.74088956829376</v>
       </c>
       <c r="B53" t="n">
-        <v>-5.68629175794936</v>
+        <v>12.0479803369143</v>
       </c>
       <c r="C53" t="n">
-        <v>-5.71210432589032</v>
+        <v>12.3882931694802</v>
       </c>
       <c r="D53" t="n">
-        <v>-6.48696395199443</v>
+        <v>12.9559893028279</v>
       </c>
       <c r="E53" t="n">
-        <v>-6.97954065781148</v>
+        <v>13.0142937008391</v>
       </c>
       <c r="F53" t="n">
-        <v>-7.22888745413578</v>
+        <v>13.9874003088047</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.86355001421474</v>
+        <v>15.18321947671</v>
       </c>
       <c r="H53" t="n">
-        <v>-8.60131292228768</v>
+        <v>16.4697820492851</v>
       </c>
       <c r="I53" t="n">
-        <v>-9.31269733706108</v>
+        <v>17.7731019177987</v>
       </c>
       <c r="J53" t="n">
-        <v>17.768409007424</v>
+        <v>17.6650956252165</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>10.571719978566</v>
+        <v>9.48254331713312</v>
       </c>
       <c r="B54" t="n">
-        <v>10.3844351795941</v>
+        <v>9.61038332222055</v>
       </c>
       <c r="C54" t="n">
-        <v>11.9896106890617</v>
+        <v>11.5718217224403</v>
       </c>
       <c r="D54" t="n">
-        <v>13.5346614442719</v>
+        <v>12.8092484459586</v>
       </c>
       <c r="E54" t="n">
-        <v>13.8580077954031</v>
+        <v>15.5379581395027</v>
       </c>
       <c r="F54" t="n">
-        <v>15.4748900267628</v>
+        <v>14.8776476199004</v>
       </c>
       <c r="G54" t="n">
-        <v>16.2463923182208</v>
+        <v>15.3991646373616</v>
       </c>
       <c r="H54" t="n">
-        <v>17.5170311984742</v>
+        <v>16.3754544245139</v>
       </c>
       <c r="I54" t="n">
-        <v>17.864689643568</v>
+        <v>18.4504127908876</v>
       </c>
       <c r="J54" t="n">
-        <v>19.7008660155494</v>
+        <v>19.6647488760097</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-4.94259801982281</v>
+        <v>9.5417990856072</v>
       </c>
       <c r="B55" t="n">
-        <v>-5.58935183614898</v>
+        <v>11.3088562535641</v>
       </c>
       <c r="C55" t="n">
-        <v>-5.69597257421405</v>
+        <v>12.3001355774171</v>
       </c>
       <c r="D55" t="n">
-        <v>-6.18132422694941</v>
+        <v>12.8577213956661</v>
       </c>
       <c r="E55" t="n">
-        <v>-6.87745054454533</v>
+        <v>14.495431186595</v>
       </c>
       <c r="F55" t="n">
-        <v>-8.02724394302786</v>
+        <v>14.0281098762307</v>
       </c>
       <c r="G55" t="n">
-        <v>-8.20114961463344</v>
+        <v>16.0725728540289</v>
       </c>
       <c r="H55" t="n">
-        <v>-8.46508488277217</v>
+        <v>16.6081402240338</v>
       </c>
       <c r="I55" t="n">
-        <v>-9.38045709269747</v>
+        <v>18.2270748935759</v>
       </c>
       <c r="J55" t="n">
-        <v>-9.58148781579797</v>
+        <v>19.424510397235</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>10.9905217103365</v>
+        <v>9.24899222758866</v>
       </c>
       <c r="B56" t="n">
-        <v>12.1242099036009</v>
+        <v>10.8123341667123</v>
       </c>
       <c r="C56" t="n">
-        <v>12.7638221681707</v>
+        <v>11.8436104084581</v>
       </c>
       <c r="D56" t="n">
-        <v>12.7942997350891</v>
+        <v>14.6045803786264</v>
       </c>
       <c r="E56" t="n">
-        <v>13.8928848766498</v>
+        <v>14.9014459910623</v>
       </c>
       <c r="F56" t="n">
-        <v>15.806312729081</v>
+        <v>15.0481003056499</v>
       </c>
       <c r="G56" t="n">
-        <v>16.0667517484518</v>
+        <v>16.1393158105487</v>
       </c>
       <c r="H56" t="n">
-        <v>15.9532599458974</v>
+        <v>16.0352063084167</v>
       </c>
       <c r="I56" t="n">
-        <v>17.9446751513369</v>
+        <v>17.7692237108689</v>
       </c>
       <c r="J56" t="n">
-        <v>19.666647431936</v>
+        <v>20.2424147314573</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-5.13367039025393</v>
+        <v>9.98937439247687</v>
       </c>
       <c r="B57" t="n">
-        <v>-5.97394888126597</v>
+        <v>10.758781928707</v>
       </c>
       <c r="C57" t="n">
-        <v>-5.92476847501234</v>
+        <v>13.1482101100811</v>
       </c>
       <c r="D57" t="n">
-        <v>-6.2972795900248</v>
+        <v>12.2403875408282</v>
       </c>
       <c r="E57" t="n">
-        <v>-7.33726806971633</v>
+        <v>14.2712782526148</v>
       </c>
       <c r="F57" t="n">
-        <v>-7.02969911731092</v>
+        <v>15.102338047823</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.13472274524906</v>
+        <v>-7.64907173136144</v>
       </c>
       <c r="H57" t="n">
-        <v>-8.87605365179837</v>
+        <v>-8.38078394989866</v>
       </c>
       <c r="I57" t="n">
-        <v>-8.98392833325302</v>
+        <v>-9.27141628258635</v>
       </c>
       <c r="J57" t="n">
-        <v>-9.25804332466239</v>
+        <v>-9.57864563135629</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>10.2286784500259</v>
+        <v>-5.01957645980422</v>
       </c>
       <c r="B58" t="n">
-        <v>10.3913197391062</v>
+        <v>-5.44654230593628</v>
       </c>
       <c r="C58" t="n">
-        <v>10.8615952324158</v>
+        <v>-5.94115913817568</v>
       </c>
       <c r="D58" t="n">
-        <v>13.5164621710667</v>
+        <v>-6.45586203946055</v>
       </c>
       <c r="E58" t="n">
-        <v>13.9972676575382</v>
+        <v>-7.37165528516159</v>
       </c>
       <c r="F58" t="n">
-        <v>15.4328874645558</v>
+        <v>-7.85570253754228</v>
       </c>
       <c r="G58" t="n">
-        <v>14.7240351502899</v>
+        <v>-7.71766291190918</v>
       </c>
       <c r="H58" t="n">
-        <v>-8.83045844404375</v>
+        <v>-8.58913222334158</v>
       </c>
       <c r="I58" t="n">
-        <v>-8.89828090697399</v>
+        <v>-8.73965929949598</v>
       </c>
       <c r="J58" t="n">
-        <v>-9.22203137442425</v>
+        <v>-9.54123129367144</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>8.6845724070859</v>
+        <v>10.1533918129719</v>
       </c>
       <c r="B59" t="n">
-        <v>11.3938584172027</v>
+        <v>9.59319302566897</v>
       </c>
       <c r="C59" t="n">
-        <v>11.2785453766924</v>
+        <v>12.7403949528597</v>
       </c>
       <c r="D59" t="n">
-        <v>12.1235026244782</v>
+        <v>13.0413616400591</v>
       </c>
       <c r="E59" t="n">
-        <v>12.9626699584868</v>
+        <v>14.0605544678293</v>
       </c>
       <c r="F59" t="n">
-        <v>15.7156491310432</v>
+        <v>14.2959153494883</v>
       </c>
       <c r="G59" t="n">
-        <v>16.9811712641231</v>
+        <v>16.4355777000892</v>
       </c>
       <c r="H59" t="n">
-        <v>15.8355736494947</v>
+        <v>16.1793290652309</v>
       </c>
       <c r="I59" t="n">
-        <v>18.3177409754072</v>
+        <v>19.4524962795408</v>
       </c>
       <c r="J59" t="n">
-        <v>19.5412785508017</v>
+        <v>18.0871020867089</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>11.7135312764105</v>
+        <v>8.29102938469172</v>
       </c>
       <c r="B60" t="n">
-        <v>11.0147097045278</v>
+        <v>10.8196037875168</v>
       </c>
       <c r="C60" t="n">
-        <v>12.9438188686248</v>
+        <v>13.6735077611884</v>
       </c>
       <c r="D60" t="n">
-        <v>14.1222884072948</v>
+        <v>14.0020203092002</v>
       </c>
       <c r="E60" t="n">
-        <v>13.3884525211365</v>
+        <v>15.2685454286528</v>
       </c>
       <c r="F60" t="n">
-        <v>15.5381624007489</v>
+        <v>14.8902317415355</v>
       </c>
       <c r="G60" t="n">
-        <v>15.5897950728318</v>
+        <v>16.6356910797711</v>
       </c>
       <c r="H60" t="n">
-        <v>17.632127147837</v>
+        <v>16.923637102178</v>
       </c>
       <c r="I60" t="n">
-        <v>19.5630320214261</v>
+        <v>16.9573702199738</v>
       </c>
       <c r="J60" t="n">
-        <v>19.7951249838772</v>
+        <v>19.0236010249677</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>9.5661742402149</v>
+        <v>9.98633508215899</v>
       </c>
       <c r="B61" t="n">
-        <v>11.5733268552604</v>
+        <v>-5.23780479234236</v>
       </c>
       <c r="C61" t="n">
-        <v>10.9751910724821</v>
+        <v>-5.96700864683323</v>
       </c>
       <c r="D61" t="n">
-        <v>13.209665216141</v>
+        <v>-6.42366734823791</v>
       </c>
       <c r="E61" t="n">
-        <v>14.4696041105849</v>
+        <v>-6.89396494615977</v>
       </c>
       <c r="F61" t="n">
-        <v>15.5444955802392</v>
+        <v>-7.68509552386707</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.00303696696388</v>
+        <v>-7.67141724352165</v>
       </c>
       <c r="H61" t="n">
-        <v>-8.50176434097517</v>
+        <v>-8.45353641297812</v>
       </c>
       <c r="I61" t="n">
-        <v>-8.69017534023665</v>
+        <v>-9.38765436891499</v>
       </c>
       <c r="J61" t="n">
-        <v>-9.55176234018723</v>
+        <v>-9.8146403524635</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>-4.61717100163966</v>
+        <v>9.55255432301223</v>
       </c>
       <c r="B62" t="n">
-        <v>-5.34655483683953</v>
+        <v>11.0374970299833</v>
       </c>
       <c r="C62" t="n">
-        <v>-6.0123828919527</v>
+        <v>12.8418550873893</v>
       </c>
       <c r="D62" t="n">
-        <v>-6.86166206911128</v>
+        <v>13.8271860849415</v>
       </c>
       <c r="E62" t="n">
-        <v>-6.54157832242014</v>
+        <v>14.626559549218</v>
       </c>
       <c r="F62" t="n">
-        <v>-7.48082825594505</v>
+        <v>15.6826637140969</v>
       </c>
       <c r="G62" t="n">
-        <v>16.2989259135103</v>
+        <v>-7.83610550648365</v>
       </c>
       <c r="H62" t="n">
-        <v>-8.465226790637</v>
+        <v>-8.61079125828407</v>
       </c>
       <c r="I62" t="n">
-        <v>-8.92009487251305</v>
+        <v>-9.03184293460471</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.32288872482105</v>
+        <v>-9.60832147148253</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>9.61971059504016</v>
+        <v>-5.04945997181011</v>
       </c>
       <c r="B63" t="n">
-        <v>10.5301741709868</v>
+        <v>-5.75622590154543</v>
       </c>
       <c r="C63" t="n">
-        <v>11.4755000398955</v>
+        <v>-5.88825409394555</v>
       </c>
       <c r="D63" t="n">
-        <v>13.8113836438013</v>
+        <v>-6.2137639457707</v>
       </c>
       <c r="E63" t="n">
-        <v>13.6289669299888</v>
+        <v>-6.45201063736566</v>
       </c>
       <c r="F63" t="n">
-        <v>13.0266332624234</v>
+        <v>-7.64572513769729</v>
       </c>
       <c r="G63" t="n">
-        <v>15.3417920366432</v>
+        <v>-7.83718946656578</v>
       </c>
       <c r="H63" t="n">
-        <v>18.2089582666401</v>
+        <v>-8.27264369419644</v>
       </c>
       <c r="I63" t="n">
-        <v>18.8036872649545</v>
+        <v>-9.05007525092299</v>
       </c>
       <c r="J63" t="n">
-        <v>19.7573265860508</v>
+        <v>-9.58220851481772</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>11.2936548348778</v>
+        <v>9.99662294152184</v>
       </c>
       <c r="B64" t="n">
-        <v>11.1767922590538</v>
+        <v>10.0316968261386</v>
       </c>
       <c r="C64" t="n">
-        <v>12.7229599574049</v>
+        <v>13.5461962194471</v>
       </c>
       <c r="D64" t="n">
-        <v>13.5317173815843</v>
+        <v>12.4623881169997</v>
       </c>
       <c r="E64" t="n">
-        <v>13.3974891332648</v>
+        <v>13.3884178377707</v>
       </c>
       <c r="F64" t="n">
-        <v>16.2009783957957</v>
+        <v>16.1062121056898</v>
       </c>
       <c r="G64" t="n">
-        <v>17.662479969996</v>
+        <v>15.782295928856</v>
       </c>
       <c r="H64" t="n">
-        <v>17.4374884655541</v>
+        <v>17.3520211112875</v>
       </c>
       <c r="I64" t="n">
-        <v>17.9809799504353</v>
+        <v>17.7681048944212</v>
       </c>
       <c r="J64" t="n">
-        <v>19.397462702816</v>
+        <v>-9.22773012362346</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>10.524888888859</v>
+        <v>9.35608239667713</v>
       </c>
       <c r="B65" t="n">
-        <v>11.2221269810425</v>
+        <v>8.86896724860591</v>
       </c>
       <c r="C65" t="n">
-        <v>11.1387493903949</v>
+        <v>10.7293085969499</v>
       </c>
       <c r="D65" t="n">
-        <v>13.1106460428047</v>
+        <v>12.8654491438451</v>
       </c>
       <c r="E65" t="n">
-        <v>13.0146369152162</v>
+        <v>14.1046079582172</v>
       </c>
       <c r="F65" t="n">
-        <v>14.9669092704263</v>
+        <v>14.9631826245787</v>
       </c>
       <c r="G65" t="n">
-        <v>16.249081282287</v>
+        <v>17.0070698427364</v>
       </c>
       <c r="H65" t="n">
-        <v>15.8182987404652</v>
+        <v>16.143852325443</v>
       </c>
       <c r="I65" t="n">
-        <v>18.9266014640731</v>
+        <v>16.3567050065949</v>
       </c>
       <c r="J65" t="n">
-        <v>18.6680674934439</v>
+        <v>17.8104540171365</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>9.60388025559165</v>
+        <v>10.2190045215333</v>
       </c>
       <c r="B66" t="n">
-        <v>11.240315160138</v>
+        <v>11.2433729856747</v>
       </c>
       <c r="C66" t="n">
-        <v>-5.75242784924824</v>
+        <v>12.2150171382535</v>
       </c>
       <c r="D66" t="n">
-        <v>-6.99096670701608</v>
+        <v>13.1094449276127</v>
       </c>
       <c r="E66" t="n">
-        <v>-6.82781245774235</v>
+        <v>11.9389761647974</v>
       </c>
       <c r="F66" t="n">
-        <v>-7.4218439326269</v>
+        <v>14.1685254804405</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.59790539315621</v>
+        <v>16.2232007680796</v>
       </c>
       <c r="H66" t="n">
-        <v>-8.44825072460541</v>
+        <v>16.1476024285255</v>
       </c>
       <c r="I66" t="n">
-        <v>-8.99264175319768</v>
+        <v>17.9948735917223</v>
       </c>
       <c r="J66" t="n">
-        <v>-9.51529658078936</v>
+        <v>19.8459843590454</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>9.35545984537153</v>
+        <v>-4.72315490357705</v>
       </c>
       <c r="B67" t="n">
-        <v>10.480596804026</v>
+        <v>-5.87205630375938</v>
       </c>
       <c r="C67" t="n">
-        <v>12.3939989861478</v>
+        <v>-6.1087074954172</v>
       </c>
       <c r="D67" t="n">
-        <v>13.9746543775064</v>
+        <v>-6.92814206830976</v>
       </c>
       <c r="E67" t="n">
-        <v>12.7029191371988</v>
+        <v>-6.41821877089155</v>
       </c>
       <c r="F67" t="n">
-        <v>-7.44841351907049</v>
+        <v>-7.51132534017206</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.63106165801589</v>
+        <v>-8.01844967020341</v>
       </c>
       <c r="H67" t="n">
-        <v>-8.76770275431834</v>
+        <v>-8.68289541241836</v>
       </c>
       <c r="I67" t="n">
-        <v>-9.49159145503605</v>
+        <v>-8.82571432698314</v>
       </c>
       <c r="J67" t="n">
-        <v>-9.08481023858043</v>
+        <v>-9.61133030732126</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-5.07829731324317</v>
+        <v>10.9898692082525</v>
       </c>
       <c r="B68" t="n">
-        <v>-5.12657494958485</v>
+        <v>-5.57983729566674</v>
       </c>
       <c r="C68" t="n">
-        <v>-6.51085346860576</v>
+        <v>-6.08698814190555</v>
       </c>
       <c r="D68" t="n">
-        <v>-6.49074018134424</v>
+        <v>-6.59806502966577</v>
       </c>
       <c r="E68" t="n">
-        <v>-7.02400024838433</v>
+        <v>-7.03081178137942</v>
       </c>
       <c r="F68" t="n">
-        <v>-7.34753133010299</v>
+        <v>-7.48601875058215</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.77154738933579</v>
+        <v>-8.01347994024585</v>
       </c>
       <c r="H68" t="n">
-        <v>-8.17660558099679</v>
+        <v>-8.83722697009819</v>
       </c>
       <c r="I68" t="n">
-        <v>-9.2002960643719</v>
+        <v>-9.3953104454632</v>
       </c>
       <c r="J68" t="n">
-        <v>-9.6166146091832</v>
+        <v>-9.01937380090419</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>8.68970328509665</v>
+        <v>8.80049113479794</v>
       </c>
       <c r="B69" t="n">
-        <v>9.98244413839768</v>
+        <v>12.7323897706606</v>
       </c>
       <c r="C69" t="n">
-        <v>13.0882994917871</v>
+        <v>12.2799673652202</v>
       </c>
       <c r="D69" t="n">
-        <v>12.7222959795081</v>
+        <v>13.7719615301276</v>
       </c>
       <c r="E69" t="n">
-        <v>14.9798621567183</v>
+        <v>13.1114991547212</v>
       </c>
       <c r="F69" t="n">
-        <v>-7.36201124772534</v>
+        <v>15.2508639750188</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.85057238330146</v>
+        <v>15.7408782857866</v>
       </c>
       <c r="H69" t="n">
-        <v>-8.68786029502286</v>
+        <v>16.6081312020133</v>
       </c>
       <c r="I69" t="n">
-        <v>-9.45015799494477</v>
+        <v>18.0157110793822</v>
       </c>
       <c r="J69" t="n">
-        <v>18.7233353016844</v>
+        <v>19.0541960841967</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>-4.98050815265128</v>
+        <v>-5.29704929714076</v>
       </c>
       <c r="B70" t="n">
-        <v>-5.25806354568723</v>
+        <v>-5.59611718621508</v>
       </c>
       <c r="C70" t="n">
-        <v>-6.06271623451401</v>
+        <v>-5.91575977687863</v>
       </c>
       <c r="D70" t="n">
-        <v>-6.04248430076727</v>
+        <v>-6.46415808773897</v>
       </c>
       <c r="E70" t="n">
-        <v>-6.86380456865133</v>
+        <v>-6.70046799285723</v>
       </c>
       <c r="F70" t="n">
-        <v>-7.46395750400572</v>
+        <v>15.0766465385045</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.12612603145191</v>
+        <v>16.7474562919734</v>
       </c>
       <c r="H70" t="n">
-        <v>-8.61070489936759</v>
+        <v>17.1622501334174</v>
       </c>
       <c r="I70" t="n">
-        <v>-9.12350586638819</v>
+        <v>17.8790958993363</v>
       </c>
       <c r="J70" t="n">
-        <v>-9.34030324135106</v>
+        <v>17.8750254398309</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>-4.71972357605452</v>
+        <v>-5.39119299382454</v>
       </c>
       <c r="B71" t="n">
-        <v>-5.81700038056183</v>
+        <v>-5.94040610605367</v>
       </c>
       <c r="C71" t="n">
-        <v>-6.06535524138792</v>
+        <v>-5.95249221015766</v>
       </c>
       <c r="D71" t="n">
-        <v>-5.70591512474362</v>
+        <v>-6.47604710788565</v>
       </c>
       <c r="E71" t="n">
-        <v>-7.052987059083</v>
+        <v>-6.88780435513333</v>
       </c>
       <c r="F71" t="n">
-        <v>-7.50889903621286</v>
+        <v>-7.67879626427387</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.79496188735723</v>
+        <v>-7.63540782472991</v>
       </c>
       <c r="H71" t="n">
-        <v>-8.56568005640964</v>
+        <v>-8.49524026526037</v>
       </c>
       <c r="I71" t="n">
-        <v>-8.65341875253184</v>
+        <v>-9.15855901305474</v>
       </c>
       <c r="J71" t="n">
-        <v>-9.33883032660698</v>
+        <v>-9.63370801300034</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>10.8256424369795</v>
+        <v>10.4134099739842</v>
       </c>
       <c r="B72" t="n">
-        <v>11.240381441329</v>
+        <v>11.9013983874192</v>
       </c>
       <c r="C72" t="n">
-        <v>12.5462335752315</v>
+        <v>11.2983595261168</v>
       </c>
       <c r="D72" t="n">
-        <v>12.3454271483378</v>
+        <v>13.77487548216</v>
       </c>
       <c r="E72" t="n">
-        <v>15.3664793534534</v>
+        <v>13.8221573033394</v>
       </c>
       <c r="F72" t="n">
-        <v>14.8977976105302</v>
+        <v>14.6439301555592</v>
       </c>
       <c r="G72" t="n">
-        <v>16.7208298618705</v>
+        <v>15.4315819288418</v>
       </c>
       <c r="H72" t="n">
-        <v>17.1923701757642</v>
+        <v>17.8022463457258</v>
       </c>
       <c r="I72" t="n">
-        <v>16.6732559859982</v>
+        <v>16.7667319905302</v>
       </c>
       <c r="J72" t="n">
-        <v>19.2403963120918</v>
+        <v>19.9209513223801</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>10.0691846400118</v>
+        <v>10.2261480675799</v>
       </c>
       <c r="B73" t="n">
-        <v>10.5628944308518</v>
+        <v>11.3573591073141</v>
       </c>
       <c r="C73" t="n">
-        <v>12.253393112299</v>
+        <v>12.3894169661426</v>
       </c>
       <c r="D73" t="n">
-        <v>12.9506982014941</v>
+        <v>13.2997532367589</v>
       </c>
       <c r="E73" t="n">
-        <v>14.6682027714791</v>
+        <v>13.8757185792523</v>
       </c>
       <c r="F73" t="n">
-        <v>14.8628404010116</v>
+        <v>16.1200166477119</v>
       </c>
       <c r="G73" t="n">
-        <v>15.1449914349326</v>
+        <v>15.9145910150775</v>
       </c>
       <c r="H73" t="n">
-        <v>16.5457198670822</v>
+        <v>17.3637271586514</v>
       </c>
       <c r="I73" t="n">
-        <v>17.5394293923884</v>
+        <v>17.39738187831</v>
       </c>
       <c r="J73" t="n">
-        <v>18.893876438306</v>
+        <v>19.8506425295523</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>10.097716192054</v>
+        <v>10.2879071495354</v>
       </c>
       <c r="B74" t="n">
-        <v>11.3557446086224</v>
+        <v>9.52860659536927</v>
       </c>
       <c r="C74" t="n">
-        <v>12.4866148675022</v>
+        <v>13.4962766791572</v>
       </c>
       <c r="D74" t="n">
-        <v>-6.5537620714058</v>
+        <v>14.2688606508424</v>
       </c>
       <c r="E74" t="n">
-        <v>-6.96530199889833</v>
+        <v>14.242112437259</v>
       </c>
       <c r="F74" t="n">
-        <v>-7.55657789891015</v>
+        <v>15.6179661685378</v>
       </c>
       <c r="G74" t="n">
-        <v>15.5617426495136</v>
+        <v>15.7794101489779</v>
       </c>
       <c r="H74" t="n">
-        <v>17.9135928554066</v>
+        <v>18.7122051651431</v>
       </c>
       <c r="I74" t="n">
-        <v>18.6807528949018</v>
+        <v>18.1134400712848</v>
       </c>
       <c r="J74" t="n">
-        <v>17.4988373384083</v>
+        <v>19.901663825383</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>8.38277419797029</v>
+        <v>11.3188961987171</v>
       </c>
       <c r="B75" t="n">
-        <v>10.8878314700246</v>
+        <v>11.2038448698899</v>
       </c>
       <c r="C75" t="n">
-        <v>12.679736878076</v>
+        <v>11.6598958793892</v>
       </c>
       <c r="D75" t="n">
-        <v>13.0393100566486</v>
+        <v>12.5440724923566</v>
       </c>
       <c r="E75" t="n">
-        <v>-6.75273455539558</v>
+        <v>14.1972372156962</v>
       </c>
       <c r="F75" t="n">
-        <v>-7.87684503964923</v>
+        <v>15.2424578403061</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.71676413753295</v>
+        <v>15.6890015694203</v>
       </c>
       <c r="H75" t="n">
-        <v>-8.23422617689683</v>
+        <v>17.5638439018829</v>
       </c>
       <c r="I75" t="n">
-        <v>-8.64628199371347</v>
+        <v>17.9614162344135</v>
       </c>
       <c r="J75" t="n">
-        <v>-9.73399985199255</v>
+        <v>19.1984990653426</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>9.46337673210795</v>
+        <v>8.70085086190818</v>
       </c>
       <c r="B76" t="n">
-        <v>10.3700277581277</v>
+        <v>11.8457083793759</v>
       </c>
       <c r="C76" t="n">
-        <v>-5.98147019869102</v>
+        <v>11.3000655318925</v>
       </c>
       <c r="D76" t="n">
-        <v>-6.3575016700225</v>
+        <v>13.603078795837</v>
       </c>
       <c r="E76" t="n">
-        <v>-7.24556367463003</v>
+        <v>14.4327790173206</v>
       </c>
       <c r="F76" t="n">
-        <v>-7.8564436563513</v>
+        <v>15.8593190073659</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.73883813784814</v>
+        <v>15.8288613044585</v>
       </c>
       <c r="H76" t="n">
-        <v>-8.57548856341195</v>
+        <v>16.480351461339</v>
       </c>
       <c r="I76" t="n">
-        <v>-8.95355467242408</v>
+        <v>17.2131359833895</v>
       </c>
       <c r="J76" t="n">
-        <v>-9.66413597422971</v>
+        <v>18.874032638167</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>10.1452788957655</v>
+        <v>-5.1236632380575</v>
       </c>
       <c r="B77" t="n">
-        <v>12.8799032591178</v>
+        <v>-5.56679231644501</v>
       </c>
       <c r="C77" t="n">
-        <v>12.048105526047</v>
+        <v>-6.14779285081743</v>
       </c>
       <c r="D77" t="n">
-        <v>14.3618958606673</v>
+        <v>-6.31516548726587</v>
       </c>
       <c r="E77" t="n">
-        <v>-6.9264356693493</v>
+        <v>-6.84709694785381</v>
       </c>
       <c r="F77" t="n">
-        <v>-7.27026015286599</v>
+        <v>-7.4863334942562</v>
       </c>
       <c r="G77" t="n">
-        <v>-8.10868272037298</v>
+        <v>-7.56832684554297</v>
       </c>
       <c r="H77" t="n">
-        <v>-8.71478892394767</v>
+        <v>-8.71482389234157</v>
       </c>
       <c r="I77" t="n">
-        <v>-9.48793710944712</v>
+        <v>-8.72368433569436</v>
       </c>
       <c r="J77" t="n">
-        <v>-9.59414966575049</v>
+        <v>-9.19068629867138</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>9.52676629462708</v>
+        <v>11.2079346027377</v>
       </c>
       <c r="B78" t="n">
-        <v>11.1134811020057</v>
+        <v>10.7735359239951</v>
       </c>
       <c r="C78" t="n">
-        <v>11.3924183091635</v>
+        <v>11.8868295756802</v>
       </c>
       <c r="D78" t="n">
-        <v>13.4891478227271</v>
+        <v>13.2397920545096</v>
       </c>
       <c r="E78" t="n">
-        <v>13.8166704579929</v>
+        <v>14.1012751170092</v>
       </c>
       <c r="F78" t="n">
-        <v>14.9410143502286</v>
+        <v>14.9648218284985</v>
       </c>
       <c r="G78" t="n">
-        <v>14.6364557574335</v>
+        <v>15.1381356105435</v>
       </c>
       <c r="H78" t="n">
-        <v>17.8252300604708</v>
+        <v>16.8849842699212</v>
       </c>
       <c r="I78" t="n">
-        <v>18.5994008834579</v>
+        <v>16.2711797812769</v>
       </c>
       <c r="J78" t="n">
-        <v>-9.49939587602582</v>
+        <v>19.3669703767612</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>8.87971115135755</v>
+        <v>9.72365877812439</v>
       </c>
       <c r="B79" t="n">
-        <v>12.0506689801451</v>
+        <v>10.5584424431794</v>
       </c>
       <c r="C79" t="n">
-        <v>10.7748469582939</v>
+        <v>12.5592943989742</v>
       </c>
       <c r="D79" t="n">
-        <v>14.2785622234273</v>
+        <v>13.3873054970953</v>
       </c>
       <c r="E79" t="n">
-        <v>13.8565426431784</v>
+        <v>14.0300520029174</v>
       </c>
       <c r="F79" t="n">
-        <v>14.6784084623406</v>
+        <v>14.168993353309</v>
       </c>
       <c r="G79" t="n">
-        <v>15.3755051964121</v>
+        <v>16.1468068777467</v>
       </c>
       <c r="H79" t="n">
-        <v>-7.90532130932948</v>
+        <v>17.4603531934507</v>
       </c>
       <c r="I79" t="n">
-        <v>-9.46926983236852</v>
+        <v>18.034990679792</v>
       </c>
       <c r="J79" t="n">
-        <v>-8.99565849802171</v>
+        <v>19.6432818419576</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>10.3318901886807</v>
+        <v>8.73205389676034</v>
       </c>
       <c r="B80" t="n">
-        <v>10.9275395915902</v>
+        <v>13.1167953105005</v>
       </c>
       <c r="C80" t="n">
-        <v>11.8463436071108</v>
+        <v>12.1263575346952</v>
       </c>
       <c r="D80" t="n">
-        <v>13.4018101203295</v>
+        <v>13.3508597078289</v>
       </c>
       <c r="E80" t="n">
-        <v>14.0519484764316</v>
+        <v>12.4341981492019</v>
       </c>
       <c r="F80" t="n">
-        <v>14.8501522695987</v>
+        <v>-7.41614192513181</v>
       </c>
       <c r="G80" t="n">
-        <v>15.2932017394375</v>
+        <v>-8.28086442266685</v>
       </c>
       <c r="H80" t="n">
-        <v>17.2572082603349</v>
+        <v>-8.26556426792207</v>
       </c>
       <c r="I80" t="n">
-        <v>19.7330731659366</v>
+        <v>-9.39033048908324</v>
       </c>
       <c r="J80" t="n">
-        <v>18.9076129999083</v>
+        <v>-9.41310746849324</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>10.0594217519614</v>
+        <v>10.7791693773102</v>
       </c>
       <c r="B81" t="n">
-        <v>10.8041819238879</v>
+        <v>11.6063985061399</v>
       </c>
       <c r="C81" t="n">
-        <v>12.0130085315619</v>
+        <v>-6.0322642850765</v>
       </c>
       <c r="D81" t="n">
-        <v>13.1717425822799</v>
+        <v>-6.2676727530406</v>
       </c>
       <c r="E81" t="n">
-        <v>12.7992133985307</v>
+        <v>-6.88605770941269</v>
       </c>
       <c r="F81" t="n">
-        <v>15.6602238745052</v>
+        <v>-7.77029633308023</v>
       </c>
       <c r="G81" t="n">
-        <v>15.5038286239222</v>
+        <v>-8.14212087295435</v>
       </c>
       <c r="H81" t="n">
-        <v>18.4235730018232</v>
+        <v>-9.04728706312796</v>
       </c>
       <c r="I81" t="n">
-        <v>17.518594098889</v>
+        <v>-9.44603821422844</v>
       </c>
       <c r="J81" t="n">
-        <v>18.4012430529951</v>
+        <v>-9.37292264083428</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>9.48006677107516</v>
+        <v>10.0523978793996</v>
       </c>
       <c r="B82" t="n">
-        <v>11.5577312337159</v>
+        <v>-5.43551370589805</v>
       </c>
       <c r="C82" t="n">
-        <v>12.808544312261</v>
+        <v>-5.58646003035734</v>
       </c>
       <c r="D82" t="n">
-        <v>14.0141595131727</v>
+        <v>-6.58520063203569</v>
       </c>
       <c r="E82" t="n">
-        <v>14.9721156307081</v>
+        <v>-6.91989519092935</v>
       </c>
       <c r="F82" t="n">
-        <v>14.417204596601</v>
+        <v>-7.57567478228031</v>
       </c>
       <c r="G82" t="n">
-        <v>15.6620090282873</v>
+        <v>-7.51183061047508</v>
       </c>
       <c r="H82" t="n">
-        <v>15.984614380784</v>
+        <v>-8.929632047533</v>
       </c>
       <c r="I82" t="n">
-        <v>17.5295770184178</v>
+        <v>-8.653503139179</v>
       </c>
       <c r="J82" t="n">
-        <v>18.7033067214828</v>
+        <v>-9.19919860487186</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>10.1542718772008</v>
+        <v>9.65745414206224</v>
       </c>
       <c r="B83" t="n">
-        <v>10.4557918524437</v>
+        <v>11.6870173926975</v>
       </c>
       <c r="C83" t="n">
-        <v>-6.04792610600262</v>
+        <v>-6.01308537731887</v>
       </c>
       <c r="D83" t="n">
-        <v>-6.6674358290894</v>
+        <v>-6.35952830174943</v>
       </c>
       <c r="E83" t="n">
-        <v>-6.73867514692797</v>
+        <v>-6.95384821723721</v>
       </c>
       <c r="F83" t="n">
-        <v>-7.57566236795158</v>
+        <v>-7.33817804950874</v>
       </c>
       <c r="G83" t="n">
-        <v>-8.19418616117059</v>
+        <v>14.604713052205</v>
       </c>
       <c r="H83" t="n">
-        <v>-8.62416984982037</v>
+        <v>17.1217789670632</v>
       </c>
       <c r="I83" t="n">
-        <v>-9.04422171279664</v>
+        <v>19.3878432058893</v>
       </c>
       <c r="J83" t="n">
-        <v>-9.43126377287406</v>
+        <v>18.8221814990157</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>12.0530340513103</v>
+        <v>10.0692697857134</v>
       </c>
       <c r="B84" t="n">
-        <v>12.2264092879392</v>
+        <v>12.5248445006432</v>
       </c>
       <c r="C84" t="n">
-        <v>11.151571685304</v>
+        <v>12.4688240939486</v>
       </c>
       <c r="D84" t="n">
-        <v>11.9975610071115</v>
+        <v>13.834761060379</v>
       </c>
       <c r="E84" t="n">
-        <v>13.6390451482653</v>
+        <v>13.501712193657</v>
       </c>
       <c r="F84" t="n">
-        <v>14.6117025155986</v>
+        <v>13.5605658226566</v>
       </c>
       <c r="G84" t="n">
-        <v>15.0907961017101</v>
+        <v>15.7829790993049</v>
       </c>
       <c r="H84" t="n">
-        <v>-8.03754412391894</v>
+        <v>17.2219222081504</v>
       </c>
       <c r="I84" t="n">
-        <v>-8.8373193725799</v>
+        <v>18.6174902817413</v>
       </c>
       <c r="J84" t="n">
-        <v>-9.27909385597249</v>
+        <v>18.9542298723352</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>9.84730823824112</v>
+        <v>-4.8080166868547</v>
       </c>
       <c r="B85" t="n">
-        <v>10.9603521809774</v>
+        <v>-5.56674447502956</v>
       </c>
       <c r="C85" t="n">
-        <v>11.8624224594995</v>
+        <v>-6.4750726232077</v>
       </c>
       <c r="D85" t="n">
-        <v>12.021103415824</v>
+        <v>-6.28212628828152</v>
       </c>
       <c r="E85" t="n">
-        <v>14.1780962151014</v>
+        <v>-7.27163095644738</v>
       </c>
       <c r="F85" t="n">
-        <v>14.142649469651</v>
+        <v>-7.47003280791582</v>
       </c>
       <c r="G85" t="n">
-        <v>16.3040098756571</v>
+        <v>-8.17989315500034</v>
       </c>
       <c r="H85" t="n">
-        <v>16.5295057043762</v>
+        <v>-8.73333724468037</v>
       </c>
       <c r="I85" t="n">
-        <v>18.1223157340471</v>
+        <v>-8.9434435906597</v>
       </c>
       <c r="J85" t="n">
-        <v>20.6632964713461</v>
+        <v>-9.46749971053614</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>10.0916965979827</v>
+        <v>10.2761506198994</v>
       </c>
       <c r="B86" t="n">
-        <v>10.8056962199242</v>
+        <v>12.6406469284056</v>
       </c>
       <c r="C86" t="n">
-        <v>12.4472242501202</v>
+        <v>11.8168648188254</v>
       </c>
       <c r="D86" t="n">
-        <v>13.7760766529591</v>
+        <v>13.704746692933</v>
       </c>
       <c r="E86" t="n">
-        <v>14.8509625173469</v>
+        <v>13.4863891997116</v>
       </c>
       <c r="F86" t="n">
-        <v>16.5036044807904</v>
+        <v>14.8883059654131</v>
       </c>
       <c r="G86" t="n">
-        <v>15.4061269103167</v>
+        <v>16.2381947016933</v>
       </c>
       <c r="H86" t="n">
-        <v>16.3200929969886</v>
+        <v>16.3446038027985</v>
       </c>
       <c r="I86" t="n">
-        <v>18.1214322299556</v>
+        <v>18.0330785399835</v>
       </c>
       <c r="J86" t="n">
-        <v>19.4904647815498</v>
+        <v>20.1488560530437</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>9.89117980177932</v>
+        <v>10.4220976154157</v>
       </c>
       <c r="B87" t="n">
-        <v>11.4310170216227</v>
+        <v>10.0807517646462</v>
       </c>
       <c r="C87" t="n">
-        <v>10.8545359233739</v>
+        <v>10.6826822861204</v>
       </c>
       <c r="D87" t="n">
-        <v>13.3468343724561</v>
+        <v>13.0540960134828</v>
       </c>
       <c r="E87" t="n">
-        <v>12.5848380892127</v>
+        <v>14.8165238370844</v>
       </c>
       <c r="F87" t="n">
-        <v>14.9975096605256</v>
+        <v>15.4331627070467</v>
       </c>
       <c r="G87" t="n">
-        <v>16.7481577200859</v>
+        <v>16.1553629913629</v>
       </c>
       <c r="H87" t="n">
-        <v>16.9742556717024</v>
+        <v>16.6670647083901</v>
       </c>
       <c r="I87" t="n">
-        <v>17.5068152463036</v>
+        <v>16.8586809950392</v>
       </c>
       <c r="J87" t="n">
-        <v>20.8514776329356</v>
+        <v>19.2541264683106</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>10.4027218233448</v>
+        <v>-4.94877288276687</v>
       </c>
       <c r="B88" t="n">
-        <v>9.96341592489695</v>
+        <v>-5.42783461823028</v>
       </c>
       <c r="C88" t="n">
-        <v>12.2777372028031</v>
+        <v>-5.95219088838747</v>
       </c>
       <c r="D88" t="n">
-        <v>13.7343390310194</v>
+        <v>-6.23484785259889</v>
       </c>
       <c r="E88" t="n">
-        <v>15.8038152598389</v>
+        <v>-6.90656117492953</v>
       </c>
       <c r="F88" t="n">
-        <v>-7.46316807202395</v>
+        <v>-6.98589973920478</v>
       </c>
       <c r="G88" t="n">
-        <v>-8.25984785538793</v>
+        <v>-8.10945205589026</v>
       </c>
       <c r="H88" t="n">
-        <v>-8.22712128306602</v>
+        <v>-8.42224002107226</v>
       </c>
       <c r="I88" t="n">
-        <v>-9.22466275452228</v>
+        <v>-9.41435583123703</v>
       </c>
       <c r="J88" t="n">
-        <v>-9.55809425596846</v>
+        <v>-9.593236918284</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>10.7574400899902</v>
+        <v>-5.22848083245739</v>
       </c>
       <c r="B89" t="n">
-        <v>-5.90668188414583</v>
+        <v>-5.58858134410988</v>
       </c>
       <c r="C89" t="n">
-        <v>-5.99873504066267</v>
+        <v>-6.69577595097543</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.37014133189759</v>
+        <v>-6.41744580861644</v>
       </c>
       <c r="E89" t="n">
-        <v>-7.0041164293922</v>
+        <v>-7.47041837003762</v>
       </c>
       <c r="F89" t="n">
-        <v>-8.00190037348147</v>
+        <v>-7.12550432678032</v>
       </c>
       <c r="G89" t="n">
-        <v>-8.2657286253127</v>
+        <v>-7.90379000383866</v>
       </c>
       <c r="H89" t="n">
-        <v>-8.47559884826296</v>
+        <v>-8.36083310604508</v>
       </c>
       <c r="I89" t="n">
-        <v>-8.67998500629085</v>
+        <v>-9.17502780331954</v>
       </c>
       <c r="J89" t="n">
-        <v>18.3829131329606</v>
+        <v>-9.59765982608866</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>9.99998907245386</v>
+        <v>-5.32324348729438</v>
       </c>
       <c r="B90" t="n">
-        <v>10.0284287386237</v>
+        <v>-5.54637627730477</v>
       </c>
       <c r="C90" t="n">
-        <v>11.0750768107366</v>
+        <v>-6.00250157073054</v>
       </c>
       <c r="D90" t="n">
-        <v>-6.63994937404088</v>
+        <v>-6.57301574897627</v>
       </c>
       <c r="E90" t="n">
-        <v>-7.53081437844273</v>
+        <v>-7.0914274261328</v>
       </c>
       <c r="F90" t="n">
-        <v>-7.05531030649014</v>
+        <v>-7.83541826141951</v>
       </c>
       <c r="G90" t="n">
-        <v>-8.45454575983422</v>
+        <v>-7.78186537883674</v>
       </c>
       <c r="H90" t="n">
-        <v>-8.31598265161757</v>
+        <v>-8.43960825278473</v>
       </c>
       <c r="I90" t="n">
-        <v>-8.8001720418331</v>
+        <v>-9.23322632543905</v>
       </c>
       <c r="J90" t="n">
-        <v>-9.31270410009354</v>
+        <v>-9.26310971692913</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>10.42628459685</v>
+        <v>10.3760246405375</v>
       </c>
       <c r="B91" t="n">
-        <v>11.8884651845982</v>
+        <v>10.1845763887736</v>
       </c>
       <c r="C91" t="n">
-        <v>12.4364858061218</v>
+        <v>11.5990876498659</v>
       </c>
       <c r="D91" t="n">
-        <v>12.2038869838175</v>
+        <v>13.6155361704233</v>
       </c>
       <c r="E91" t="n">
-        <v>12.9628338886936</v>
+        <v>13.5227116870866</v>
       </c>
       <c r="F91" t="n">
-        <v>14.7887060953677</v>
+        <v>15.2716865938485</v>
       </c>
       <c r="G91" t="n">
-        <v>15.2275126341603</v>
+        <v>15.8948350372664</v>
       </c>
       <c r="H91" t="n">
-        <v>16.4434585848868</v>
+        <v>16.0137588570644</v>
       </c>
       <c r="I91" t="n">
-        <v>17.6234979475758</v>
+        <v>18.4568490088226</v>
       </c>
       <c r="J91" t="n">
-        <v>18.4650236965812</v>
+        <v>18.9031424602207</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>-5.03012967350987</v>
+        <v>-4.93253355636274</v>
       </c>
       <c r="B92" t="n">
-        <v>-5.69943714827907</v>
+        <v>-5.55573712188056</v>
       </c>
       <c r="C92" t="n">
-        <v>-5.91419659941045</v>
+        <v>-6.37256455798929</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.52454813483674</v>
+        <v>-6.59942403569183</v>
       </c>
       <c r="E92" t="n">
-        <v>-7.17113411239141</v>
+        <v>-6.41297136390012</v>
       </c>
       <c r="F92" t="n">
-        <v>-7.27887972329407</v>
+        <v>-7.33360736679311</v>
       </c>
       <c r="G92" t="n">
-        <v>-8.00499940274235</v>
+        <v>-8.08065897033885</v>
       </c>
       <c r="H92" t="n">
-        <v>-8.59619299017898</v>
+        <v>-8.69911873719075</v>
       </c>
       <c r="I92" t="n">
-        <v>-9.057900352684</v>
+        <v>-9.30643096630706</v>
       </c>
       <c r="J92" t="n">
-        <v>-9.54295018874664</v>
+        <v>-9.34239806782066</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>9.80752098593637</v>
+        <v>10.5557439774023</v>
       </c>
       <c r="B93" t="n">
-        <v>12.0375723367121</v>
+        <v>10.3821473821698</v>
       </c>
       <c r="C93" t="n">
-        <v>12.813346630894</v>
+        <v>12.9392046104902</v>
       </c>
       <c r="D93" t="n">
-        <v>12.9232140451398</v>
+        <v>13.0088449650122</v>
       </c>
       <c r="E93" t="n">
-        <v>14.0228747201541</v>
+        <v>13.9435907316212</v>
       </c>
       <c r="F93" t="n">
-        <v>15.1281608420206</v>
+        <v>15.6969976377698</v>
       </c>
       <c r="G93" t="n">
-        <v>16.708900732561</v>
+        <v>16.0994166647836</v>
       </c>
       <c r="H93" t="n">
-        <v>16.6005089233725</v>
+        <v>17.611424928445</v>
       </c>
       <c r="I93" t="n">
-        <v>17.2268347244399</v>
+        <v>18.7492890727402</v>
       </c>
       <c r="J93" t="n">
-        <v>18.4598707629208</v>
+        <v>19.5207955072546</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>9.95571559181103</v>
+        <v>10.9825296728576</v>
       </c>
       <c r="B94" t="n">
-        <v>12.3545910551609</v>
+        <v>11.5466191109179</v>
       </c>
       <c r="C94" t="n">
-        <v>13.0026619264801</v>
+        <v>10.750512878315</v>
       </c>
       <c r="D94" t="n">
-        <v>12.9185864314035</v>
+        <v>13.2608476905544</v>
       </c>
       <c r="E94" t="n">
-        <v>14.087644116487</v>
+        <v>12.9614448315021</v>
       </c>
       <c r="F94" t="n">
-        <v>15.590321339361</v>
+        <v>14.4208650274653</v>
       </c>
       <c r="G94" t="n">
-        <v>16.5730806375764</v>
+        <v>17.2424742662955</v>
       </c>
       <c r="H94" t="n">
-        <v>17.1858500361559</v>
+        <v>16.5768680765741</v>
       </c>
       <c r="I94" t="n">
-        <v>18.3544184475388</v>
+        <v>18.3353121461716</v>
       </c>
       <c r="J94" t="n">
-        <v>18.0308200606044</v>
+        <v>-9.59860578518292</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>9.95343910577466</v>
+        <v>10.3949680813984</v>
       </c>
       <c r="B95" t="n">
-        <v>11.7805799718063</v>
+        <v>11.0043922178903</v>
       </c>
       <c r="C95" t="n">
-        <v>10.8509447819757</v>
+        <v>10.7281652679465</v>
       </c>
       <c r="D95" t="n">
-        <v>12.6506413757236</v>
+        <v>13.2254526892724</v>
       </c>
       <c r="E95" t="n">
-        <v>13.8701844036817</v>
+        <v>13.8847250753713</v>
       </c>
       <c r="F95" t="n">
-        <v>-7.46651630283668</v>
+        <v>14.3673135090532</v>
       </c>
       <c r="G95" t="n">
-        <v>-8.30816381043071</v>
+        <v>16.0665819485192</v>
       </c>
       <c r="H95" t="n">
-        <v>-8.70115579711929</v>
+        <v>16.9533569690932</v>
       </c>
       <c r="I95" t="n">
-        <v>-8.60336575072431</v>
+        <v>-9.28595832129636</v>
       </c>
       <c r="J95" t="n">
-        <v>-9.60078788638583</v>
+        <v>-9.67502134505747</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>-5.34183034141751</v>
+        <v>9.87701852939481</v>
       </c>
       <c r="B96" t="n">
-        <v>-5.77303048221614</v>
+        <v>10.8521906306749</v>
       </c>
       <c r="C96" t="n">
-        <v>-6.36368523659809</v>
+        <v>11.8297539937173</v>
       </c>
       <c r="D96" t="n">
-        <v>-6.67639850753241</v>
+        <v>12.5139701619908</v>
       </c>
       <c r="E96" t="n">
-        <v>-6.71933691316594</v>
+        <v>13.775543731064</v>
       </c>
       <c r="F96" t="n">
-        <v>-7.71419660445219</v>
+        <v>14.9300220129529</v>
       </c>
       <c r="G96" t="n">
-        <v>-8.10195190708244</v>
+        <v>17.2243086807053</v>
       </c>
       <c r="H96" t="n">
-        <v>-8.73434265900581</v>
+        <v>17.2760632091177</v>
       </c>
       <c r="I96" t="n">
-        <v>-8.89493815179098</v>
+        <v>17.8720398263885</v>
       </c>
       <c r="J96" t="n">
-        <v>-9.72369026857609</v>
+        <v>18.8133825262364</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>-4.79085876683918</v>
+        <v>10.4032294528625</v>
       </c>
       <c r="B97" t="n">
-        <v>-5.62400401969244</v>
+        <v>10.7490128151286</v>
       </c>
       <c r="C97" t="n">
-        <v>-5.94381962649714</v>
+        <v>11.5341403850291</v>
       </c>
       <c r="D97" t="n">
-        <v>-6.59267242873012</v>
+        <v>13.4038562823898</v>
       </c>
       <c r="E97" t="n">
-        <v>-7.02802537992688</v>
+        <v>13.9194592207</v>
       </c>
       <c r="F97" t="n">
-        <v>-7.39005559087533</v>
+        <v>-6.5973934000417</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.72399616292489</v>
+        <v>-7.78004288455543</v>
       </c>
       <c r="H97" t="n">
-        <v>-8.43852878240873</v>
+        <v>-8.45260266924969</v>
       </c>
       <c r="I97" t="n">
-        <v>-9.22245106152514</v>
+        <v>-8.80476307006773</v>
       </c>
       <c r="J97" t="n">
-        <v>-9.81740730784026</v>
+        <v>-9.28383083190742</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>-5.25540383658344</v>
+        <v>11.0119345872693</v>
       </c>
       <c r="B98" t="n">
-        <v>-5.44009180447113</v>
+        <v>12.3912250292236</v>
       </c>
       <c r="C98" t="n">
-        <v>-6.44766948005331</v>
+        <v>11.9946196662387</v>
       </c>
       <c r="D98" t="n">
-        <v>-6.32614088915026</v>
+        <v>12.5904678626817</v>
       </c>
       <c r="E98" t="n">
-        <v>-7.06547488949705</v>
+        <v>14.3444747572587</v>
       </c>
       <c r="F98" t="n">
-        <v>15.6282844398883</v>
+        <v>-7.81213987305432</v>
       </c>
       <c r="G98" t="n">
-        <v>16.1583321726481</v>
+        <v>-8.30893290023613</v>
       </c>
       <c r="H98" t="n">
-        <v>17.3928898796877</v>
+        <v>-8.37285836061114</v>
       </c>
       <c r="I98" t="n">
-        <v>17.436497299735</v>
+        <v>-9.0410250280346</v>
       </c>
       <c r="J98" t="n">
-        <v>18.5564510930174</v>
+        <v>-9.58860479484484</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>9.74287556779626</v>
+        <v>11.2685321479966</v>
       </c>
       <c r="B99" t="n">
-        <v>10.7304939123257</v>
+        <v>11.6637726361918</v>
       </c>
       <c r="C99" t="n">
-        <v>11.6417350170814</v>
+        <v>-6.26032404661359</v>
       </c>
       <c r="D99" t="n">
-        <v>14.4975019447154</v>
+        <v>-6.43610545602241</v>
       </c>
       <c r="E99" t="n">
-        <v>14.5186200071578</v>
+        <v>-7.26624409320933</v>
       </c>
       <c r="F99" t="n">
-        <v>15.9647345386206</v>
+        <v>-7.59465128334318</v>
       </c>
       <c r="G99" t="n">
-        <v>16.1846734537542</v>
+        <v>-8.04930460756077</v>
       </c>
       <c r="H99" t="n">
-        <v>17.3070676363276</v>
+        <v>-8.18013247905164</v>
       </c>
       <c r="I99" t="n">
-        <v>17.93706104163</v>
+        <v>-8.80581486617248</v>
       </c>
       <c r="J99" t="n">
-        <v>18.964145312159</v>
+        <v>-9.78996046594281</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-5.32223213279207</v>
+        <v>10.4603625908595</v>
       </c>
       <c r="B100" t="n">
-        <v>-5.65315626859934</v>
+        <v>11.1084582587034</v>
       </c>
       <c r="C100" t="n">
-        <v>-5.87384313887925</v>
+        <v>11.6149663189283</v>
       </c>
       <c r="D100" t="n">
-        <v>-6.12578062128366</v>
+        <v>14.7259908452163</v>
       </c>
       <c r="E100" t="n">
-        <v>-6.96410602961059</v>
+        <v>-6.96281458512457</v>
       </c>
       <c r="F100" t="n">
-        <v>-7.65573468937948</v>
+        <v>-7.42725675450187</v>
       </c>
       <c r="G100" t="n">
-        <v>-8.03681696427321</v>
+        <v>-7.77376904780513</v>
       </c>
       <c r="H100" t="n">
-        <v>-8.00782631083656</v>
+        <v>-8.06530414168744</v>
       </c>
       <c r="I100" t="n">
-        <v>-8.93877013272912</v>
+        <v>-8.96645950243975</v>
       </c>
       <c r="J100" t="n">
-        <v>-9.97999211819382</v>
+        <v>-9.37350910631624</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>9.09228449667753</v>
+        <v>-4.76659742459569</v>
       </c>
       <c r="B101" t="n">
-        <v>9.79469706255438</v>
+        <v>-5.6090771706947</v>
       </c>
       <c r="C101" t="n">
-        <v>10.8604913063898</v>
+        <v>-5.8795874174993</v>
       </c>
       <c r="D101" t="n">
-        <v>11.7630563114048</v>
+        <v>-6.3716987030348</v>
       </c>
       <c r="E101" t="n">
-        <v>13.9200838140724</v>
+        <v>-6.8321070821104</v>
       </c>
       <c r="F101" t="n">
-        <v>13.7880526596641</v>
+        <v>-7.95885920689074</v>
       </c>
       <c r="G101" t="n">
-        <v>15.3074107059908</v>
+        <v>-7.82788647129938</v>
       </c>
       <c r="H101" t="n">
-        <v>18.1617931883428</v>
+        <v>-8.67970724364058</v>
       </c>
       <c r="I101" t="n">
-        <v>17.7800181376081</v>
+        <v>-8.94570392724218</v>
       </c>
       <c r="J101" t="n">
-        <v>19.762998269236</v>
+        <v>-9.58396547602349</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
-        <v>-5.25086577509637</v>
+        <v>10.5090652184381</v>
       </c>
       <c r="B102" t="n">
-        <v>-5.35062437653859</v>
+        <v>11.9451364428214</v>
       </c>
       <c r="C102" t="n">
-        <v>-6.25097270311551</v>
+        <v>12.298980618935</v>
       </c>
       <c r="D102" t="n">
-        <v>-6.2056796074183</v>
+        <v>12.1851813635323</v>
       </c>
       <c r="E102" t="n">
-        <v>-6.64411458106699</v>
+        <v>13.9322237402667</v>
       </c>
       <c r="F102" t="n">
-        <v>-7.73897207261741</v>
+        <v>15.8836396076417</v>
       </c>
       <c r="G102" t="n">
-        <v>-8.26979618313367</v>
+        <v>15.3164769075329</v>
       </c>
       <c r="H102" t="n">
-        <v>-8.56702145088126</v>
+        <v>17.481255836504</v>
       </c>
       <c r="I102" t="n">
-        <v>-8.45106700252243</v>
+        <v>17.8622866794734</v>
       </c>
       <c r="J102" t="n">
-        <v>-9.0563082239115</v>
+        <v>20.3012436625362</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="n">
-        <v>-4.85657435841206</v>
+        <v>9.59199977584755</v>
       </c>
       <c r="B103" t="n">
-        <v>-5.34634659403458</v>
+        <v>11.3221837549337</v>
       </c>
       <c r="C103" t="n">
-        <v>-5.9066764000565</v>
+        <v>12.8123852878058</v>
       </c>
       <c r="D103" t="n">
-        <v>-6.36129808611146</v>
+        <v>13.4101869907122</v>
       </c>
       <c r="E103" t="n">
-        <v>-7.272082212358</v>
+        <v>12.8320268138501</v>
       </c>
       <c r="F103" t="n">
-        <v>-7.47016896731878</v>
+        <v>16.2197081100507</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.92273285869255</v>
+        <v>14.901277324975</v>
       </c>
       <c r="H103" t="n">
-        <v>-8.5614396297394</v>
+        <v>15.9313399031685</v>
       </c>
       <c r="I103" t="n">
-        <v>-9.17801142778479</v>
+        <v>18.9243868753306</v>
       </c>
       <c r="J103" t="n">
-        <v>-9.64414455641132</v>
+        <v>18.7772783935466</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="n">
-        <v>9.55987482653319</v>
+        <v>9.68316260380485</v>
       </c>
       <c r="B104" t="n">
-        <v>11.1027271304192</v>
+        <v>10.4118102428279</v>
       </c>
       <c r="C104" t="n">
-        <v>11.919428736826</v>
+        <v>13.0699194036216</v>
       </c>
       <c r="D104" t="n">
-        <v>12.9239990966535</v>
+        <v>14.0279212615675</v>
       </c>
       <c r="E104" t="n">
-        <v>14.2138792056347</v>
+        <v>13.7599871385432</v>
       </c>
       <c r="F104" t="n">
-        <v>15.3033379950791</v>
+        <v>-7.2819917563017</v>
       </c>
       <c r="G104" t="n">
-        <v>15.0630572925101</v>
+        <v>-8.09481536181494</v>
       </c>
       <c r="H104" t="n">
-        <v>16.9761865168987</v>
+        <v>-8.38140431958315</v>
       </c>
       <c r="I104" t="n">
-        <v>20.0745014809345</v>
+        <v>-9.1222800007648</v>
       </c>
       <c r="J104" t="n">
-        <v>19.1806958185808</v>
+        <v>-9.28926522253879</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="n">
-        <v>11.2429147487444</v>
+        <v>10.6613265718477</v>
       </c>
       <c r="B105" t="n">
-        <v>10.6122966961807</v>
+        <v>11.1397501571991</v>
       </c>
       <c r="C105" t="n">
-        <v>12.183683237945</v>
+        <v>11.2711366238335</v>
       </c>
       <c r="D105" t="n">
-        <v>12.3564342646581</v>
+        <v>14.372821221728</v>
       </c>
       <c r="E105" t="n">
-        <v>-7.05203884431717</v>
+        <v>14.5299539681115</v>
       </c>
       <c r="F105" t="n">
-        <v>-7.51019083296603</v>
+        <v>14.2549933313501</v>
       </c>
       <c r="G105" t="n">
-        <v>-8.1711006430316</v>
+        <v>15.7633999073683</v>
       </c>
       <c r="H105" t="n">
-        <v>-8.7247905676924</v>
+        <v>17.3025915252817</v>
       </c>
       <c r="I105" t="n">
-        <v>-8.91993860479901</v>
+        <v>19.3205515204619</v>
       </c>
       <c r="J105" t="n">
-        <v>-9.59894851145449</v>
+        <v>-9.10902543220611</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="n">
-        <v>-4.8001276916938</v>
+        <v>-4.81873505012734</v>
       </c>
       <c r="B106" t="n">
-        <v>-5.74746821999242</v>
+        <v>-5.5191383328519</v>
       </c>
       <c r="C106" t="n">
-        <v>-6.26330180572005</v>
+        <v>-5.87788940181131</v>
       </c>
       <c r="D106" t="n">
-        <v>-6.41606563071851</v>
+        <v>-6.58498070165768</v>
       </c>
       <c r="E106" t="n">
-        <v>-6.89016049968993</v>
+        <v>-7.25528820903603</v>
       </c>
       <c r="F106" t="n">
-        <v>-7.17348504717012</v>
+        <v>-7.55255127983326</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.94621757238441</v>
+        <v>-7.71989623495315</v>
       </c>
       <c r="H106" t="n">
-        <v>-8.38391930799296</v>
+        <v>-8.65919647141079</v>
       </c>
       <c r="I106" t="n">
-        <v>-9.37457094146124</v>
+        <v>-9.037291391599</v>
       </c>
       <c r="J106" t="n">
-        <v>-9.38437556789215</v>
+        <v>18.8321012479046</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>-4.86278969710247</v>
+        <v>-5.19466330866229</v>
       </c>
       <c r="B107" t="n">
-        <v>-5.49804945240335</v>
+        <v>-5.85663130396036</v>
       </c>
       <c r="C107" t="n">
-        <v>-5.67867817606859</v>
+        <v>-6.33823411055948</v>
       </c>
       <c r="D107" t="n">
-        <v>-6.82628021066256</v>
+        <v>-6.44468197337585</v>
       </c>
       <c r="E107" t="n">
-        <v>-6.86084748317003</v>
+        <v>-6.92605932341359</v>
       </c>
       <c r="F107" t="n">
-        <v>-7.19699242439763</v>
+        <v>-7.25979102064741</v>
       </c>
       <c r="G107" t="n">
-        <v>-8.11116663711057</v>
+        <v>-7.89524863929282</v>
       </c>
       <c r="H107" t="n">
-        <v>-7.93310570388749</v>
+        <v>-8.88286772157789</v>
       </c>
       <c r="I107" t="n">
-        <v>-9.12350578448302</v>
+        <v>-9.21757125111729</v>
       </c>
       <c r="J107" t="n">
-        <v>-9.85441376623053</v>
+        <v>-9.038763323936</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>8.41635810763949</v>
+        <v>9.86500385094136</v>
       </c>
       <c r="B108" t="n">
-        <v>10.3763300580823</v>
+        <v>11.4115781751679</v>
       </c>
       <c r="C108" t="n">
-        <v>11.725191198673</v>
+        <v>11.807413125897</v>
       </c>
       <c r="D108" t="n">
-        <v>14.6784833593334</v>
+        <v>13.0671938201606</v>
       </c>
       <c r="E108" t="n">
-        <v>15.4841129373828</v>
+        <v>15.1415519131469</v>
       </c>
       <c r="F108" t="n">
-        <v>13.9156103991191</v>
+        <v>13.8203472745952</v>
       </c>
       <c r="G108" t="n">
-        <v>15.2817352540637</v>
+        <v>15.3027216657606</v>
       </c>
       <c r="H108" t="n">
-        <v>16.9677261984182</v>
+        <v>16.9574749193217</v>
       </c>
       <c r="I108" t="n">
-        <v>17.8009844525442</v>
+        <v>18.54115180179</v>
       </c>
       <c r="J108" t="n">
-        <v>18.8956012993866</v>
+        <v>-9.8908012714199</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>10.6168828501185</v>
+        <v>10.0645008377525</v>
       </c>
       <c r="B109" t="n">
-        <v>11.7643422225908</v>
+        <v>9.72997454739849</v>
       </c>
       <c r="C109" t="n">
-        <v>11.6997508358171</v>
+        <v>11.6229839001394</v>
       </c>
       <c r="D109" t="n">
-        <v>11.6532384948083</v>
+        <v>12.336548495673</v>
       </c>
       <c r="E109" t="n">
-        <v>15.0555396950965</v>
+        <v>13.9717287060491</v>
       </c>
       <c r="F109" t="n">
-        <v>14.5400817198471</v>
+        <v>15.9273809459456</v>
       </c>
       <c r="G109" t="n">
-        <v>16.7621051144891</v>
+        <v>15.8212919735463</v>
       </c>
       <c r="H109" t="n">
-        <v>15.6191098685701</v>
+        <v>17.1567417929548</v>
       </c>
       <c r="I109" t="n">
-        <v>17.1982525873818</v>
+        <v>17.7488512824496</v>
       </c>
       <c r="J109" t="n">
-        <v>18.2139817529713</v>
+        <v>19.4651626064441</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="n">
-        <v>-4.75928087735495</v>
+        <v>10.2060299274008</v>
       </c>
       <c r="B110" t="n">
-        <v>-5.37512072171767</v>
+        <v>11.1546974053296</v>
       </c>
       <c r="C110" t="n">
-        <v>-5.99211963387371</v>
+        <v>12.0994814441093</v>
       </c>
       <c r="D110" t="n">
-        <v>-6.71575226418063</v>
+        <v>13.3661739836381</v>
       </c>
       <c r="E110" t="n">
-        <v>-6.76711505648995</v>
+        <v>14.1021409183038</v>
       </c>
       <c r="F110" t="n">
-        <v>-7.36063382452489</v>
+        <v>14.5831203804972</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.65287683464266</v>
+        <v>15.1784941536273</v>
       </c>
       <c r="H110" t="n">
-        <v>-8.55772003152645</v>
+        <v>15.7906053548116</v>
       </c>
       <c r="I110" t="n">
-        <v>-9.08032182519748</v>
+        <v>17.3660952735497</v>
       </c>
       <c r="J110" t="n">
-        <v>-9.48843825981932</v>
+        <v>18.1191754620718</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="n">
-        <v>-5.52292471128325</v>
+        <v>9.46531080661815</v>
       </c>
       <c r="B111" t="n">
-        <v>-5.43551139077019</v>
+        <v>11.5919264001739</v>
       </c>
       <c r="C111" t="n">
-        <v>-6.10988450467982</v>
+        <v>12.5972921827523</v>
       </c>
       <c r="D111" t="n">
-        <v>-6.08480038405095</v>
+        <v>11.6885338774986</v>
       </c>
       <c r="E111" t="n">
-        <v>-6.91460935434555</v>
+        <v>14.3579788626571</v>
       </c>
       <c r="F111" t="n">
-        <v>-7.27850362716355</v>
+        <v>14.7694944732608</v>
       </c>
       <c r="G111" t="n">
-        <v>-8.23888723241855</v>
+        <v>16.1358601033681</v>
       </c>
       <c r="H111" t="n">
-        <v>-8.55855113091806</v>
+        <v>17.4613269927558</v>
       </c>
       <c r="I111" t="n">
-        <v>-8.92835709246918</v>
+        <v>17.5172002935023</v>
       </c>
       <c r="J111" t="n">
-        <v>-9.24448441839068</v>
+        <v>19.188970998293</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>9.6882767106618</v>
+        <v>9.90358532972778</v>
       </c>
       <c r="B112" t="n">
-        <v>10.1712464084835</v>
+        <v>11.2785287029785</v>
       </c>
       <c r="C112" t="n">
-        <v>-6.16548084612264</v>
+        <v>11.2158710418339</v>
       </c>
       <c r="D112" t="n">
-        <v>-6.87643763371733</v>
+        <v>13.3182732515456</v>
       </c>
       <c r="E112" t="n">
-        <v>-7.41651274551873</v>
+        <v>13.5918351443033</v>
       </c>
       <c r="F112" t="n">
-        <v>-7.71121316111484</v>
+        <v>15.7482768539625</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.87032909950738</v>
+        <v>16.5733489527236</v>
       </c>
       <c r="H112" t="n">
-        <v>-8.69651767986996</v>
+        <v>17.5274597918112</v>
       </c>
       <c r="I112" t="n">
-        <v>-9.07570950654913</v>
+        <v>17.8866730219597</v>
       </c>
       <c r="J112" t="n">
-        <v>-9.22299784168551</v>
+        <v>-9.17222906358835</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>-5.30850869997964</v>
+        <v>-5.12824800738051</v>
       </c>
       <c r="B113" t="n">
-        <v>-5.63148289381295</v>
+        <v>-5.47186763073009</v>
       </c>
       <c r="C113" t="n">
-        <v>-6.35448269020477</v>
+        <v>-6.25159631170201</v>
       </c>
       <c r="D113" t="n">
-        <v>-6.11548770291083</v>
+        <v>-6.33600185140179</v>
       </c>
       <c r="E113" t="n">
-        <v>-7.19150671273158</v>
+        <v>-7.28129220367258</v>
       </c>
       <c r="F113" t="n">
-        <v>-7.07242719587697</v>
+        <v>-7.18827874387057</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.96688972262695</v>
+        <v>-8.2464684447356</v>
       </c>
       <c r="H113" t="n">
-        <v>-8.18623592090964</v>
+        <v>-8.64032676561593</v>
       </c>
       <c r="I113" t="n">
-        <v>-9.13352214257927</v>
+        <v>-8.78457183023633</v>
       </c>
       <c r="J113" t="n">
-        <v>-9.31165028864964</v>
+        <v>-9.53396181020436</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="n">
-        <v>9.74768812183982</v>
+        <v>9.83427081200887</v>
       </c>
       <c r="B114" t="n">
-        <v>10.7326854240939</v>
+        <v>-5.39318992150977</v>
       </c>
       <c r="C114" t="n">
-        <v>11.9986333240339</v>
+        <v>-5.90703903967055</v>
       </c>
       <c r="D114" t="n">
-        <v>13.291072158917</v>
+        <v>-6.67090754671535</v>
       </c>
       <c r="E114" t="n">
-        <v>15.2335566126976</v>
+        <v>-6.55018874497186</v>
       </c>
       <c r="F114" t="n">
-        <v>-7.35586626055215</v>
+        <v>-7.11929468171568</v>
       </c>
       <c r="G114" t="n">
-        <v>-8.11417869708199</v>
+        <v>-8.02897755983601</v>
       </c>
       <c r="H114" t="n">
-        <v>-8.84630616887438</v>
+        <v>-8.64824954011508</v>
       </c>
       <c r="I114" t="n">
-        <v>-8.83779408765944</v>
+        <v>-8.96939179162349</v>
       </c>
       <c r="J114" t="n">
-        <v>-9.25077209053078</v>
+        <v>-9.49450571141468</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>10.441913057582</v>
+        <v>10.6811184970001</v>
       </c>
       <c r="B115" t="n">
-        <v>11.4703488587756</v>
+        <v>10.1952850097097</v>
       </c>
       <c r="C115" t="n">
-        <v>12.2331671472953</v>
+        <v>12.3075458281392</v>
       </c>
       <c r="D115" t="n">
-        <v>13.408974714919</v>
+        <v>13.4805210204197</v>
       </c>
       <c r="E115" t="n">
-        <v>14.5741932785144</v>
+        <v>13.6376059223376</v>
       </c>
       <c r="F115" t="n">
-        <v>15.0068614086174</v>
+        <v>14.9556785530994</v>
       </c>
       <c r="G115" t="n">
-        <v>16.3403561747545</v>
+        <v>16.3012846325592</v>
       </c>
       <c r="H115" t="n">
-        <v>16.9785352027711</v>
+        <v>17.837127318751</v>
       </c>
       <c r="I115" t="n">
-        <v>19.2566256658303</v>
+        <v>17.9969157185534</v>
       </c>
       <c r="J115" t="n">
-        <v>19.0326826962269</v>
+        <v>19.3216396615102</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="n">
-        <v>9.51020614019665</v>
+        <v>10.6815985212732</v>
       </c>
       <c r="B116" t="n">
-        <v>11.1383185242651</v>
+        <v>13.1167178866603</v>
       </c>
       <c r="C116" t="n">
-        <v>10.8123592778532</v>
+        <v>11.0617528422582</v>
       </c>
       <c r="D116" t="n">
-        <v>12.9715647108542</v>
+        <v>13.4082500532145</v>
       </c>
       <c r="E116" t="n">
-        <v>13.9783707991354</v>
+        <v>14.7265262496489</v>
       </c>
       <c r="F116" t="n">
-        <v>14.1942326680451</v>
+        <v>15.5888255132261</v>
       </c>
       <c r="G116" t="n">
-        <v>16.2477954823579</v>
+        <v>17.2466778020697</v>
       </c>
       <c r="H116" t="n">
-        <v>17.2896487987381</v>
+        <v>17.4771166677844</v>
       </c>
       <c r="I116" t="n">
-        <v>18.7016118668289</v>
+        <v>18.4483507995738</v>
       </c>
       <c r="J116" t="n">
-        <v>19.9958796635336</v>
+        <v>18.6539128094758</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="n">
-        <v>-5.15214394293285</v>
+        <v>9.38490401345848</v>
       </c>
       <c r="B117" t="n">
-        <v>-4.93183459594689</v>
+        <v>-5.74623669893911</v>
       </c>
       <c r="C117" t="n">
-        <v>-6.01680489304448</v>
+        <v>-6.36436619475047</v>
       </c>
       <c r="D117" t="n">
-        <v>-6.87152628820583</v>
+        <v>-6.30031655611303</v>
       </c>
       <c r="E117" t="n">
-        <v>-7.21313366334592</v>
+        <v>-7.2503242621214</v>
       </c>
       <c r="F117" t="n">
-        <v>-7.29458590669504</v>
+        <v>-7.39185528291949</v>
       </c>
       <c r="G117" t="n">
-        <v>-8.07439720343921</v>
+        <v>-7.4732226078064</v>
       </c>
       <c r="H117" t="n">
-        <v>-8.7888053389096</v>
+        <v>-8.68478849243144</v>
       </c>
       <c r="I117" t="n">
-        <v>-9.04532092016444</v>
+        <v>-9.05773730970841</v>
       </c>
       <c r="J117" t="n">
-        <v>-9.42295474184803</v>
+        <v>-9.91904974926506</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="n">
-        <v>10.3272141967434</v>
+        <v>10.4136363364078</v>
       </c>
       <c r="B118" t="n">
-        <v>10.8984030487199</v>
+        <v>11.2611581705101</v>
       </c>
       <c r="C118" t="n">
-        <v>11.5796371690233</v>
+        <v>12.4155711221369</v>
       </c>
       <c r="D118" t="n">
-        <v>13.1327916904713</v>
+        <v>12.4775273967294</v>
       </c>
       <c r="E118" t="n">
-        <v>12.3274962508885</v>
+        <v>15.2876393664449</v>
       </c>
       <c r="F118" t="n">
-        <v>14.7329182439307</v>
+        <v>14.597321805798</v>
       </c>
       <c r="G118" t="n">
-        <v>16.0547186011143</v>
+        <v>16.4410178025786</v>
       </c>
       <c r="H118" t="n">
-        <v>16.3520046200706</v>
+        <v>17.3960228339704</v>
       </c>
       <c r="I118" t="n">
-        <v>19.2525546318664</v>
+        <v>17.6521414550056</v>
       </c>
       <c r="J118" t="n">
-        <v>18.7637437831789</v>
+        <v>19.9575942169383</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="n">
-        <v>10.051995155239</v>
+        <v>10.5469186233304</v>
       </c>
       <c r="B119" t="n">
-        <v>12.0181469085841</v>
+        <v>10.4362909850921</v>
       </c>
       <c r="C119" t="n">
-        <v>11.2189752299124</v>
+        <v>12.9209540099819</v>
       </c>
       <c r="D119" t="n">
-        <v>12.5838318699275</v>
+        <v>12.9635112346952</v>
       </c>
       <c r="E119" t="n">
-        <v>15.4274013656957</v>
+        <v>14.6848553647996</v>
       </c>
       <c r="F119" t="n">
-        <v>14.6151409038699</v>
+        <v>13.9587344202989</v>
       </c>
       <c r="G119" t="n">
-        <v>17.8537997935424</v>
+        <v>-7.85897350810891</v>
       </c>
       <c r="H119" t="n">
-        <v>18.1703202492062</v>
+        <v>-8.4763209410645</v>
       </c>
       <c r="I119" t="n">
-        <v>16.6228768477228</v>
+        <v>-8.74721829792161</v>
       </c>
       <c r="J119" t="n">
-        <v>18.6126318742424</v>
+        <v>-9.75460166537803</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="n">
-        <v>7.90276607023242</v>
+        <v>10.2810053196561</v>
       </c>
       <c r="B120" t="n">
-        <v>12.617364918181</v>
+        <v>12.4708977935853</v>
       </c>
       <c r="C120" t="n">
-        <v>11.0163602011691</v>
+        <v>12.2331289928867</v>
       </c>
       <c r="D120" t="n">
-        <v>12.3210685698626</v>
+        <v>-6.71433999661165</v>
       </c>
       <c r="E120" t="n">
-        <v>15.0556348356122</v>
+        <v>-7.10840781100486</v>
       </c>
       <c r="F120" t="n">
-        <v>14.3367503329168</v>
+        <v>-7.57632348810188</v>
       </c>
       <c r="G120" t="n">
-        <v>16.2362697464875</v>
+        <v>-8.50338714438371</v>
       </c>
       <c r="H120" t="n">
-        <v>16.4177708150013</v>
+        <v>-8.87231268225172</v>
       </c>
       <c r="I120" t="n">
-        <v>17.999265166487</v>
+        <v>-9.51789930437164</v>
       </c>
       <c r="J120" t="n">
-        <v>18.1025257613612</v>
+        <v>-9.45392801500032</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>-4.64573858696084</v>
+        <v>10.8900313204045</v>
       </c>
       <c r="B121" t="n">
-        <v>-5.55588203816922</v>
+        <v>-5.21722083002456</v>
       </c>
       <c r="C121" t="n">
-        <v>-6.51497174454525</v>
+        <v>-5.68298160317998</v>
       </c>
       <c r="D121" t="n">
-        <v>-6.65089922018366</v>
+        <v>-6.75335029510182</v>
       </c>
       <c r="E121" t="n">
-        <v>-6.88409352571252</v>
+        <v>-7.44211357311217</v>
       </c>
       <c r="F121" t="n">
-        <v>-6.86179299284304</v>
+        <v>-7.6346605122349</v>
       </c>
       <c r="G121" t="n">
-        <v>-8.3901467239836</v>
+        <v>-8.32595387167978</v>
       </c>
       <c r="H121" t="n">
-        <v>-8.79145084422253</v>
+        <v>-8.68469095517983</v>
       </c>
       <c r="I121" t="n">
-        <v>-9.25478820488203</v>
+        <v>-8.64694456943522</v>
       </c>
       <c r="J121" t="n">
-        <v>-9.42862986524493</v>
+        <v>-9.51402824934143</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>-5.16204868688786</v>
+        <v>8.35890566828904</v>
       </c>
       <c r="B122" t="n">
-        <v>-5.2154619169863</v>
+        <v>10.2760584641066</v>
       </c>
       <c r="C122" t="n">
-        <v>-5.87728508651758</v>
+        <v>13.4285224895899</v>
       </c>
       <c r="D122" t="n">
-        <v>-6.26809429230356</v>
+        <v>12.5024426190364</v>
       </c>
       <c r="E122" t="n">
-        <v>-7.06505699921165</v>
+        <v>13.7245558817696</v>
       </c>
       <c r="F122" t="n">
-        <v>-7.63327644503365</v>
+        <v>14.7795798137409</v>
       </c>
       <c r="G122" t="n">
-        <v>-8.39308317472801</v>
+        <v>16.2214244589876</v>
       </c>
       <c r="H122" t="n">
-        <v>-8.36366107784717</v>
+        <v>17.7646430203714</v>
       </c>
       <c r="I122" t="n">
-        <v>-8.95136789615684</v>
+        <v>18.6167519875731</v>
       </c>
       <c r="J122" t="n">
-        <v>-9.43363166065841</v>
+        <v>18.6338382440458</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="n">
-        <v>10.8828666059712</v>
+        <v>9.23615744734474</v>
       </c>
       <c r="B123" t="n">
-        <v>11.4597246745769</v>
+        <v>11.495861388365</v>
       </c>
       <c r="C123" t="n">
-        <v>11.6509367759125</v>
+        <v>13.293815578589</v>
       </c>
       <c r="D123" t="n">
-        <v>13.282141814383</v>
+        <v>12.5963354817563</v>
       </c>
       <c r="E123" t="n">
-        <v>13.1573164917054</v>
+        <v>13.6927163483078</v>
       </c>
       <c r="F123" t="n">
-        <v>14.5037090583666</v>
+        <v>14.3342711506624</v>
       </c>
       <c r="G123" t="n">
-        <v>16.1660552511674</v>
+        <v>15.2130778010309</v>
       </c>
       <c r="H123" t="n">
-        <v>16.8420960140032</v>
+        <v>17.0540341033453</v>
       </c>
       <c r="I123" t="n">
-        <v>18.0815455082532</v>
+        <v>17.8015146675077</v>
       </c>
       <c r="J123" t="n">
-        <v>18.2626214628816</v>
+        <v>20.9782199085315</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="n">
-        <v>9.2135153327626</v>
+        <v>9.81806076317739</v>
       </c>
       <c r="B124" t="n">
-        <v>11.0811060104213</v>
+        <v>10.2874525975496</v>
       </c>
       <c r="C124" t="n">
-        <v>11.3120916171847</v>
+        <v>12.9341626247177</v>
       </c>
       <c r="D124" t="n">
-        <v>12.450497853204</v>
+        <v>13.7599703172459</v>
       </c>
       <c r="E124" t="n">
-        <v>14.3182955697856</v>
+        <v>12.5267242039155</v>
       </c>
       <c r="F124" t="n">
-        <v>14.429281278576</v>
+        <v>-7.18740781361531</v>
       </c>
       <c r="G124" t="n">
-        <v>16.2787380987686</v>
+        <v>-7.97443247730031</v>
       </c>
       <c r="H124" t="n">
-        <v>16.5938201133638</v>
+        <v>-8.53981086603364</v>
       </c>
       <c r="I124" t="n">
-        <v>17.5463284350321</v>
+        <v>-9.12563080484443</v>
       </c>
       <c r="J124" t="n">
-        <v>19.1738385518582</v>
+        <v>-8.98250693670612</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="n">
-        <v>10.0454281700077</v>
+        <v>10.5019350855483</v>
       </c>
       <c r="B125" t="n">
-        <v>11.4953452925077</v>
+        <v>-5.67858922321646</v>
       </c>
       <c r="C125" t="n">
-        <v>11.8124479926916</v>
+        <v>-6.12814475669056</v>
       </c>
       <c r="D125" t="n">
-        <v>12.9248862205443</v>
+        <v>-6.16353400467688</v>
       </c>
       <c r="E125" t="n">
-        <v>14.4793785047795</v>
+        <v>-7.05909495681325</v>
       </c>
       <c r="F125" t="n">
-        <v>15.0978435157571</v>
+        <v>-7.31147551866367</v>
       </c>
       <c r="G125" t="n">
-        <v>16.0251349309824</v>
+        <v>-7.95739486585678</v>
       </c>
       <c r="H125" t="n">
-        <v>18.1083106373253</v>
+        <v>-8.63121792212701</v>
       </c>
       <c r="I125" t="n">
-        <v>16.8293422129551</v>
+        <v>-9.47150326092518</v>
       </c>
       <c r="J125" t="n">
-        <v>18.6825073163286</v>
+        <v>-9.2311217911786</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>-4.74671095521119</v>
+        <v>11.1474559142129</v>
       </c>
       <c r="B126" t="n">
-        <v>-5.54880661297336</v>
+        <v>11.6372085499428</v>
       </c>
       <c r="C126" t="n">
-        <v>-5.87919743619818</v>
+        <v>12.7039235277118</v>
       </c>
       <c r="D126" t="n">
-        <v>-6.87909045915879</v>
+        <v>12.0113644074231</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.78469757234075</v>
+        <v>14.4085098154629</v>
       </c>
       <c r="F126" t="n">
-        <v>-7.24579338558694</v>
+        <v>15.3021209998577</v>
       </c>
       <c r="G126" t="n">
-        <v>-8.01145365902755</v>
+        <v>16.1916188655027</v>
       </c>
       <c r="H126" t="n">
-        <v>-7.99175209613154</v>
+        <v>15.699122663415</v>
       </c>
       <c r="I126" t="n">
-        <v>17.7262757167567</v>
+        <v>17.6169125654444</v>
       </c>
       <c r="J126" t="n">
-        <v>19.8746459747091</v>
+        <v>18.6679007703833</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>-4.7702370621736</v>
+        <v>-4.87147433988506</v>
       </c>
       <c r="B127" t="n">
-        <v>-5.51066592697549</v>
+        <v>-5.49190943882291</v>
       </c>
       <c r="C127" t="n">
-        <v>-5.67146704785944</v>
+        <v>-5.35314541189543</v>
       </c>
       <c r="D127" t="n">
-        <v>-6.17537976006961</v>
+        <v>-6.48967043256356</v>
       </c>
       <c r="E127" t="n">
-        <v>-6.75702122722051</v>
+        <v>-6.97368371133396</v>
       </c>
       <c r="F127" t="n">
-        <v>-7.44581056802452</v>
+        <v>-7.6270884361286</v>
       </c>
       <c r="G127" t="n">
-        <v>-7.97259705964676</v>
+        <v>-7.97620553480056</v>
       </c>
       <c r="H127" t="n">
-        <v>-8.07833740472867</v>
+        <v>-8.77234071005929</v>
       </c>
       <c r="I127" t="n">
-        <v>-8.64712165578348</v>
+        <v>-9.10792423888362</v>
       </c>
       <c r="J127" t="n">
-        <v>19.1595889294952</v>
+        <v>-9.20836643215375</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>9.43538119809417</v>
+        <v>10.6220343301326</v>
       </c>
       <c r="B128" t="n">
-        <v>11.3126337102358</v>
+        <v>10.2885190427612</v>
       </c>
       <c r="C128" t="n">
-        <v>11.8394185813725</v>
+        <v>12.3021952850522</v>
       </c>
       <c r="D128" t="n">
-        <v>13.2693981420696</v>
+        <v>-6.10688551444329</v>
       </c>
       <c r="E128" t="n">
-        <v>14.4968395008949</v>
+        <v>-7.5679623417995</v>
       </c>
       <c r="F128" t="n">
-        <v>13.6498327213148</v>
+        <v>-7.82834470476567</v>
       </c>
       <c r="G128" t="n">
-        <v>15.3507865533873</v>
+        <v>-7.45538074343439</v>
       </c>
       <c r="H128" t="n">
-        <v>17.4593363789374</v>
+        <v>-8.64058080272173</v>
       </c>
       <c r="I128" t="n">
-        <v>17.2162737464051</v>
+        <v>-9.05550927723259</v>
       </c>
       <c r="J128" t="n">
-        <v>19.7133647905837</v>
+        <v>-9.53839901764715</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>10.6371723384223</v>
+        <v>-5.01499699136704</v>
       </c>
       <c r="B129" t="n">
-        <v>11.090069700939</v>
+        <v>-5.57425122292847</v>
       </c>
       <c r="C129" t="n">
-        <v>12.7290142885869</v>
+        <v>-6.00983430441637</v>
       </c>
       <c r="D129" t="n">
-        <v>12.8125776367256</v>
+        <v>-6.64644697596775</v>
       </c>
       <c r="E129" t="n">
-        <v>13.8902732892477</v>
+        <v>-6.67738706684437</v>
       </c>
       <c r="F129" t="n">
-        <v>15.1364157193443</v>
+        <v>-7.77547698084157</v>
       </c>
       <c r="G129" t="n">
-        <v>16.7680067431066</v>
+        <v>-8.24526049002377</v>
       </c>
       <c r="H129" t="n">
-        <v>16.924375619582</v>
+        <v>-8.69397162415499</v>
       </c>
       <c r="I129" t="n">
-        <v>17.6345512610488</v>
+        <v>-9.54075349944557</v>
       </c>
       <c r="J129" t="n">
-        <v>19.421968597203</v>
+        <v>-9.58822496952004</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>10.0352875368138</v>
+        <v>-5.28317836817264</v>
       </c>
       <c r="B130" t="n">
-        <v>10.1275978502516</v>
+        <v>-5.37571616624541</v>
       </c>
       <c r="C130" t="n">
-        <v>11.4565716201048</v>
+        <v>-5.79377495770706</v>
       </c>
       <c r="D130" t="n">
-        <v>13.2236340291652</v>
+        <v>-6.62452798466516</v>
       </c>
       <c r="E130" t="n">
-        <v>14.366374499544</v>
+        <v>-6.98687228778427</v>
       </c>
       <c r="F130" t="n">
-        <v>14.9616357006467</v>
+        <v>-7.69578892714967</v>
       </c>
       <c r="G130" t="n">
-        <v>16.7810427838644</v>
+        <v>-7.52497837481528</v>
       </c>
       <c r="H130" t="n">
-        <v>17.571950291276</v>
+        <v>-8.26648283106106</v>
       </c>
       <c r="I130" t="n">
-        <v>18.2670442293827</v>
+        <v>-9.25135699570439</v>
       </c>
       <c r="J130" t="n">
-        <v>19.3528446491631</v>
+        <v>-9.53955669948896</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>10.9560366018877</v>
+        <v>9.92534333119094</v>
       </c>
       <c r="B131" t="n">
-        <v>10.4954601849882</v>
+        <v>11.0696154679687</v>
       </c>
       <c r="C131" t="n">
-        <v>12.1499509082688</v>
+        <v>11.5190838171274</v>
       </c>
       <c r="D131" t="n">
-        <v>11.9346953321779</v>
+        <v>12.1666477250185</v>
       </c>
       <c r="E131" t="n">
-        <v>12.8774018542869</v>
+        <v>14.4550784593836</v>
       </c>
       <c r="F131" t="n">
-        <v>14.4104596646726</v>
+        <v>15.3883371402309</v>
       </c>
       <c r="G131" t="n">
-        <v>14.9530406760647</v>
+        <v>15.2182458871823</v>
       </c>
       <c r="H131" t="n">
-        <v>17.8056530460707</v>
+        <v>17.1227065514001</v>
       </c>
       <c r="I131" t="n">
-        <v>17.8646332965343</v>
+        <v>17.4208540253947</v>
       </c>
       <c r="J131" t="n">
-        <v>19.3374672965782</v>
+        <v>18.8391577454366</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>8.46633324932729</v>
+        <v>10.5654423291468</v>
       </c>
       <c r="B132" t="n">
-        <v>11.034937951766</v>
+        <v>10.3534137628796</v>
       </c>
       <c r="C132" t="n">
-        <v>11.8361956584026</v>
+        <v>11.8815693979355</v>
       </c>
       <c r="D132" t="n">
-        <v>11.6350875531285</v>
+        <v>13.7000241572168</v>
       </c>
       <c r="E132" t="n">
-        <v>14.52463272313</v>
+        <v>13.666549350597</v>
       </c>
       <c r="F132" t="n">
-        <v>14.2638667632279</v>
+        <v>-7.30973584221585</v>
       </c>
       <c r="G132" t="n">
-        <v>-7.75885623608598</v>
+        <v>-7.89483937516007</v>
       </c>
       <c r="H132" t="n">
-        <v>-8.42694368625757</v>
+        <v>-8.61671382594067</v>
       </c>
       <c r="I132" t="n">
-        <v>-9.37904639959938</v>
+        <v>-9.07982405780832</v>
       </c>
       <c r="J132" t="n">
-        <v>-9.6702662016766</v>
+        <v>-9.32939255982878</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="n">
-        <v>-4.82037026119525</v>
+        <v>-5.11172755295423</v>
       </c>
       <c r="B133" t="n">
-        <v>-5.58190685970807</v>
+        <v>-5.65290029275848</v>
       </c>
       <c r="C133" t="n">
-        <v>-5.72166320514343</v>
+        <v>-6.05581019534853</v>
       </c>
       <c r="D133" t="n">
-        <v>-6.66273085015648</v>
+        <v>-6.76765555844761</v>
       </c>
       <c r="E133" t="n">
-        <v>-6.83923472927084</v>
+        <v>-7.17608952449738</v>
       </c>
       <c r="F133" t="n">
-        <v>-7.19575186571296</v>
+        <v>-7.24179590111445</v>
       </c>
       <c r="G133" t="n">
-        <v>-7.76232154963166</v>
+        <v>-7.99547169821125</v>
       </c>
       <c r="H133" t="n">
-        <v>-8.1782066514236</v>
+        <v>-8.55229360768953</v>
       </c>
       <c r="I133" t="n">
-        <v>-8.9792204052388</v>
+        <v>-8.96092916007324</v>
       </c>
       <c r="J133" t="n">
-        <v>-9.62764670144703</v>
+        <v>-10.1133766699097</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="n">
-        <v>9.7324069091457</v>
+        <v>10.9107072784889</v>
       </c>
       <c r="B134" t="n">
-        <v>12.3145283910332</v>
+        <v>11.8117714285744</v>
       </c>
       <c r="C134" t="n">
-        <v>12.2064684444497</v>
+        <v>12.6592670982142</v>
       </c>
       <c r="D134" t="n">
-        <v>14.0178355475862</v>
+        <v>11.8412615936612</v>
       </c>
       <c r="E134" t="n">
-        <v>13.354792786906</v>
+        <v>14.6490292107279</v>
       </c>
       <c r="F134" t="n">
-        <v>15.875501683042</v>
+        <v>14.3847802876363</v>
       </c>
       <c r="G134" t="n">
-        <v>-7.70362548549996</v>
+        <v>15.5038258501063</v>
       </c>
       <c r="H134" t="n">
-        <v>-8.20456252144706</v>
+        <v>17.8656441633672</v>
       </c>
       <c r="I134" t="n">
-        <v>-8.98684581398315</v>
+        <v>17.8897189234392</v>
       </c>
       <c r="J134" t="n">
-        <v>-9.79488141269012</v>
+        <v>19.2674145302778</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="n">
-        <v>10.1179523492583</v>
+        <v>-4.61560246577534</v>
       </c>
       <c r="B135" t="n">
-        <v>10.74116968626</v>
+        <v>-5.67353407991683</v>
       </c>
       <c r="C135" t="n">
-        <v>10.588386968598</v>
+        <v>-5.60103467808938</v>
       </c>
       <c r="D135" t="n">
-        <v>13.0467550895632</v>
+        <v>-6.58216426716459</v>
       </c>
       <c r="E135" t="n">
-        <v>14.1160501594951</v>
+        <v>-7.15421013673336</v>
       </c>
       <c r="F135" t="n">
-        <v>15.631204476043</v>
+        <v>-7.16876450296688</v>
       </c>
       <c r="G135" t="n">
-        <v>16.3598104380044</v>
+        <v>-8.09489442208289</v>
       </c>
       <c r="H135" t="n">
-        <v>17.4598156801153</v>
+        <v>-8.46025001267322</v>
       </c>
       <c r="I135" t="n">
-        <v>17.2458893216822</v>
+        <v>-8.86831137764801</v>
       </c>
       <c r="J135" t="n">
-        <v>19.6138492871235</v>
+        <v>-9.46137209415489</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="n">
-        <v>10.2801539430132</v>
+        <v>-5.01476688516449</v>
       </c>
       <c r="B136" t="n">
-        <v>10.0321153013223</v>
+        <v>-5.90156631355632</v>
       </c>
       <c r="C136" t="n">
-        <v>10.7175797436077</v>
+        <v>-6.15966164433576</v>
       </c>
       <c r="D136" t="n">
-        <v>12.3528634406265</v>
+        <v>-6.42658000075459</v>
       </c>
       <c r="E136" t="n">
-        <v>-7.09020236319953</v>
+        <v>-7.20400423063837</v>
       </c>
       <c r="F136" t="n">
-        <v>-7.66470864399691</v>
+        <v>-7.13556619721995</v>
       </c>
       <c r="G136" t="n">
-        <v>-8.10155109549278</v>
+        <v>-7.83951973321734</v>
       </c>
       <c r="H136" t="n">
-        <v>-8.7471603213015</v>
+        <v>-8.66345358827351</v>
       </c>
       <c r="I136" t="n">
-        <v>-9.51002225625166</v>
+        <v>-9.06273538879843</v>
       </c>
       <c r="J136" t="n">
-        <v>-9.73129432483186</v>
+        <v>-9.29342695973631</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="n">
-        <v>-4.89417239920668</v>
+        <v>10.0641282171744</v>
       </c>
       <c r="B137" t="n">
-        <v>-5.63695243948082</v>
+        <v>10.6003335627768</v>
       </c>
       <c r="C137" t="n">
-        <v>-6.25750331627051</v>
+        <v>10.7448392348303</v>
       </c>
       <c r="D137" t="n">
-        <v>-6.40145571676273</v>
+        <v>12.7928119072766</v>
       </c>
       <c r="E137" t="n">
-        <v>-6.98707810639791</v>
+        <v>13.0853836649556</v>
       </c>
       <c r="F137" t="n">
-        <v>-7.37217584229786</v>
+        <v>14.6739121546894</v>
       </c>
       <c r="G137" t="n">
-        <v>-8.32690219607687</v>
+        <v>15.7717244366772</v>
       </c>
       <c r="H137" t="n">
-        <v>-8.56023203741599</v>
+        <v>-8.08915306699866</v>
       </c>
       <c r="I137" t="n">
-        <v>-9.06515797691578</v>
+        <v>-8.78461057174217</v>
       </c>
       <c r="J137" t="n">
-        <v>-9.28009212560592</v>
+        <v>-9.69387195543031</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="n">
-        <v>8.39319571425471</v>
+        <v>10.0962848558839</v>
       </c>
       <c r="B138" t="n">
-        <v>9.89465511219036</v>
+        <v>9.94184015341742</v>
       </c>
       <c r="C138" t="n">
-        <v>12.1816237254185</v>
+        <v>12.0274391313412</v>
       </c>
       <c r="D138" t="n">
-        <v>13.7227142497529</v>
+        <v>12.879076531461</v>
       </c>
       <c r="E138" t="n">
-        <v>12.7144467692046</v>
+        <v>13.3344777010375</v>
       </c>
       <c r="F138" t="n">
-        <v>13.4409443910213</v>
+        <v>14.5236250631111</v>
       </c>
       <c r="G138" t="n">
-        <v>16.8813007902489</v>
+        <v>16.1039235854789</v>
       </c>
       <c r="H138" t="n">
-        <v>17.4039154124412</v>
+        <v>17.6420808414119</v>
       </c>
       <c r="I138" t="n">
-        <v>17.5678936569586</v>
+        <v>18.0053558283044</v>
       </c>
       <c r="J138" t="n">
-        <v>18.0316715917091</v>
+        <v>19.0519475098123</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>10.5625413329885</v>
+        <v>9.87951302546235</v>
       </c>
       <c r="B139" t="n">
-        <v>10.3293522103158</v>
+        <v>12.1943172794407</v>
       </c>
       <c r="C139" t="n">
-        <v>12.2693968139642</v>
+        <v>11.9640362575226</v>
       </c>
       <c r="D139" t="n">
-        <v>12.0474523023776</v>
+        <v>12.5501034608042</v>
       </c>
       <c r="E139" t="n">
-        <v>14.1460589932904</v>
+        <v>14.864327858576</v>
       </c>
       <c r="F139" t="n">
-        <v>14.4772936347293</v>
+        <v>14.8701849167104</v>
       </c>
       <c r="G139" t="n">
-        <v>15.7663050232137</v>
+        <v>15.9512286711241</v>
       </c>
       <c r="H139" t="n">
-        <v>16.5316121298755</v>
+        <v>-8.74923280987521</v>
       </c>
       <c r="I139" t="n">
-        <v>18.3005754741126</v>
+        <v>-8.67367384331375</v>
       </c>
       <c r="J139" t="n">
-        <v>19.1748906546349</v>
+        <v>-9.64594463992789</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>9.37351310837087</v>
+        <v>-4.89440640024768</v>
       </c>
       <c r="B140" t="n">
-        <v>11.266579036114</v>
+        <v>-5.58683146897701</v>
       </c>
       <c r="C140" t="n">
-        <v>11.6177168196467</v>
+        <v>-5.37491304263904</v>
       </c>
       <c r="D140" t="n">
-        <v>11.8944185086112</v>
+        <v>-6.59919603813915</v>
       </c>
       <c r="E140" t="n">
-        <v>13.5354263398303</v>
+        <v>-6.86428575917999</v>
       </c>
       <c r="F140" t="n">
-        <v>15.5072467045816</v>
+        <v>-7.49883375363407</v>
       </c>
       <c r="G140" t="n">
-        <v>16.3362148076912</v>
+        <v>-7.84691320588172</v>
       </c>
       <c r="H140" t="n">
-        <v>17.4434091052714</v>
+        <v>-8.51710549775202</v>
       </c>
       <c r="I140" t="n">
-        <v>19.1683772117334</v>
+        <v>-9.03866054285927</v>
       </c>
       <c r="J140" t="n">
-        <v>-9.53723625573658</v>
+        <v>-9.35114401816557</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>9.30379095172327</v>
+        <v>9.87411751021418</v>
       </c>
       <c r="B141" t="n">
-        <v>10.4265489958128</v>
+        <v>11.0163811217913</v>
       </c>
       <c r="C141" t="n">
-        <v>11.6165176807703</v>
+        <v>12.4749996076605</v>
       </c>
       <c r="D141" t="n">
-        <v>12.9692246873746</v>
+        <v>-6.52972013936664</v>
       </c>
       <c r="E141" t="n">
-        <v>-7.16420378481448</v>
+        <v>-6.85622174842128</v>
       </c>
       <c r="F141" t="n">
-        <v>-7.45735071949368</v>
+        <v>-7.43612766794988</v>
       </c>
       <c r="G141" t="n">
-        <v>-8.00741691390057</v>
+        <v>-7.95025969567836</v>
       </c>
       <c r="H141" t="n">
-        <v>-8.65831515567749</v>
+        <v>-8.53002065365125</v>
       </c>
       <c r="I141" t="n">
-        <v>-9.25880001102981</v>
+        <v>-9.22559491473075</v>
       </c>
       <c r="J141" t="n">
-        <v>-9.99693424346869</v>
+        <v>-9.59328260036112</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>8.73576673068574</v>
+        <v>9.4957342772429</v>
       </c>
       <c r="B142" t="n">
-        <v>10.4815836790793</v>
+        <v>11.1055498228284</v>
       </c>
       <c r="C142" t="n">
-        <v>11.8137081935989</v>
+        <v>12.8322246271915</v>
       </c>
       <c r="D142" t="n">
-        <v>13.124732356594</v>
+        <v>13.6379201253098</v>
       </c>
       <c r="E142" t="n">
-        <v>12.6395265637326</v>
+        <v>13.5532982784669</v>
       </c>
       <c r="F142" t="n">
-        <v>14.5055120936967</v>
+        <v>15.1858485211977</v>
       </c>
       <c r="G142" t="n">
-        <v>16.4659884657027</v>
+        <v>17.230399478257</v>
       </c>
       <c r="H142" t="n">
-        <v>16.8916473190137</v>
+        <v>17.6911190106595</v>
       </c>
       <c r="I142" t="n">
-        <v>17.4809855873557</v>
+        <v>17.2140776223725</v>
       </c>
       <c r="J142" t="n">
-        <v>18.3189436927643</v>
+        <v>-9.70900811374511</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="n">
-        <v>9.25812001444952</v>
+        <v>10.3029254230084</v>
       </c>
       <c r="B143" t="n">
-        <v>10.9177783432819</v>
+        <v>11.1132488567504</v>
       </c>
       <c r="C143" t="n">
-        <v>14.2564051240551</v>
+        <v>12.3918914401447</v>
       </c>
       <c r="D143" t="n">
-        <v>12.4523870661588</v>
+        <v>12.8401198954835</v>
       </c>
       <c r="E143" t="n">
-        <v>13.7493439742607</v>
+        <v>14.4314283119469</v>
       </c>
       <c r="F143" t="n">
-        <v>15.5025615777271</v>
+        <v>14.4857042929697</v>
       </c>
       <c r="G143" t="n">
-        <v>15.9835431628747</v>
+        <v>15.9979106163462</v>
       </c>
       <c r="H143" t="n">
-        <v>15.8889195103724</v>
+        <v>16.9073381842844</v>
       </c>
       <c r="I143" t="n">
-        <v>17.0568350090101</v>
+        <v>16.6923516425644</v>
       </c>
       <c r="J143" t="n">
-        <v>18.362046226723</v>
+        <v>18.263502713615</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="n">
-        <v>9.71857280881644</v>
+        <v>-4.9668720937318</v>
       </c>
       <c r="B144" t="n">
-        <v>11.2781173165499</v>
+        <v>-5.64316318927305</v>
       </c>
       <c r="C144" t="n">
-        <v>12.2213801423242</v>
+        <v>-6.20320129051781</v>
       </c>
       <c r="D144" t="n">
-        <v>13.2366744244806</v>
+        <v>-6.43550215772899</v>
       </c>
       <c r="E144" t="n">
-        <v>13.5688412736935</v>
+        <v>-6.84487854424387</v>
       </c>
       <c r="F144" t="n">
-        <v>14.1222441916427</v>
+        <v>-7.72750582439028</v>
       </c>
       <c r="G144" t="n">
-        <v>16.6122762335058</v>
+        <v>-8.01161181853707</v>
       </c>
       <c r="H144" t="n">
-        <v>17.6761464127984</v>
+        <v>-9.17956260788401</v>
       </c>
       <c r="I144" t="n">
-        <v>17.9957620553146</v>
+        <v>-8.9391788905589</v>
       </c>
       <c r="J144" t="n">
-        <v>18.0073260220838</v>
+        <v>-9.76657170748346</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="n">
-        <v>-4.81580898168094</v>
+        <v>8.22689832532335</v>
       </c>
       <c r="B145" t="n">
-        <v>-5.82554416842987</v>
+        <v>10.7676232942711</v>
       </c>
       <c r="C145" t="n">
-        <v>-5.84781139632818</v>
+        <v>13.0380090721386</v>
       </c>
       <c r="D145" t="n">
-        <v>-6.6437695314093</v>
+        <v>13.0188763891375</v>
       </c>
       <c r="E145" t="n">
-        <v>-6.78710001418183</v>
+        <v>13.9700734236418</v>
       </c>
       <c r="F145" t="n">
-        <v>-7.34292689574965</v>
+        <v>13.9273972794401</v>
       </c>
       <c r="G145" t="n">
-        <v>-8.15325097289579</v>
+        <v>16.1490832055534</v>
       </c>
       <c r="H145" t="n">
-        <v>-8.4758747525336</v>
+        <v>17.6644462684486</v>
       </c>
       <c r="I145" t="n">
-        <v>-9.20389590740324</v>
+        <v>18.7668952949996</v>
       </c>
       <c r="J145" t="n">
-        <v>-9.87960941283864</v>
+        <v>20.5772907138822</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="n">
-        <v>9.42913600538973</v>
+        <v>-5.4658963240649</v>
       </c>
       <c r="B146" t="n">
-        <v>11.1084582946825</v>
+        <v>-5.1648156194512</v>
       </c>
       <c r="C146" t="n">
-        <v>11.3546182971256</v>
+        <v>-6.29762613597698</v>
       </c>
       <c r="D146" t="n">
-        <v>-6.99374596846456</v>
+        <v>-6.72387421922018</v>
       </c>
       <c r="E146" t="n">
-        <v>-7.08766582873199</v>
+        <v>-7.07385342493865</v>
       </c>
       <c r="F146" t="n">
-        <v>-7.03940703271648</v>
+        <v>-7.71202431040503</v>
       </c>
       <c r="G146" t="n">
-        <v>-7.82971138513835</v>
+        <v>-7.94110015459462</v>
       </c>
       <c r="H146" t="n">
-        <v>-8.70751058838522</v>
+        <v>-8.09329421505193</v>
       </c>
       <c r="I146" t="n">
-        <v>-8.73460160452155</v>
+        <v>-9.02627842615282</v>
       </c>
       <c r="J146" t="n">
-        <v>-9.64979767662329</v>
+        <v>-9.59784698054549</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="n">
-        <v>10.671828300938</v>
+        <v>10.0822830726036</v>
       </c>
       <c r="B147" t="n">
-        <v>-5.50288714738455</v>
+        <v>11.4719768043068</v>
       </c>
       <c r="C147" t="n">
-        <v>-6.0096517325461</v>
+        <v>12.3699573204593</v>
       </c>
       <c r="D147" t="n">
-        <v>-6.71544575756876</v>
+        <v>13.0070193288842</v>
       </c>
       <c r="E147" t="n">
-        <v>-6.80847515530273</v>
+        <v>13.5664507779084</v>
       </c>
       <c r="F147" t="n">
-        <v>-7.6130955999532</v>
+        <v>15.6571264626396</v>
       </c>
       <c r="G147" t="n">
-        <v>-8.03946152041926</v>
+        <v>16.1138277424892</v>
       </c>
       <c r="H147" t="n">
-        <v>-8.55063175503354</v>
+        <v>16.3789511542556</v>
       </c>
       <c r="I147" t="n">
-        <v>-8.90039084008003</v>
+        <v>17.7672290420615</v>
       </c>
       <c r="J147" t="n">
-        <v>-9.38986497727402</v>
+        <v>17.702387053875</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="n">
-        <v>10.0035949538119</v>
+        <v>8.77721104507759</v>
       </c>
       <c r="B148" t="n">
-        <v>11.3774107580889</v>
+        <v>11.4672009659659</v>
       </c>
       <c r="C148" t="n">
-        <v>10.9213757386464</v>
+        <v>12.9553031355911</v>
       </c>
       <c r="D148" t="n">
-        <v>12.6682324987731</v>
+        <v>13.6812816154688</v>
       </c>
       <c r="E148" t="n">
-        <v>13.0392631940286</v>
+        <v>14.0866004562185</v>
       </c>
       <c r="F148" t="n">
-        <v>15.0598514089317</v>
+        <v>14.4208695600478</v>
       </c>
       <c r="G148" t="n">
-        <v>17.150770343332</v>
+        <v>15.1276705513453</v>
       </c>
       <c r="H148" t="n">
-        <v>16.7304414077569</v>
+        <v>17.9545183837628</v>
       </c>
       <c r="I148" t="n">
-        <v>17.8716395659834</v>
+        <v>16.5402211693708</v>
       </c>
       <c r="J148" t="n">
-        <v>18.8507149355619</v>
+        <v>19.4158856393503</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>-5.10177472344788</v>
+        <v>9.75142114318563</v>
       </c>
       <c r="B149" t="n">
-        <v>-5.66897510155489</v>
+        <v>11.2687237401296</v>
       </c>
       <c r="C149" t="n">
-        <v>-5.70975636584048</v>
+        <v>11.2329019887663</v>
       </c>
       <c r="D149" t="n">
-        <v>-6.39800005438278</v>
+        <v>12.8884315130297</v>
       </c>
       <c r="E149" t="n">
-        <v>-6.64256292088451</v>
+        <v>14.2899440486959</v>
       </c>
       <c r="F149" t="n">
-        <v>-8.03828179385832</v>
+        <v>16.1566034802896</v>
       </c>
       <c r="G149" t="n">
-        <v>-7.84961926617695</v>
+        <v>15.3990294240095</v>
       </c>
       <c r="H149" t="n">
-        <v>-8.55555508488571</v>
+        <v>16.9371229618322</v>
       </c>
       <c r="I149" t="n">
-        <v>-8.84585999743508</v>
+        <v>18.4265907661144</v>
       </c>
       <c r="J149" t="n">
-        <v>-9.53861520841858</v>
+        <v>17.8511850308354</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="n">
-        <v>10.131756691962</v>
+        <v>-4.43317464728037</v>
       </c>
       <c r="B150" t="n">
-        <v>10.9404623851558</v>
+        <v>-5.90376159416614</v>
       </c>
       <c r="C150" t="n">
-        <v>10.7838977361892</v>
+        <v>-5.50872202137309</v>
       </c>
       <c r="D150" t="n">
-        <v>13.9020953193294</v>
+        <v>-6.48474859023772</v>
       </c>
       <c r="E150" t="n">
-        <v>13.8571741825036</v>
+        <v>-6.79771979997455</v>
       </c>
       <c r="F150" t="n">
-        <v>15.6734903723104</v>
+        <v>-7.72575736536498</v>
       </c>
       <c r="G150" t="n">
-        <v>17.6453086730799</v>
+        <v>16.3142529499792</v>
       </c>
       <c r="H150" t="n">
-        <v>16.8453855227792</v>
+        <v>16.3669738823985</v>
       </c>
       <c r="I150" t="n">
-        <v>17.3687986409456</v>
+        <v>18.0217321215559</v>
       </c>
       <c r="J150" t="n">
-        <v>18.6863440993135</v>
+        <v>18.7474088455911</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="n">
-        <v>10.0463306542369</v>
+        <v>9.45638875294152</v>
       </c>
       <c r="B151" t="n">
-        <v>11.0757640719433</v>
+        <v>12.1093877493546</v>
       </c>
       <c r="C151" t="n">
-        <v>11.5664639322463</v>
+        <v>10.1248206425823</v>
       </c>
       <c r="D151" t="n">
-        <v>12.3227135345586</v>
+        <v>-6.51035323613606</v>
       </c>
       <c r="E151" t="n">
-        <v>12.5516069261936</v>
+        <v>-6.84525136061731</v>
       </c>
       <c r="F151" t="n">
-        <v>-7.66103466454545</v>
+        <v>-7.60786082486149</v>
       </c>
       <c r="G151" t="n">
-        <v>-8.07801957123339</v>
+        <v>-7.96026691436329</v>
       </c>
       <c r="H151" t="n">
-        <v>-8.38093281903909</v>
+        <v>-8.73229068066164</v>
       </c>
       <c r="I151" t="n">
-        <v>-9.04240037620588</v>
+        <v>-9.12696617918547</v>
       </c>
       <c r="J151" t="n">
-        <v>-9.24645314604835</v>
+        <v>-9.1329107748679</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="n">
-        <v>11.2491262598789</v>
+        <v>-5.0026162378236</v>
       </c>
       <c r="B152" t="n">
-        <v>12.0591971837655</v>
+        <v>-5.2181389277655</v>
       </c>
       <c r="C152" t="n">
-        <v>10.6376900269019</v>
+        <v>-5.58040778888535</v>
       </c>
       <c r="D152" t="n">
-        <v>12.4288445310337</v>
+        <v>-6.30574969067654</v>
       </c>
       <c r="E152" t="n">
-        <v>13.606185694858</v>
+        <v>-7.14577346705657</v>
       </c>
       <c r="F152" t="n">
-        <v>15.1677934615548</v>
+        <v>-7.12598576760776</v>
       </c>
       <c r="G152" t="n">
-        <v>15.9120021068016</v>
+        <v>-8.39505969811977</v>
       </c>
       <c r="H152" t="n">
-        <v>17.3463326092671</v>
+        <v>-8.58012716708438</v>
       </c>
       <c r="I152" t="n">
-        <v>18.0609427301866</v>
+        <v>-8.90435839619224</v>
       </c>
       <c r="J152" t="n">
-        <v>18.7779458082666</v>
+        <v>-9.32239267933006</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="n">
-        <v>-4.73167282990146</v>
+        <v>10.3186838225594</v>
       </c>
       <c r="B153" t="n">
-        <v>-5.69910285057095</v>
+        <v>12.2099380464493</v>
       </c>
       <c r="C153" t="n">
-        <v>-5.57910757542563</v>
+        <v>12.1375968680053</v>
       </c>
       <c r="D153" t="n">
-        <v>-6.71417291207008</v>
+        <v>12.3964447674967</v>
       </c>
       <c r="E153" t="n">
-        <v>-6.86348924023289</v>
+        <v>14.1366875239101</v>
       </c>
       <c r="F153" t="n">
-        <v>-7.78430651230105</v>
+        <v>15.8582865450989</v>
       </c>
       <c r="G153" t="n">
-        <v>-7.66724411071772</v>
+        <v>-8.10434608610952</v>
       </c>
       <c r="H153" t="n">
-        <v>-8.48316410589739</v>
+        <v>-8.51965727250425</v>
       </c>
       <c r="I153" t="n">
-        <v>-8.48383809458866</v>
+        <v>-8.85503808246397</v>
       </c>
       <c r="J153" t="n">
-        <v>-9.70396424175583</v>
+        <v>-9.46291194850257</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="n">
-        <v>-5.14573476519266</v>
+        <v>11.6409124099165</v>
       </c>
       <c r="B154" t="n">
-        <v>-5.75016948385447</v>
+        <v>10.3678581827192</v>
       </c>
       <c r="C154" t="n">
-        <v>-6.20453921594302</v>
+        <v>-5.96953432749388</v>
       </c>
       <c r="D154" t="n">
-        <v>-6.34660843749158</v>
+        <v>-6.72882018036318</v>
       </c>
       <c r="E154" t="n">
-        <v>-6.67177162665515</v>
+        <v>-7.30809179617251</v>
       </c>
       <c r="F154" t="n">
-        <v>-7.68625349841998</v>
+        <v>-7.86359936195814</v>
       </c>
       <c r="G154" t="n">
-        <v>-7.70765740024602</v>
+        <v>-7.85632172967414</v>
       </c>
       <c r="H154" t="n">
-        <v>-8.41108718531212</v>
+        <v>-8.29000130064299</v>
       </c>
       <c r="I154" t="n">
-        <v>-9.28243519797434</v>
+        <v>-9.23542947475477</v>
       </c>
       <c r="J154" t="n">
-        <v>-9.2784497639424</v>
+        <v>-9.59470424857581</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="n">
-        <v>9.67445505875855</v>
+        <v>-4.96573028671599</v>
       </c>
       <c r="B155" t="n">
-        <v>10.4148450971777</v>
+        <v>-5.30145468251419</v>
       </c>
       <c r="C155" t="n">
-        <v>13.0234477465171</v>
+        <v>-6.00512745366746</v>
       </c>
       <c r="D155" t="n">
-        <v>11.976677459808</v>
+        <v>-6.75852750026035</v>
       </c>
       <c r="E155" t="n">
-        <v>14.2761546616431</v>
+        <v>-7.05110432361394</v>
       </c>
       <c r="F155" t="n">
-        <v>-7.27499266486583</v>
+        <v>-7.67488237011397</v>
       </c>
       <c r="G155" t="n">
-        <v>-7.9662771278738</v>
+        <v>-7.60262561392267</v>
       </c>
       <c r="H155" t="n">
-        <v>-8.41779857955005</v>
+        <v>-8.76756988771138</v>
       </c>
       <c r="I155" t="n">
-        <v>-9.11143856678775</v>
+        <v>-8.66020904747849</v>
       </c>
       <c r="J155" t="n">
-        <v>-9.82604937845275</v>
+        <v>-9.27018752651059</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="n">
-        <v>10.2417296538971</v>
+        <v>10.358767152829</v>
       </c>
       <c r="B156" t="n">
-        <v>10.9482807962262</v>
+        <v>11.3952540946661</v>
       </c>
       <c r="C156" t="n">
-        <v>11.894356017842</v>
+        <v>-6.37592764084408</v>
       </c>
       <c r="D156" t="n">
-        <v>13.4472515084905</v>
+        <v>-6.50676318629295</v>
       </c>
       <c r="E156" t="n">
-        <v>13.508736193727</v>
+        <v>-7.50256354478398</v>
       </c>
       <c r="F156" t="n">
-        <v>15.6283422330331</v>
+        <v>-7.19968180566418</v>
       </c>
       <c r="G156" t="n">
-        <v>16.1393102478111</v>
+        <v>-7.67760165194019</v>
       </c>
       <c r="H156" t="n">
-        <v>17.9516237472496</v>
+        <v>-8.57674756447306</v>
       </c>
       <c r="I156" t="n">
-        <v>18.222421229183</v>
+        <v>-8.82210721784625</v>
       </c>
       <c r="J156" t="n">
-        <v>19.3770518733813</v>
+        <v>-9.15144782015063</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>11.0847999138505</v>
+        <v>10.1466532468659</v>
       </c>
       <c r="B157" t="n">
-        <v>10.7132894166731</v>
+        <v>12.0742135812299</v>
       </c>
       <c r="C157" t="n">
-        <v>12.3030360961649</v>
+        <v>12.6140190020543</v>
       </c>
       <c r="D157" t="n">
-        <v>12.9549131690895</v>
+        <v>12.7241517554275</v>
       </c>
       <c r="E157" t="n">
-        <v>14.0413441980291</v>
+        <v>13.1900560246484</v>
       </c>
       <c r="F157" t="n">
-        <v>14.6058430139759</v>
+        <v>15.0865755350454</v>
       </c>
       <c r="G157" t="n">
-        <v>15.6885865015178</v>
+        <v>-7.74178409084156</v>
       </c>
       <c r="H157" t="n">
-        <v>16.1296158927151</v>
+        <v>-8.39729118169879</v>
       </c>
       <c r="I157" t="n">
-        <v>16.9343858201737</v>
+        <v>-9.11673267792617</v>
       </c>
       <c r="J157" t="n">
-        <v>18.360299443972</v>
+        <v>-9.18862916641231</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="n">
-        <v>10.9053027144038</v>
+        <v>9.02436186859692</v>
       </c>
       <c r="B158" t="n">
-        <v>10.9169779816546</v>
+        <v>11.3355823791807</v>
       </c>
       <c r="C158" t="n">
-        <v>11.7386626562108</v>
+        <v>12.7742543859574</v>
       </c>
       <c r="D158" t="n">
-        <v>-6.32042175533815</v>
+        <v>13.4078512862765</v>
       </c>
       <c r="E158" t="n">
-        <v>-7.28379677071264</v>
+        <v>13.6429816593887</v>
       </c>
       <c r="F158" t="n">
-        <v>-7.55889726279746</v>
+        <v>-7.4794101826265</v>
       </c>
       <c r="G158" t="n">
-        <v>-8.07833750862905</v>
+        <v>-7.73279100100987</v>
       </c>
       <c r="H158" t="n">
-        <v>-7.84452368998792</v>
+        <v>-8.69685691023569</v>
       </c>
       <c r="I158" t="n">
-        <v>-9.08029679930601</v>
+        <v>-9.32954677521386</v>
       </c>
       <c r="J158" t="n">
-        <v>-9.71751654875365</v>
+        <v>-9.68806874015945</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="n">
-        <v>9.45007924933847</v>
+        <v>10.7123232877399</v>
       </c>
       <c r="B159" t="n">
-        <v>10.3394909893181</v>
+        <v>10.2715631089968</v>
       </c>
       <c r="C159" t="n">
-        <v>12.1862055241345</v>
+        <v>11.2258889512779</v>
       </c>
       <c r="D159" t="n">
-        <v>13.3807046118345</v>
+        <v>12.1418190148118</v>
       </c>
       <c r="E159" t="n">
-        <v>14.9024396411063</v>
+        <v>13.2945902772225</v>
       </c>
       <c r="F159" t="n">
-        <v>15.7365410410623</v>
+        <v>16.1795768279945</v>
       </c>
       <c r="G159" t="n">
-        <v>15.9932177998943</v>
+        <v>15.7635070458553</v>
       </c>
       <c r="H159" t="n">
-        <v>17.3235437719445</v>
+        <v>16.5776280559696</v>
       </c>
       <c r="I159" t="n">
-        <v>17.9708105877888</v>
+        <v>17.1241462168987</v>
       </c>
       <c r="J159" t="n">
-        <v>18.7488376989206</v>
+        <v>19.8379177561047</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>-5.23755339479878</v>
+        <v>9.5179376669036</v>
       </c>
       <c r="B160" t="n">
-        <v>11.153234932125</v>
+        <v>10.2901639724073</v>
       </c>
       <c r="C160" t="n">
-        <v>11.8185153300152</v>
+        <v>11.1046579140256</v>
       </c>
       <c r="D160" t="n">
-        <v>10.8044392834372</v>
+        <v>13.3786702572547</v>
       </c>
       <c r="E160" t="n">
-        <v>14.0165289333273</v>
+        <v>12.6870410462235</v>
       </c>
       <c r="F160" t="n">
-        <v>16.7214666526553</v>
+        <v>14.2273321227706</v>
       </c>
       <c r="G160" t="n">
-        <v>15.9040704034059</v>
+        <v>16.2004965664042</v>
       </c>
       <c r="H160" t="n">
-        <v>17.2206986143203</v>
+        <v>17.8049406519118</v>
       </c>
       <c r="I160" t="n">
-        <v>-8.74175651185197</v>
+        <v>-9.05968388272371</v>
       </c>
       <c r="J160" t="n">
-        <v>-9.58484893600013</v>
+        <v>-9.32269614741624</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="n">
-        <v>10.3089656234833</v>
+        <v>10.6200634567311</v>
       </c>
       <c r="B161" t="n">
-        <v>10.209832981808</v>
+        <v>11.9271111167234</v>
       </c>
       <c r="C161" t="n">
-        <v>11.7663060190498</v>
+        <v>11.7254562499756</v>
       </c>
       <c r="D161" t="n">
-        <v>12.5930028251723</v>
+        <v>12.0430426331406</v>
       </c>
       <c r="E161" t="n">
-        <v>14.1373154471167</v>
+        <v>14.7040353317763</v>
       </c>
       <c r="F161" t="n">
-        <v>13.8029313623461</v>
+        <v>14.9650714096067</v>
       </c>
       <c r="G161" t="n">
-        <v>17.0147366414785</v>
+        <v>16.6396356836343</v>
       </c>
       <c r="H161" t="n">
-        <v>15.6022445359321</v>
+        <v>16.9301016336136</v>
       </c>
       <c r="I161" t="n">
-        <v>18.8768636627917</v>
+        <v>18.4233030617111</v>
       </c>
       <c r="J161" t="n">
-        <v>19.8278958871592</v>
+        <v>19.754839342278</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="n">
-        <v>8.85597952648204</v>
+        <v>10.3207040518707</v>
       </c>
       <c r="B162" t="n">
-        <v>11.0247811541433</v>
+        <v>10.1269812999753</v>
       </c>
       <c r="C162" t="n">
-        <v>11.4287798458889</v>
+        <v>12.1678030316415</v>
       </c>
       <c r="D162" t="n">
-        <v>12.3977864493072</v>
+        <v>12.9600916390287</v>
       </c>
       <c r="E162" t="n">
-        <v>13.3149116156593</v>
+        <v>13.1620939814295</v>
       </c>
       <c r="F162" t="n">
-        <v>15.9881070794224</v>
+        <v>16.4253146231753</v>
       </c>
       <c r="G162" t="n">
-        <v>14.936498088685</v>
+        <v>16.74496903259</v>
       </c>
       <c r="H162" t="n">
-        <v>16.8020222975392</v>
+        <v>16.7067899745545</v>
       </c>
       <c r="I162" t="n">
-        <v>17.3785291464814</v>
+        <v>17.1229559394678</v>
       </c>
       <c r="J162" t="n">
-        <v>19.2564615597977</v>
+        <v>19.571186794895</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="n">
-        <v>10.2668605984818</v>
+        <v>10.7101602371322</v>
       </c>
       <c r="B163" t="n">
-        <v>10.0343848693636</v>
+        <v>11.7973395551556</v>
       </c>
       <c r="C163" t="n">
-        <v>10.9274412212062</v>
+        <v>12.1961605156597</v>
       </c>
       <c r="D163" t="n">
-        <v>11.5834394167637</v>
+        <v>13.202416502016</v>
       </c>
       <c r="E163" t="n">
-        <v>14.7309388620095</v>
+        <v>13.6645831434721</v>
       </c>
       <c r="F163" t="n">
-        <v>15.2266112661189</v>
+        <v>14.8720444993503</v>
       </c>
       <c r="G163" t="n">
-        <v>15.2413680314113</v>
+        <v>15.5264728689483</v>
       </c>
       <c r="H163" t="n">
-        <v>-8.71588040284423</v>
+        <v>-8.60906620961604</v>
       </c>
       <c r="I163" t="n">
-        <v>-9.10184386701077</v>
+        <v>-9.21517512097567</v>
       </c>
       <c r="J163" t="n">
-        <v>-10.0463693332562</v>
+        <v>-9.27844159483387</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>10.2075197676118</v>
+        <v>9.85319642525032</v>
       </c>
       <c r="B164" t="n">
-        <v>11.6981599618456</v>
+        <v>9.79338058833146</v>
       </c>
       <c r="C164" t="n">
-        <v>12.0710652533844</v>
+        <v>12.5591662129549</v>
       </c>
       <c r="D164" t="n">
-        <v>13.8151094411245</v>
+        <v>12.7919832248594</v>
       </c>
       <c r="E164" t="n">
-        <v>15.4465905995943</v>
+        <v>13.096597747323</v>
       </c>
       <c r="F164" t="n">
-        <v>15.2459327148028</v>
+        <v>15.2614342023956</v>
       </c>
       <c r="G164" t="n">
-        <v>16.2903649433469</v>
+        <v>17.5712998898789</v>
       </c>
       <c r="H164" t="n">
-        <v>16.8539346813043</v>
+        <v>17.951877714609</v>
       </c>
       <c r="I164" t="n">
-        <v>18.4395022145438</v>
+        <v>17.5699203115204</v>
       </c>
       <c r="J164" t="n">
-        <v>19.4652497079234</v>
+        <v>19.7007988804655</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>10.6620255382288</v>
+        <v>9.56926223696463</v>
       </c>
       <c r="B165" t="n">
-        <v>10.1778308958563</v>
+        <v>9.73407234534961</v>
       </c>
       <c r="C165" t="n">
-        <v>12.8129786509518</v>
+        <v>12.1579312183303</v>
       </c>
       <c r="D165" t="n">
-        <v>14.0825072710137</v>
+        <v>12.4114045692079</v>
       </c>
       <c r="E165" t="n">
-        <v>15.4685503451344</v>
+        <v>14.5019445577641</v>
       </c>
       <c r="F165" t="n">
-        <v>15.0199847779813</v>
+        <v>17.4173480196063</v>
       </c>
       <c r="G165" t="n">
-        <v>15.6286158008057</v>
+        <v>16.8149816290894</v>
       </c>
       <c r="H165" t="n">
-        <v>17.9921201442221</v>
+        <v>17.4503102545825</v>
       </c>
       <c r="I165" t="n">
-        <v>18.529901671924</v>
+        <v>19.439547471102</v>
       </c>
       <c r="J165" t="n">
-        <v>-9.50646553707068</v>
+        <v>18.2161217802859</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="n">
-        <v>9.72215479501804</v>
+        <v>-4.79208687280068</v>
       </c>
       <c r="B166" t="n">
-        <v>10.9504316359939</v>
+        <v>-5.76311386204092</v>
       </c>
       <c r="C166" t="n">
-        <v>13.2225796271162</v>
+        <v>-5.69410780756127</v>
       </c>
       <c r="D166" t="n">
-        <v>12.6700670813159</v>
+        <v>-6.38244417920472</v>
       </c>
       <c r="E166" t="n">
-        <v>14.6815880152776</v>
+        <v>-6.78209495270053</v>
       </c>
       <c r="F166" t="n">
-        <v>14.1998646371068</v>
+        <v>-7.11399665972925</v>
       </c>
       <c r="G166" t="n">
-        <v>15.7717579568558</v>
+        <v>-7.70065182872954</v>
       </c>
       <c r="H166" t="n">
-        <v>17.4815216659751</v>
+        <v>-8.61750459209646</v>
       </c>
       <c r="I166" t="n">
-        <v>18.2122198460944</v>
+        <v>-9.24658199746032</v>
       </c>
       <c r="J166" t="n">
-        <v>18.8565027548612</v>
+        <v>-9.46052072227895</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="n">
-        <v>10.1476352718351</v>
+        <v>10.1555428347882</v>
       </c>
       <c r="B167" t="n">
-        <v>10.1309056593691</v>
+        <v>11.2602406087398</v>
       </c>
       <c r="C167" t="n">
-        <v>-6.36609945899215</v>
+        <v>12.1071842732529</v>
       </c>
       <c r="D167" t="n">
-        <v>-6.38298125925759</v>
+        <v>12.8189108156974</v>
       </c>
       <c r="E167" t="n">
-        <v>-6.95599286497528</v>
+        <v>13.1844973035433</v>
       </c>
       <c r="F167" t="n">
-        <v>-7.46036130276376</v>
+        <v>14.9204134067657</v>
       </c>
       <c r="G167" t="n">
-        <v>-8.51814613181195</v>
+        <v>15.8207928627178</v>
       </c>
       <c r="H167" t="n">
-        <v>-8.13942602766778</v>
+        <v>16.4853050634835</v>
       </c>
       <c r="I167" t="n">
-        <v>-9.32657877573708</v>
+        <v>19.4774140776291</v>
       </c>
       <c r="J167" t="n">
-        <v>-9.6890017954042</v>
+        <v>19.6336517835752</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="n">
-        <v>10.9478992764036</v>
+        <v>9.61721931945764</v>
       </c>
       <c r="B168" t="n">
-        <v>10.5896372669848</v>
+        <v>12.1228516613698</v>
       </c>
       <c r="C168" t="n">
-        <v>10.915962487321</v>
+        <v>11.71394112179</v>
       </c>
       <c r="D168" t="n">
-        <v>12.6815814410465</v>
+        <v>13.3407416046955</v>
       </c>
       <c r="E168" t="n">
-        <v>14.430974824476</v>
+        <v>15.2237244716327</v>
       </c>
       <c r="F168" t="n">
-        <v>15.4143576142397</v>
+        <v>14.2972804282477</v>
       </c>
       <c r="G168" t="n">
-        <v>-8.18584879267291</v>
+        <v>16.5626041044917</v>
       </c>
       <c r="H168" t="n">
-        <v>-8.29072058647878</v>
+        <v>-8.42536308441044</v>
       </c>
       <c r="I168" t="n">
-        <v>18.1740639165903</v>
+        <v>-9.3897328436375</v>
       </c>
       <c r="J168" t="n">
-        <v>18.4995351061422</v>
+        <v>-9.5219289648402</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="n">
-        <v>-5.16121901935281</v>
+        <v>10.4158696211879</v>
       </c>
       <c r="B169" t="n">
-        <v>-5.54521763020055</v>
+        <v>10.1145130157495</v>
       </c>
       <c r="C169" t="n">
-        <v>-6.67403112222722</v>
+        <v>12.2459301825521</v>
       </c>
       <c r="D169" t="n">
-        <v>-6.45052649991553</v>
+        <v>12.6261890150276</v>
       </c>
       <c r="E169" t="n">
-        <v>-7.06337076816988</v>
+        <v>13.6414618350848</v>
       </c>
       <c r="F169" t="n">
-        <v>-7.37214621379554</v>
+        <v>13.5903881058015</v>
       </c>
       <c r="G169" t="n">
-        <v>-7.89005363549015</v>
+        <v>-7.93506286509198</v>
       </c>
       <c r="H169" t="n">
-        <v>-8.61051810375963</v>
+        <v>-8.34174513036452</v>
       </c>
       <c r="I169" t="n">
-        <v>-8.86669393235494</v>
+        <v>-8.95004313979293</v>
       </c>
       <c r="J169" t="n">
-        <v>-9.66955642715607</v>
+        <v>-9.67874303137874</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="n">
-        <v>-5.25097069689278</v>
+        <v>9.09207820903482</v>
       </c>
       <c r="B170" t="n">
-        <v>-5.29057324883587</v>
+        <v>10.3105773699985</v>
       </c>
       <c r="C170" t="n">
-        <v>-5.97296422253063</v>
+        <v>10.3851541581745</v>
       </c>
       <c r="D170" t="n">
-        <v>-6.3477875688149</v>
+        <v>14.4500050349124</v>
       </c>
       <c r="E170" t="n">
-        <v>-7.14016628747112</v>
+        <v>14.0324871693647</v>
       </c>
       <c r="F170" t="n">
-        <v>-7.6315590459971</v>
+        <v>14.7185449307676</v>
       </c>
       <c r="G170" t="n">
-        <v>-7.45550953176923</v>
+        <v>16.0486865764843</v>
       </c>
       <c r="H170" t="n">
-        <v>-8.64436847208274</v>
+        <v>-8.23283657154139</v>
       </c>
       <c r="I170" t="n">
-        <v>-9.17671958039163</v>
+        <v>-8.79856427888761</v>
       </c>
       <c r="J170" t="n">
-        <v>-9.62449202792242</v>
+        <v>-9.94116653768987</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="n">
-        <v>10.6246502835505</v>
+        <v>10.5375102631088</v>
       </c>
       <c r="B171" t="n">
-        <v>11.3701625741566</v>
+        <v>10.2410085072903</v>
       </c>
       <c r="C171" t="n">
-        <v>12.1815547890523</v>
+        <v>12.160596591307</v>
       </c>
       <c r="D171" t="n">
-        <v>12.6665686190099</v>
+        <v>13.4761723369716</v>
       </c>
       <c r="E171" t="n">
-        <v>15.0849251740262</v>
+        <v>14.0713391386469</v>
       </c>
       <c r="F171" t="n">
-        <v>14.8657554558918</v>
+        <v>15.260711568813</v>
       </c>
       <c r="G171" t="n">
-        <v>17.1177345085934</v>
+        <v>17.5370911807013</v>
       </c>
       <c r="H171" t="n">
-        <v>16.813615515553</v>
+        <v>17.2828462354772</v>
       </c>
       <c r="I171" t="n">
-        <v>17.7535444594184</v>
+        <v>18.1133076026598</v>
       </c>
       <c r="J171" t="n">
-        <v>18.7169601166379</v>
+        <v>18.6037195016897</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="n">
-        <v>10.8168774667642</v>
+        <v>-4.79884084330065</v>
       </c>
       <c r="B172" t="n">
-        <v>11.3994401123813</v>
+        <v>-5.5959304976081</v>
       </c>
       <c r="C172" t="n">
-        <v>11.6808009191261</v>
+        <v>-6.04662402502351</v>
       </c>
       <c r="D172" t="n">
-        <v>12.4849407776581</v>
+        <v>-6.69475275097038</v>
       </c>
       <c r="E172" t="n">
-        <v>13.2011445651859</v>
+        <v>-7.13521511778463</v>
       </c>
       <c r="F172" t="n">
-        <v>15.9127108608379</v>
+        <v>-7.44245690865604</v>
       </c>
       <c r="G172" t="n">
-        <v>-7.83087883675282</v>
+        <v>-8.19842044899541</v>
       </c>
       <c r="H172" t="n">
-        <v>-8.86377573433817</v>
+        <v>-8.50580041393708</v>
       </c>
       <c r="I172" t="n">
-        <v>-8.95569337713375</v>
+        <v>-8.9487079512077</v>
       </c>
       <c r="J172" t="n">
-        <v>-9.25090689284327</v>
+        <v>-9.74658792328825</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="n">
-        <v>-4.95547126259225</v>
+        <v>9.11519930388545</v>
       </c>
       <c r="B173" t="n">
-        <v>-5.03841571620609</v>
+        <v>10.7332655378253</v>
       </c>
       <c r="C173" t="n">
-        <v>-6.40014860393973</v>
+        <v>-6.02401409987661</v>
       </c>
       <c r="D173" t="n">
-        <v>-6.15575584256436</v>
+        <v>-6.58459577232524</v>
       </c>
       <c r="E173" t="n">
-        <v>-7.09557344948426</v>
+        <v>-6.93745794909924</v>
       </c>
       <c r="F173" t="n">
-        <v>-7.58541349108734</v>
+        <v>-7.37848987092668</v>
       </c>
       <c r="G173" t="n">
-        <v>-7.95982739399101</v>
+        <v>-7.77010236307155</v>
       </c>
       <c r="H173" t="n">
-        <v>-8.75615514950976</v>
+        <v>-8.73408297973637</v>
       </c>
       <c r="I173" t="n">
-        <v>-9.22702320982569</v>
+        <v>-9.26282844004596</v>
       </c>
       <c r="J173" t="n">
-        <v>-9.75271411633301</v>
+        <v>-9.70518202840854</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="n">
-        <v>11.0251009766423</v>
+        <v>10.8329080492545</v>
       </c>
       <c r="B174" t="n">
-        <v>9.91295983443672</v>
+        <v>11.4742863732742</v>
       </c>
       <c r="C174" t="n">
-        <v>12.9640257095649</v>
+        <v>14.036817438397</v>
       </c>
       <c r="D174" t="n">
-        <v>13.8474685488109</v>
+        <v>12.33204723054</v>
       </c>
       <c r="E174" t="n">
-        <v>12.8595890616929</v>
+        <v>15.5391020439949</v>
       </c>
       <c r="F174" t="n">
-        <v>15.8615506875874</v>
+        <v>14.0171483293642</v>
       </c>
       <c r="G174" t="n">
-        <v>16.270468695958</v>
+        <v>16.981512345618</v>
       </c>
       <c r="H174" t="n">
-        <v>16.6239005460864</v>
+        <v>17.5864505544642</v>
       </c>
       <c r="I174" t="n">
-        <v>17.5742237027174</v>
+        <v>18.0444958742889</v>
       </c>
       <c r="J174" t="n">
-        <v>19.6985041641768</v>
+        <v>19.4660508079228</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="n">
-        <v>9.96560436864569</v>
+        <v>9.4576946560864</v>
       </c>
       <c r="B175" t="n">
-        <v>11.347622206799</v>
+        <v>11.5726485513898</v>
       </c>
       <c r="C175" t="n">
-        <v>13.1929359793878</v>
+        <v>12.1619814181484</v>
       </c>
       <c r="D175" t="n">
-        <v>13.2231735603511</v>
+        <v>13.5149356137691</v>
       </c>
       <c r="E175" t="n">
-        <v>14.213078565034</v>
+        <v>13.5929632176293</v>
       </c>
       <c r="F175" t="n">
-        <v>15.6702124999706</v>
+        <v>15.4129851683206</v>
       </c>
       <c r="G175" t="n">
-        <v>14.8269888205898</v>
+        <v>16.1806964568252</v>
       </c>
       <c r="H175" t="n">
-        <v>16.7508912803604</v>
+        <v>16.4632157928746</v>
       </c>
       <c r="I175" t="n">
-        <v>17.548203353308</v>
+        <v>-9.00869105142515</v>
       </c>
       <c r="J175" t="n">
-        <v>19.7624974991539</v>
+        <v>-9.49912689907615</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="n">
-        <v>11.8678615919139</v>
+        <v>10.2479431613923</v>
       </c>
       <c r="B176" t="n">
-        <v>10.6008349734979</v>
+        <v>11.6555330997236</v>
       </c>
       <c r="C176" t="n">
-        <v>11.0008751575029</v>
+        <v>11.9353047655799</v>
       </c>
       <c r="D176" t="n">
-        <v>-6.2654885860194</v>
+        <v>13.2320524008057</v>
       </c>
       <c r="E176" t="n">
-        <v>-6.79927776726598</v>
+        <v>14.3519390002473</v>
       </c>
       <c r="F176" t="n">
-        <v>-7.85700204149176</v>
+        <v>15.3562452406432</v>
       </c>
       <c r="G176" t="n">
-        <v>-8.04236185534444</v>
+        <v>17.756918979518</v>
       </c>
       <c r="H176" t="n">
-        <v>-8.24201245074579</v>
+        <v>17.8223415196709</v>
       </c>
       <c r="I176" t="n">
-        <v>-8.77904366108073</v>
+        <v>18.588877407829</v>
       </c>
       <c r="J176" t="n">
-        <v>-9.41521729463445</v>
+        <v>20.1648105552789</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="n">
-        <v>-4.82043568409589</v>
+        <v>10.5791497784779</v>
       </c>
       <c r="B177" t="n">
-        <v>-5.32289649801225</v>
+        <v>11.8070315338755</v>
       </c>
       <c r="C177" t="n">
-        <v>-5.76275332900987</v>
+        <v>11.5896691712709</v>
       </c>
       <c r="D177" t="n">
-        <v>-7.04507215941603</v>
+        <v>12.5889706259412</v>
       </c>
       <c r="E177" t="n">
-        <v>-7.10704796304151</v>
+        <v>14.3134260597944</v>
       </c>
       <c r="F177" t="n">
-        <v>-7.56265031184549</v>
+        <v>15.095330100338</v>
       </c>
       <c r="G177" t="n">
-        <v>-7.97026416047482</v>
+        <v>14.8300944665312</v>
       </c>
       <c r="H177" t="n">
-        <v>-8.73547501529075</v>
+        <v>17.6754983308492</v>
       </c>
       <c r="I177" t="n">
-        <v>-9.4056539732849</v>
+        <v>18.0094567616113</v>
       </c>
       <c r="J177" t="n">
-        <v>-9.47833374307209</v>
+        <v>18.6937067314457</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="n">
-        <v>8.86799708320449</v>
+        <v>10.6825005441786</v>
       </c>
       <c r="B178" t="n">
-        <v>11.2128910274573</v>
+        <v>12.3770992084462</v>
       </c>
       <c r="C178" t="n">
-        <v>12.8841919460073</v>
+        <v>11.6438617647527</v>
       </c>
       <c r="D178" t="n">
-        <v>12.7386696339037</v>
+        <v>13.6026044545139</v>
       </c>
       <c r="E178" t="n">
-        <v>-6.71303413549875</v>
+        <v>15.4080452791742</v>
       </c>
       <c r="F178" t="n">
-        <v>-7.41280147653867</v>
+        <v>14.874131003576</v>
       </c>
       <c r="G178" t="n">
-        <v>-8.10723646101416</v>
+        <v>15.9746351030987</v>
       </c>
       <c r="H178" t="n">
-        <v>-8.53328757203681</v>
+        <v>19.2519334126732</v>
       </c>
       <c r="I178" t="n">
-        <v>-9.0210259069387</v>
+        <v>18.8074308872484</v>
       </c>
       <c r="J178" t="n">
-        <v>-9.49643769381501</v>
+        <v>20.7956482311848</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="n">
-        <v>10.7192049816504</v>
+        <v>-4.94732367559924</v>
       </c>
       <c r="B179" t="n">
-        <v>11.3045084384124</v>
+        <v>-5.46529696372474</v>
       </c>
       <c r="C179" t="n">
-        <v>13.2493971690402</v>
+        <v>-5.96022268258688</v>
       </c>
       <c r="D179" t="n">
-        <v>11.9648585477409</v>
+        <v>-6.26292045593209</v>
       </c>
       <c r="E179" t="n">
-        <v>14.0075757201405</v>
+        <v>-6.96326710440493</v>
       </c>
       <c r="F179" t="n">
-        <v>13.5864234840778</v>
+        <v>-7.36824587997005</v>
       </c>
       <c r="G179" t="n">
-        <v>16.75590705638</v>
+        <v>-7.86963898214173</v>
       </c>
       <c r="H179" t="n">
-        <v>17.3719041018444</v>
+        <v>-8.88799546192533</v>
       </c>
       <c r="I179" t="n">
-        <v>18.0959566527601</v>
+        <v>-8.98722639249911</v>
       </c>
       <c r="J179" t="n">
-        <v>19.2873879884603</v>
+        <v>-9.13933997857392</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="n">
-        <v>10.3341918394624</v>
+        <v>-4.7561628970008</v>
       </c>
       <c r="B180" t="n">
-        <v>12.3063256273171</v>
+        <v>-5.61400019618136</v>
       </c>
       <c r="C180" t="n">
-        <v>12.8876674639804</v>
+        <v>-5.8843046398881</v>
       </c>
       <c r="D180" t="n">
-        <v>-6.51317266455926</v>
+        <v>-6.96857265314711</v>
       </c>
       <c r="E180" t="n">
-        <v>-6.82000984034347</v>
+        <v>-7.27049584091625</v>
       </c>
       <c r="F180" t="n">
-        <v>-7.47129100643579</v>
+        <v>-7.0879989303075</v>
       </c>
       <c r="G180" t="n">
-        <v>-8.33169906170348</v>
+        <v>-7.88074216138245</v>
       </c>
       <c r="H180" t="n">
-        <v>-8.27559007232785</v>
+        <v>-8.81566531945252</v>
       </c>
       <c r="I180" t="n">
-        <v>-9.01526558625866</v>
+        <v>-9.31856694104527</v>
       </c>
       <c r="J180" t="n">
-        <v>-9.39774553459601</v>
+        <v>-9.37447936143259</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="n">
-        <v>11.2140988029948</v>
+        <v>11.0158743148626</v>
       </c>
       <c r="B181" t="n">
-        <v>10.8704837174647</v>
+        <v>12.0602191316714</v>
       </c>
       <c r="C181" t="n">
-        <v>11.7359458416079</v>
+        <v>11.8187730103491</v>
       </c>
       <c r="D181" t="n">
-        <v>13.8578085776783</v>
+        <v>12.4959622429822</v>
       </c>
       <c r="E181" t="n">
-        <v>13.3438090126592</v>
+        <v>13.7164522540463</v>
       </c>
       <c r="F181" t="n">
-        <v>15.2750340121421</v>
+        <v>14.8666123491489</v>
       </c>
       <c r="G181" t="n">
-        <v>14.2874945554733</v>
+        <v>16.6064473242349</v>
       </c>
       <c r="H181" t="n">
-        <v>16.7304600496912</v>
+        <v>16.0780479575362</v>
       </c>
       <c r="I181" t="n">
-        <v>17.3346125116194</v>
+        <v>19.1367466870623</v>
       </c>
       <c r="J181" t="n">
-        <v>19.9031486614139</v>
+        <v>18.5284460009273</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="n">
-        <v>10.5282137268925</v>
+        <v>10.7098660431131</v>
       </c>
       <c r="B182" t="n">
-        <v>11.328279497008</v>
+        <v>11.2649669863137</v>
       </c>
       <c r="C182" t="n">
-        <v>11.8189392385686</v>
+        <v>11.8439034642204</v>
       </c>
       <c r="D182" t="n">
-        <v>12.8714272899316</v>
+        <v>13.1626540110271</v>
       </c>
       <c r="E182" t="n">
-        <v>14.7707200726533</v>
+        <v>14.3238934653686</v>
       </c>
       <c r="F182" t="n">
-        <v>15.489564920284</v>
+        <v>14.0300719507727</v>
       </c>
       <c r="G182" t="n">
-        <v>15.4959374796797</v>
+        <v>16.2828596535341</v>
       </c>
       <c r="H182" t="n">
-        <v>17.3767542396848</v>
+        <v>17.5493119899544</v>
       </c>
       <c r="I182" t="n">
-        <v>17.5402215820597</v>
+        <v>18.0072542563798</v>
       </c>
       <c r="J182" t="n">
-        <v>18.9074499823179</v>
+        <v>18.9235535860896</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="n">
-        <v>12.1601093323534</v>
+        <v>-4.86870402702849</v>
       </c>
       <c r="B183" t="n">
-        <v>10.9896316457571</v>
+        <v>-5.60687061099405</v>
       </c>
       <c r="C183" t="n">
-        <v>12.3135828729821</v>
+        <v>-6.16199237951251</v>
       </c>
       <c r="D183" t="n">
-        <v>13.1161960227813</v>
+        <v>-6.65360390405255</v>
       </c>
       <c r="E183" t="n">
-        <v>-7.04090165099225</v>
+        <v>-6.69536611629175</v>
       </c>
       <c r="F183" t="n">
-        <v>-7.53148432047807</v>
+        <v>-7.24044184275909</v>
       </c>
       <c r="G183" t="n">
-        <v>-8.46173464697696</v>
+        <v>-8.04475097111172</v>
       </c>
       <c r="H183" t="n">
-        <v>-8.56192069263359</v>
+        <v>-8.59764408297419</v>
       </c>
       <c r="I183" t="n">
-        <v>-8.74829753753403</v>
+        <v>-8.65091425097368</v>
       </c>
       <c r="J183" t="n">
-        <v>-9.46493300277481</v>
+        <v>-9.19072320063683</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="n">
-        <v>10.937085388905</v>
+        <v>10.3321208256362</v>
       </c>
       <c r="B184" t="n">
-        <v>10.7502445186823</v>
+        <v>9.76920351254246</v>
       </c>
       <c r="C184" t="n">
-        <v>13.8799002294467</v>
+        <v>13.3021926259364</v>
       </c>
       <c r="D184" t="n">
-        <v>13.0066042901151</v>
+        <v>12.5884079250635</v>
       </c>
       <c r="E184" t="n">
-        <v>14.4933528322789</v>
+        <v>13.9387077513896</v>
       </c>
       <c r="F184" t="n">
-        <v>15.4188783722976</v>
+        <v>15.6613030037913</v>
       </c>
       <c r="G184" t="n">
-        <v>-8.43790313735127</v>
+        <v>15.4036002704741</v>
       </c>
       <c r="H184" t="n">
-        <v>-8.50343891765098</v>
+        <v>17.8771261311212</v>
       </c>
       <c r="I184" t="n">
-        <v>-8.97745834956674</v>
+        <v>18.7604019020541</v>
       </c>
       <c r="J184" t="n">
-        <v>-9.76905683480596</v>
+        <v>19.2808110457775</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="n">
-        <v>-4.99466566594985</v>
+        <v>9.23973722399557</v>
       </c>
       <c r="B185" t="n">
-        <v>-5.21252887879411</v>
+        <v>11.572915967227</v>
       </c>
       <c r="C185" t="n">
-        <v>-5.65560186684842</v>
+        <v>13.3606813467176</v>
       </c>
       <c r="D185" t="n">
-        <v>-6.07176954235381</v>
+        <v>12.3467079572419</v>
       </c>
       <c r="E185" t="n">
-        <v>-6.83053160309809</v>
+        <v>13.9397103268381</v>
       </c>
       <c r="F185" t="n">
-        <v>-7.53634435786135</v>
+        <v>16.3830647423543</v>
       </c>
       <c r="G185" t="n">
-        <v>-8.10031363626268</v>
+        <v>15.3646844261925</v>
       </c>
       <c r="H185" t="n">
-        <v>-8.83652595942278</v>
+        <v>15.9962226225171</v>
       </c>
       <c r="I185" t="n">
-        <v>-9.59676064436277</v>
+        <v>19.1805383708154</v>
       </c>
       <c r="J185" t="n">
-        <v>-9.58246276727201</v>
+        <v>17.9792269464753</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="n">
-        <v>-4.85710540701588</v>
+        <v>11.600529895316</v>
       </c>
       <c r="B186" t="n">
-        <v>-5.33583155681464</v>
+        <v>11.083870720941</v>
       </c>
       <c r="C186" t="n">
-        <v>-6.03017496029644</v>
+        <v>10.5976611195462</v>
       </c>
       <c r="D186" t="n">
-        <v>-6.60015613342042</v>
+        <v>13.8244132806235</v>
       </c>
       <c r="E186" t="n">
-        <v>-7.033285427</v>
+        <v>14.3596462543752</v>
       </c>
       <c r="F186" t="n">
-        <v>-7.83934801434003</v>
+        <v>15.0942479153585</v>
       </c>
       <c r="G186" t="n">
-        <v>-7.61111720154025</v>
+        <v>16.2051830959996</v>
       </c>
       <c r="H186" t="n">
-        <v>-8.67214939772438</v>
+        <v>17.9702180530647</v>
       </c>
       <c r="I186" t="n">
-        <v>-9.19486880522554</v>
+        <v>17.0098412973077</v>
       </c>
       <c r="J186" t="n">
-        <v>-9.65310547467415</v>
+        <v>20.4237037884612</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="n">
-        <v>10.0360861839899</v>
+        <v>10.1986484267631</v>
       </c>
       <c r="B187" t="n">
-        <v>11.5712296023936</v>
+        <v>12.1364684750197</v>
       </c>
       <c r="C187" t="n">
-        <v>10.5560706843856</v>
+        <v>13.9944929079297</v>
       </c>
       <c r="D187" t="n">
-        <v>12.9722055488827</v>
+        <v>11.9010588493882</v>
       </c>
       <c r="E187" t="n">
-        <v>14.067701003149</v>
+        <v>14.768709337445</v>
       </c>
       <c r="F187" t="n">
-        <v>13.3014163121038</v>
+        <v>15.003129820917</v>
       </c>
       <c r="G187" t="n">
-        <v>17.0677292210713</v>
+        <v>14.9256140413276</v>
       </c>
       <c r="H187" t="n">
-        <v>16.4883006896866</v>
+        <v>17.0222521356929</v>
       </c>
       <c r="I187" t="n">
-        <v>16.7558691943105</v>
+        <v>18.6607826147873</v>
       </c>
       <c r="J187" t="n">
-        <v>-9.25401327839634</v>
+        <v>-9.51198184062752</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="n">
-        <v>-5.03399135090291</v>
+        <v>11.5936890813093</v>
       </c>
       <c r="B188" t="n">
-        <v>-5.16252689182749</v>
+        <v>11.8696770567466</v>
       </c>
       <c r="C188" t="n">
-        <v>-6.11803650679948</v>
+        <v>-5.55935897562081</v>
       </c>
       <c r="D188" t="n">
-        <v>-6.97425364000587</v>
+        <v>-6.35477025904632</v>
       </c>
       <c r="E188" t="n">
-        <v>-6.71232867544251</v>
+        <v>-7.38967410881351</v>
       </c>
       <c r="F188" t="n">
-        <v>-7.46777361085969</v>
+        <v>-7.5143313015675</v>
       </c>
       <c r="G188" t="n">
-        <v>-8.16438952586469</v>
+        <v>-8.16496130543138</v>
       </c>
       <c r="H188" t="n">
-        <v>-8.50060504968419</v>
+        <v>-8.99756091986311</v>
       </c>
       <c r="I188" t="n">
-        <v>-8.92545482407246</v>
+        <v>-8.37918366684015</v>
       </c>
       <c r="J188" t="n">
-        <v>-9.39131880961164</v>
+        <v>-9.26426562043151</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="n">
-        <v>9.15220369018151</v>
+        <v>-4.85193001636626</v>
       </c>
       <c r="B189" t="n">
-        <v>10.9646152455547</v>
+        <v>-5.60651552799224</v>
       </c>
       <c r="C189" t="n">
-        <v>12.2082594711218</v>
+        <v>-6.16506399810288</v>
       </c>
       <c r="D189" t="n">
-        <v>12.469184386719</v>
+        <v>-6.54062959275399</v>
       </c>
       <c r="E189" t="n">
-        <v>13.4403240270139</v>
+        <v>-7.19355186308987</v>
       </c>
       <c r="F189" t="n">
-        <v>15.7762956756024</v>
+        <v>-7.48257460519265</v>
       </c>
       <c r="G189" t="n">
-        <v>15.6020962460431</v>
+        <v>-8.40033610287547</v>
       </c>
       <c r="H189" t="n">
-        <v>17.68132456949</v>
+        <v>-8.08475938784695</v>
       </c>
       <c r="I189" t="n">
-        <v>18.1771807279893</v>
+        <v>-8.86433979533807</v>
       </c>
       <c r="J189" t="n">
-        <v>19.8693926317285</v>
+        <v>-9.88499431252812</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="n">
-        <v>9.92545039845855</v>
+        <v>10.2472545458262</v>
       </c>
       <c r="B190" t="n">
-        <v>11.3702759174764</v>
+        <v>11.0944994730592</v>
       </c>
       <c r="C190" t="n">
-        <v>10.9250778571937</v>
+        <v>-6.13796899386384</v>
       </c>
       <c r="D190" t="n">
-        <v>12.7238970704154</v>
+        <v>-6.96376624677297</v>
       </c>
       <c r="E190" t="n">
-        <v>14.8294006668392</v>
+        <v>-6.64100896952551</v>
       </c>
       <c r="F190" t="n">
-        <v>15.9037550498799</v>
+        <v>-7.57977791108454</v>
       </c>
       <c r="G190" t="n">
-        <v>-8.45431981648941</v>
+        <v>-8.19101717536286</v>
       </c>
       <c r="H190" t="n">
-        <v>-8.6860273787719</v>
+        <v>-8.38792504206256</v>
       </c>
       <c r="I190" t="n">
-        <v>-9.1057727881221</v>
+        <v>-9.08498593354292</v>
       </c>
       <c r="J190" t="n">
-        <v>-9.44216241965369</v>
+        <v>-9.46729192681885</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="n">
-        <v>8.81207162136775</v>
+        <v>9.45324718982725</v>
       </c>
       <c r="B191" t="n">
-        <v>11.5192340351293</v>
+        <v>11.3511254656041</v>
       </c>
       <c r="C191" t="n">
-        <v>11.6701586508194</v>
+        <v>12.1290796602461</v>
       </c>
       <c r="D191" t="n">
-        <v>13.3641695198878</v>
+        <v>14.0312789467657</v>
       </c>
       <c r="E191" t="n">
-        <v>13.2608062641517</v>
+        <v>13.6701777242463</v>
       </c>
       <c r="F191" t="n">
-        <v>16.1043698895902</v>
+        <v>14.9184822762298</v>
       </c>
       <c r="G191" t="n">
-        <v>15.5330239984244</v>
+        <v>-8.08345581678967</v>
       </c>
       <c r="H191" t="n">
-        <v>15.6947498473039</v>
+        <v>-8.74583159707584</v>
       </c>
       <c r="I191" t="n">
-        <v>17.4439826584596</v>
+        <v>-9.08921617884754</v>
       </c>
       <c r="J191" t="n">
-        <v>18.7350180703742</v>
+        <v>-9.17462941835179</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="n">
-        <v>-5.1102268672129</v>
+        <v>10.2457886927637</v>
       </c>
       <c r="B192" t="n">
-        <v>-5.40381552778</v>
+        <v>10.9975209847</v>
       </c>
       <c r="C192" t="n">
-        <v>-5.81380326150243</v>
+        <v>11.7178953361141</v>
       </c>
       <c r="D192" t="n">
-        <v>-6.57066411738154</v>
+        <v>13.0542526260145</v>
       </c>
       <c r="E192" t="n">
-        <v>-6.99094759789092</v>
+        <v>13.3985213158749</v>
       </c>
       <c r="F192" t="n">
-        <v>-7.23835666014055</v>
+        <v>14.4036591070302</v>
       </c>
       <c r="G192" t="n">
-        <v>-7.78782829685562</v>
+        <v>14.6736624678075</v>
       </c>
       <c r="H192" t="n">
-        <v>-8.42561221716657</v>
+        <v>15.4165715912961</v>
       </c>
       <c r="I192" t="n">
-        <v>-9.47153461188734</v>
+        <v>17.6348395312456</v>
       </c>
       <c r="J192" t="n">
-        <v>-9.58529232418447</v>
+        <v>18.728662565126</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="n">
-        <v>-5.25236024667465</v>
+        <v>-5.63114892153154</v>
       </c>
       <c r="B193" t="n">
-        <v>-5.29253664404004</v>
+        <v>-5.65180436049548</v>
       </c>
       <c r="C193" t="n">
-        <v>-5.89347783583432</v>
+        <v>-5.7257091335798</v>
       </c>
       <c r="D193" t="n">
-        <v>-6.46926203025913</v>
+        <v>-6.84018832327844</v>
       </c>
       <c r="E193" t="n">
-        <v>-7.27779571373293</v>
+        <v>-7.22966389014217</v>
       </c>
       <c r="F193" t="n">
-        <v>-8.08386450494919</v>
+        <v>-7.44331925364746</v>
       </c>
       <c r="G193" t="n">
-        <v>-8.13561798523361</v>
+        <v>-8.08083837657018</v>
       </c>
       <c r="H193" t="n">
-        <v>-9.01052884167585</v>
+        <v>-8.3991803948131</v>
       </c>
       <c r="I193" t="n">
-        <v>-8.43760145264023</v>
+        <v>-8.74263143267715</v>
       </c>
       <c r="J193" t="n">
-        <v>-9.72888383754478</v>
+        <v>-9.89643568837892</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="n">
-        <v>9.30295064195942</v>
+        <v>9.75029623651788</v>
       </c>
       <c r="B194" t="n">
-        <v>10.6054216944928</v>
+        <v>10.3556072356898</v>
       </c>
       <c r="C194" t="n">
-        <v>11.7222700274018</v>
+        <v>13.2253197545764</v>
       </c>
       <c r="D194" t="n">
-        <v>12.8794529391781</v>
+        <v>12.8183179492199</v>
       </c>
       <c r="E194" t="n">
-        <v>13.4842418600108</v>
+        <v>13.1955907260132</v>
       </c>
       <c r="F194" t="n">
-        <v>14.779609726442</v>
+        <v>15.7761246575966</v>
       </c>
       <c r="G194" t="n">
-        <v>16.0481070751275</v>
+        <v>15.6882845992131</v>
       </c>
       <c r="H194" t="n">
-        <v>16.6035836976369</v>
+        <v>17.022690869914</v>
       </c>
       <c r="I194" t="n">
-        <v>17.3406170926319</v>
+        <v>17.5508223901691</v>
       </c>
       <c r="J194" t="n">
-        <v>16.8415016953961</v>
+        <v>19.8544379249214</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="n">
-        <v>-4.66264713051677</v>
+        <v>-5.32377068610414</v>
       </c>
       <c r="B195" t="n">
-        <v>-5.4323069190061</v>
+        <v>-5.54872936867937</v>
       </c>
       <c r="C195" t="n">
-        <v>-6.24316663392104</v>
+        <v>-6.09976455625409</v>
       </c>
       <c r="D195" t="n">
-        <v>-6.3423090791741</v>
+        <v>-6.23084145824323</v>
       </c>
       <c r="E195" t="n">
-        <v>-6.94868447321227</v>
+        <v>-7.49614063120566</v>
       </c>
       <c r="F195" t="n">
-        <v>-7.36922207491999</v>
+        <v>-7.58692534826727</v>
       </c>
       <c r="G195" t="n">
-        <v>-7.89194729749398</v>
+        <v>-8.18843966676197</v>
       </c>
       <c r="H195" t="n">
-        <v>-8.11862674421686</v>
+        <v>-8.44980141039315</v>
       </c>
       <c r="I195" t="n">
-        <v>-9.2624734565866</v>
+        <v>-9.3504881307528</v>
       </c>
       <c r="J195" t="n">
-        <v>-9.84016880759994</v>
+        <v>-9.4399596026635</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="n">
-        <v>10.3630819130236</v>
+        <v>-5.09635722513269</v>
       </c>
       <c r="B196" t="n">
-        <v>10.4392153597827</v>
+        <v>-5.69019632673392</v>
       </c>
       <c r="C196" t="n">
-        <v>11.5735540077096</v>
+        <v>-6.52577207876683</v>
       </c>
       <c r="D196" t="n">
-        <v>13.2211997259631</v>
+        <v>-6.58200148382876</v>
       </c>
       <c r="E196" t="n">
-        <v>13.5717886901935</v>
+        <v>-6.85856269881103</v>
       </c>
       <c r="F196" t="n">
-        <v>14.5003870239601</v>
+        <v>-7.6031219682676</v>
       </c>
       <c r="G196" t="n">
-        <v>15.9745818404972</v>
+        <v>-7.85298411339274</v>
       </c>
       <c r="H196" t="n">
-        <v>17.3271921100672</v>
+        <v>-8.62175066333673</v>
       </c>
       <c r="I196" t="n">
-        <v>17.4891689975273</v>
+        <v>-8.42775423119332</v>
       </c>
       <c r="J196" t="n">
-        <v>18.8912288761605</v>
+        <v>-10.0082253223626</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="n">
-        <v>10.4407359295921</v>
+        <v>9.64182791655326</v>
       </c>
       <c r="B197" t="n">
-        <v>10.7690124707282</v>
+        <v>11.9866236877629</v>
       </c>
       <c r="C197" t="n">
-        <v>11.7758162290711</v>
+        <v>12.4089122200254</v>
       </c>
       <c r="D197" t="n">
-        <v>12.4195663262162</v>
+        <v>13.6763646025541</v>
       </c>
       <c r="E197" t="n">
-        <v>14.2589781777737</v>
+        <v>12.7041369413152</v>
       </c>
       <c r="F197" t="n">
-        <v>-7.70809160289346</v>
+        <v>14.9263330254553</v>
       </c>
       <c r="G197" t="n">
-        <v>-7.60335290817484</v>
+        <v>17.2760956898412</v>
       </c>
       <c r="H197" t="n">
-        <v>-8.2471480058597</v>
+        <v>16.4423228560919</v>
       </c>
       <c r="I197" t="n">
-        <v>-8.88864290547656</v>
+        <v>18.6252243925761</v>
       </c>
       <c r="J197" t="n">
-        <v>-9.62567693273297</v>
+        <v>18.932797523115</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="n">
-        <v>9.43830757152322</v>
+        <v>-4.6128645746855</v>
       </c>
       <c r="B198" t="n">
-        <v>10.8125230326346</v>
+        <v>-5.08675531327673</v>
       </c>
       <c r="C198" t="n">
-        <v>11.9375301670468</v>
+        <v>-6.14165780760149</v>
       </c>
       <c r="D198" t="n">
-        <v>14.6081058089331</v>
+        <v>-6.49411068734185</v>
       </c>
       <c r="E198" t="n">
-        <v>15.0072676686851</v>
+        <v>-6.79242518490765</v>
       </c>
       <c r="F198" t="n">
-        <v>14.6520771391018</v>
+        <v>-7.30012129489862</v>
       </c>
       <c r="G198" t="n">
-        <v>16.2298916214815</v>
+        <v>-8.05342378569835</v>
       </c>
       <c r="H198" t="n">
-        <v>16.7121597538845</v>
+        <v>-8.77143609362282</v>
       </c>
       <c r="I198" t="n">
-        <v>18.5355323608538</v>
+        <v>-8.88333141081537</v>
       </c>
       <c r="J198" t="n">
-        <v>20.3717938236208</v>
+        <v>-9.35426529903861</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="n">
-        <v>10.3604712505318</v>
+        <v>7.94089337890879</v>
       </c>
       <c r="B199" t="n">
-        <v>11.8452744769924</v>
+        <v>11.882002262422</v>
       </c>
       <c r="C199" t="n">
-        <v>10.8946582010304</v>
+        <v>12.5640735230405</v>
       </c>
       <c r="D199" t="n">
-        <v>13.2335600824117</v>
+        <v>12.8486995893784</v>
       </c>
       <c r="E199" t="n">
-        <v>13.1066100474714</v>
+        <v>14.0390294571906</v>
       </c>
       <c r="F199" t="n">
-        <v>14.9042026370592</v>
+        <v>14.3320942416461</v>
       </c>
       <c r="G199" t="n">
-        <v>16.8008851931081</v>
+        <v>14.4147700050629</v>
       </c>
       <c r="H199" t="n">
-        <v>16.3468410620188</v>
+        <v>15.799149106867</v>
       </c>
       <c r="I199" t="n">
-        <v>18.9371845440385</v>
+        <v>17.9157858933023</v>
       </c>
       <c r="J199" t="n">
-        <v>20.1652616607291</v>
+        <v>18.8010187320287</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="n">
-        <v>-5.22569326065569</v>
+        <v>-4.88165439281333</v>
       </c>
       <c r="B200" t="n">
-        <v>-5.46300916378917</v>
+        <v>-5.70613269946464</v>
       </c>
       <c r="C200" t="n">
-        <v>-6.13561465797119</v>
+        <v>-6.13588157677732</v>
       </c>
       <c r="D200" t="n">
-        <v>-6.18393949107358</v>
+        <v>-6.69272605918417</v>
       </c>
       <c r="E200" t="n">
-        <v>-7.16788957073217</v>
+        <v>-7.27088823607834</v>
       </c>
       <c r="F200" t="n">
-        <v>-7.35221551381913</v>
+        <v>-7.12766352746756</v>
       </c>
       <c r="G200" t="n">
-        <v>-8.07872056489431</v>
+        <v>-7.83350404104561</v>
       </c>
       <c r="H200" t="n">
-        <v>-8.26995489802953</v>
+        <v>-8.8755636674711</v>
       </c>
       <c r="I200" t="n">
-        <v>-9.02697041753643</v>
+        <v>-9.09157285921873</v>
       </c>
       <c r="J200" t="n">
-        <v>-9.53929493344577</v>
+        <v>-9.48983843627895</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="n">
-        <v>11.1588060894458</v>
+        <v>9.29320492148727</v>
       </c>
       <c r="B201" t="n">
-        <v>10.8380139040638</v>
+        <v>9.93215111859915</v>
       </c>
       <c r="C201" t="n">
-        <v>11.0288446868936</v>
+        <v>11.7662214804625</v>
       </c>
       <c r="D201" t="n">
-        <v>-6.56450168605884</v>
+        <v>12.3142267858483</v>
       </c>
       <c r="E201" t="n">
-        <v>-7.14261533215232</v>
+        <v>12.3554118515088</v>
       </c>
       <c r="F201" t="n">
-        <v>-7.60834360161926</v>
+        <v>14.019174098018</v>
       </c>
       <c r="G201" t="n">
-        <v>-8.13428718537163</v>
+        <v>16.588276481612</v>
       </c>
       <c r="H201" t="n">
-        <v>-8.14746936567686</v>
+        <v>18.641360616157</v>
       </c>
       <c r="I201" t="n">
-        <v>-8.52685798182118</v>
+        <v>18.9426739149733</v>
       </c>
       <c r="J201" t="n">
-        <v>-9.67071441009175</v>
+        <v>18.928965837851</v>
       </c>
     </row>
   </sheetData>
